--- a/Report/BDCLPM.xlsx
+++ b/Report/BDCLPM.xlsx
@@ -53,6 +53,9 @@
   </x:si>
   <x:si>
     <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngô Dương Kiều Trân - 22DH113850</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -92,9 +95,6 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>Ngô Dương Kiều Trân - 22DH113850</x:t>
-  </x:si>
-  <x:si>
     <x:t>Cập nhật thông tin giao hàng
 Chỉnh sửa thông tin người dùng
 Xem chi tiết sản phẩm
@@ -658,6 +658,9 @@
   </x:si>
   <x:si>
     <x:t>Email: ngocduy@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fail</x:t>
   </x:si>
   <x:si>
     <x:t>2. Nhập Email, Mật khẩu và Nhập lại mật khẩu</x:t>
@@ -1532,9 +1535,6 @@
     <x:t>[4]. Dù đăng xuất nhưng vẫn còn sản phẩm trong giỏ hàng
 [6]. Trang cập nhật thông tin giao hàng được bật.
        Hiển thị thông báo cập nhật thông tin thất bại.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fail</x:t>
   </x:si>
   <x:si>
     <x:t>ID_CapNhatTTGH_2</x:t>
@@ -7665,12 +7665,12 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G3" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="B4" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
         <x:v>10</x:v>
@@ -9340,7 +9340,7 @@
       <x:c r="H12" s="334"/>
       <x:c r="I12" s="335"/>
       <x:c r="J12" s="336" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="K12" s="337"/>
     </x:row>
@@ -9350,10 +9350,10 @@
       <x:c r="D13" s="220"/>
       <x:c r="E13" s="208"/>
       <x:c r="F13" s="332" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G13" s="338" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H13" s="339"/>
       <x:c r="I13" s="208"/>
@@ -9366,13 +9366,13 @@
       <x:c r="D14" s="220"/>
       <x:c r="E14" s="208"/>
       <x:c r="F14" s="332" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G14" s="338" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H14" s="339" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="I14" s="208"/>
       <x:c r="J14" s="224"/>
@@ -9384,11 +9384,11 @@
       <x:c r="D15" s="220"/>
       <x:c r="E15" s="208"/>
       <x:c r="F15" s="332" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G15" s="340"/>
       <x:c r="H15" s="338" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="I15" s="208"/>
       <x:c r="J15" s="224"/>
@@ -9400,7 +9400,7 @@
       <x:c r="D16" s="220"/>
       <x:c r="E16" s="208"/>
       <x:c r="F16" s="332" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G16" s="340"/>
       <x:c r="H16" s="339"/>
@@ -9414,7 +9414,7 @@
       <x:c r="D17" s="221"/>
       <x:c r="E17" s="209"/>
       <x:c r="F17" s="332" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G17" s="341"/>
       <x:c r="H17" s="339"/>
@@ -9427,24 +9427,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B18" s="342" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C18" s="208"/>
       <x:c r="D18" s="343" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E18" s="331" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F18" s="344" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G18" s="338" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="H18" s="334"/>
       <x:c r="I18" s="345" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="J18" s="336"/>
       <x:c r="K18" s="337"/>
@@ -9455,10 +9455,10 @@
       <x:c r="D19" s="220"/>
       <x:c r="E19" s="208"/>
       <x:c r="F19" s="338" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G19" s="338" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H19" s="339"/>
       <x:c r="I19" s="224"/>
@@ -9471,13 +9471,13 @@
       <x:c r="D20" s="220"/>
       <x:c r="E20" s="208"/>
       <x:c r="F20" s="338" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G20" s="338" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H20" s="339" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="I20" s="224"/>
       <x:c r="J20" s="224"/>
@@ -9489,7 +9489,7 @@
       <x:c r="D21" s="221"/>
       <x:c r="E21" s="209"/>
       <x:c r="F21" s="348" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G21" s="341"/>
       <x:c r="H21" s="337"/>
@@ -9502,20 +9502,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B22" s="342" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C22" s="208"/>
       <x:c r="D22" s="330" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="E22" s="349" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F22" s="344" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G22" s="344" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H22" s="334"/>
       <x:c r="I22" s="339"/>
@@ -9528,10 +9528,10 @@
       <x:c r="D23" s="220"/>
       <x:c r="E23" s="208"/>
       <x:c r="F23" s="338" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G23" s="338" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H23" s="339"/>
       <x:c r="I23" s="224"/>
@@ -9544,13 +9544,13 @@
       <x:c r="D24" s="220"/>
       <x:c r="E24" s="208"/>
       <x:c r="F24" s="338" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G24" s="338" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H24" s="339" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I24" s="224"/>
       <x:c r="J24" s="224"/>
@@ -9562,7 +9562,7 @@
       <x:c r="D25" s="221"/>
       <x:c r="E25" s="209"/>
       <x:c r="F25" s="348" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G25" s="341"/>
       <x:c r="H25" s="337"/>
@@ -9575,20 +9575,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B26" s="342" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C26" s="208"/>
       <x:c r="D26" s="330" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="E26" s="349" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F26" s="344" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G26" s="344" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H26" s="334"/>
       <x:c r="I26" s="339"/>
@@ -9601,10 +9601,10 @@
       <x:c r="D27" s="220"/>
       <x:c r="E27" s="208"/>
       <x:c r="F27" s="338" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G27" s="338" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H27" s="339"/>
       <x:c r="I27" s="224"/>
@@ -9617,13 +9617,13 @@
       <x:c r="D28" s="220"/>
       <x:c r="E28" s="208"/>
       <x:c r="F28" s="338" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G28" s="338" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H28" s="339" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="I28" s="224"/>
       <x:c r="J28" s="208"/>
@@ -9635,7 +9635,7 @@
       <x:c r="D29" s="221"/>
       <x:c r="E29" s="209"/>
       <x:c r="F29" s="348" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G29" s="341"/>
       <x:c r="H29" s="337"/>
@@ -9648,20 +9648,20 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B30" s="342" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C30" s="208"/>
       <x:c r="D30" s="330" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="E30" s="349" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F30" s="344" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G30" s="344" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H30" s="334"/>
       <x:c r="I30" s="339"/>
@@ -9674,10 +9674,10 @@
       <x:c r="D31" s="220"/>
       <x:c r="E31" s="208"/>
       <x:c r="F31" s="338" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G31" s="338" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H31" s="339"/>
       <x:c r="I31" s="224"/>
@@ -9690,13 +9690,13 @@
       <x:c r="D32" s="220"/>
       <x:c r="E32" s="208"/>
       <x:c r="F32" s="338" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G32" s="338" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H32" s="339" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I32" s="224"/>
       <x:c r="J32" s="208"/>
@@ -9708,7 +9708,7 @@
       <x:c r="D33" s="221"/>
       <x:c r="E33" s="209"/>
       <x:c r="F33" s="348" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G33" s="341"/>
       <x:c r="H33" s="337"/>
@@ -9721,20 +9721,20 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B34" s="342" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C34" s="208"/>
       <x:c r="D34" s="330" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="E34" s="349" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F34" s="344" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G34" s="344" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H34" s="334"/>
       <x:c r="I34" s="335"/>
@@ -9747,10 +9747,10 @@
       <x:c r="D35" s="220"/>
       <x:c r="E35" s="208"/>
       <x:c r="F35" s="338" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G35" s="338" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H35" s="339"/>
       <x:c r="I35" s="208"/>
@@ -9763,13 +9763,13 @@
       <x:c r="D36" s="220"/>
       <x:c r="E36" s="208"/>
       <x:c r="F36" s="353" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G36" s="338" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H36" s="339" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="I36" s="208"/>
       <x:c r="J36" s="208"/>
@@ -9781,7 +9781,7 @@
       <x:c r="D37" s="221"/>
       <x:c r="E37" s="209"/>
       <x:c r="F37" s="348" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G37" s="341"/>
       <x:c r="H37" s="337"/>
@@ -9794,24 +9794,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B38" s="342" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C38" s="208"/>
       <x:c r="D38" s="330" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="E38" s="349" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F38" s="344" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G38" s="344" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H38" s="334"/>
       <x:c r="I38" s="355" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="J38" s="350"/>
       <x:c r="K38" s="351"/>
@@ -9822,10 +9822,10 @@
       <x:c r="D39" s="220"/>
       <x:c r="E39" s="208"/>
       <x:c r="F39" s="338" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G39" s="353" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="H39" s="339"/>
       <x:c r="I39" s="208"/>
@@ -9838,13 +9838,13 @@
       <x:c r="D40" s="220"/>
       <x:c r="E40" s="208"/>
       <x:c r="F40" s="353" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G40" s="353" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H40" s="339" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="I40" s="208"/>
       <x:c r="J40" s="208"/>
@@ -9856,7 +9856,7 @@
       <x:c r="D41" s="221"/>
       <x:c r="E41" s="209"/>
       <x:c r="F41" s="338" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G41" s="341"/>
       <x:c r="H41" s="337"/>
@@ -9869,25 +9869,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B42" s="356" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C42" s="357" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D42" s="358" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E42" s="359" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F42" s="360" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G42" s="361" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="H42" s="362" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="I42" s="360"/>
       <x:c r="J42" s="363"/>
@@ -9898,10 +9898,10 @@
       <x:c r="D43" s="220"/>
       <x:c r="E43" s="220"/>
       <x:c r="F43" s="365" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G43" s="366" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H43" s="367"/>
       <x:c r="I43" s="208"/>
@@ -9913,7 +9913,7 @@
       <x:c r="D44" s="220"/>
       <x:c r="E44" s="220"/>
       <x:c r="F44" s="368" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="G44" s="366"/>
       <x:c r="H44" s="367"/>
@@ -9926,7 +9926,7 @@
       <x:c r="D45" s="220"/>
       <x:c r="E45" s="220"/>
       <x:c r="F45" s="369" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="G45" s="369"/>
       <x:c r="H45" s="366"/>
@@ -9963,22 +9963,22 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B48" s="360" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D48" s="358" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E48" s="372" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="F48" s="366" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G48" s="361" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="H48" s="373" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I48" s="360"/>
       <x:c r="J48" s="363"/>
@@ -9989,7 +9989,7 @@
       <x:c r="D49" s="220"/>
       <x:c r="E49" s="208"/>
       <x:c r="F49" s="374" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="G49" s="366"/>
       <x:c r="H49" s="224"/>
@@ -10002,7 +10002,7 @@
       <x:c r="D50" s="221"/>
       <x:c r="E50" s="209"/>
       <x:c r="F50" s="376" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="G50" s="376"/>
       <x:c r="H50" s="225"/>
@@ -10015,25 +10015,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B51" s="360" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D51" s="358" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E51" s="377" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="F51" s="361" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G51" s="361" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="H51" s="362" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="I51" s="378" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="J51" s="363"/>
       <x:c r="K51" s="364"/>
@@ -10043,10 +10043,10 @@
       <x:c r="D52" s="220"/>
       <x:c r="E52" s="208"/>
       <x:c r="F52" s="366" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G52" s="366" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="H52" s="367"/>
       <x:c r="I52" s="208"/>
@@ -10058,7 +10058,7 @@
       <x:c r="D53" s="220"/>
       <x:c r="E53" s="208"/>
       <x:c r="F53" s="374" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="G53" s="366"/>
       <x:c r="H53" s="367"/>
@@ -10071,7 +10071,7 @@
       <x:c r="D54" s="221"/>
       <x:c r="E54" s="209"/>
       <x:c r="F54" s="376" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G54" s="376"/>
       <x:c r="H54" s="379"/>
@@ -10084,22 +10084,22 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B55" s="360" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D55" s="358" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="E55" s="377" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F55" s="361" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G55" s="361" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H55" s="362" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="I55" s="360"/>
       <x:c r="J55" s="363"/>
@@ -10110,10 +10110,10 @@
       <x:c r="D56" s="220"/>
       <x:c r="E56" s="208"/>
       <x:c r="F56" s="366" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G56" s="366" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H56" s="367"/>
       <x:c r="I56" s="208"/>
@@ -10125,7 +10125,7 @@
       <x:c r="D57" s="220"/>
       <x:c r="E57" s="208"/>
       <x:c r="F57" s="374" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G57" s="366"/>
       <x:c r="H57" s="367"/>
@@ -10138,7 +10138,7 @@
       <x:c r="D58" s="221"/>
       <x:c r="E58" s="209"/>
       <x:c r="F58" s="376" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="G58" s="376"/>
       <x:c r="H58" s="379"/>
@@ -10151,22 +10151,22 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B59" s="360" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D59" s="358" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="E59" s="377" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F59" s="361" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G59" s="361" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="H59" s="362" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="I59" s="360"/>
       <x:c r="J59" s="363"/>
@@ -10177,10 +10177,10 @@
       <x:c r="D60" s="220"/>
       <x:c r="E60" s="208"/>
       <x:c r="F60" s="366" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G60" s="366" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H60" s="367"/>
       <x:c r="I60" s="208"/>
@@ -10192,7 +10192,7 @@
       <x:c r="D61" s="220"/>
       <x:c r="E61" s="208"/>
       <x:c r="F61" s="374" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G61" s="366"/>
       <x:c r="H61" s="367"/>
@@ -10205,7 +10205,7 @@
       <x:c r="D62" s="221"/>
       <x:c r="E62" s="209"/>
       <x:c r="F62" s="376" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="G62" s="376"/>
       <x:c r="H62" s="379"/>
@@ -10218,23 +10218,23 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B63" s="356" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D63" s="358" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E63" s="377" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="F63" s="361" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G63" s="361"/>
       <x:c r="H63" s="362" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="I63" s="356" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J63" s="363"/>
       <x:c r="K63" s="364"/>
@@ -10244,11 +10244,11 @@
       <x:c r="D64" s="220"/>
       <x:c r="E64" s="208"/>
       <x:c r="F64" s="366" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G64" s="366"/>
       <x:c r="H64" s="367" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I64" s="208"/>
       <x:c r="J64" s="208"/>
@@ -10259,7 +10259,7 @@
       <x:c r="D65" s="220"/>
       <x:c r="E65" s="208"/>
       <x:c r="F65" s="374" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="G65" s="366"/>
       <x:c r="H65" s="367"/>
@@ -10272,7 +10272,7 @@
       <x:c r="D66" s="220"/>
       <x:c r="E66" s="208"/>
       <x:c r="F66" s="366" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G66" s="366"/>
       <x:c r="H66" s="366"/>
@@ -10285,7 +10285,7 @@
       <x:c r="D67" s="220"/>
       <x:c r="E67" s="208"/>
       <x:c r="F67" s="366" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G67" s="366"/>
       <x:c r="H67" s="367"/>
@@ -10298,7 +10298,7 @@
       <x:c r="D68" s="221"/>
       <x:c r="E68" s="209"/>
       <x:c r="F68" s="374" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="G68" s="366"/>
       <x:c r="H68" s="367"/>
@@ -10311,26 +10311,26 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B69" s="380" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C69" s="381" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D69" s="382" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="E69" s="383" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F69" s="384" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="G69" s="384"/>
       <x:c r="H69" s="385" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="I69" s="380" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="J69" s="386"/>
       <x:c r="K69" s="387"/>
@@ -10341,7 +10341,7 @@
       <x:c r="D70" s="221"/>
       <x:c r="E70" s="209"/>
       <x:c r="F70" s="388" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="G70" s="388"/>
       <x:c r="H70" s="389"/>
@@ -10354,28 +10354,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B71" s="390" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C71" s="391" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D71" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E71" s="393" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="F71" s="392" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G71" s="392" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="H71" s="394" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="I71" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J71" s="396"/>
       <x:c r="K71" s="395"/>
@@ -10385,25 +10385,25 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B72" s="390" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="D72" s="392" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="E72" s="393" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F72" s="392" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="G72" s="392" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="H72" s="394" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="I72" s="395" t="s">
         <x:v>291</x:v>
-      </x:c>
-      <x:c r="D72" s="392" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="E72" s="393" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F72" s="392" t="s">
-        <x:v>293</x:v>
-      </x:c>
-      <x:c r="G72" s="392" t="s">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="H72" s="394" t="s">
-        <x:v>295</x:v>
-      </x:c>
-      <x:c r="I72" s="395" t="s">
-        <x:v>290</x:v>
       </x:c>
       <x:c r="J72" s="396"/>
       <x:c r="K72" s="395"/>
@@ -10413,25 +10413,25 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B73" s="390" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="D73" s="392" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="E73" s="393" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="F73" s="392" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="G73" s="392" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="H73" s="394" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="I73" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J73" s="396"/>
       <x:c r="K73" s="395"/>
@@ -10441,25 +10441,25 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B74" s="390" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D74" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E74" s="393" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F74" s="392" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="G74" s="392" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="H74" s="394" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="I74" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J74" s="396"/>
       <x:c r="K74" s="395"/>
@@ -10469,25 +10469,25 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B75" s="390" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D75" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E75" s="393" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="F75" s="392" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G75" s="392" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="H75" s="394" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="I75" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J75" s="396"/>
       <x:c r="K75" s="395"/>
@@ -10497,25 +10497,25 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B76" s="390" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D76" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E76" s="393" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="F76" s="392" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="G76" s="392" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="H76" s="394" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="I76" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J76" s="396"/>
       <x:c r="K76" s="395"/>
@@ -10525,25 +10525,25 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B77" s="390" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D77" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E77" s="393" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F77" s="392" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="G77" s="392" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="H77" s="394" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I77" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J77" s="396"/>
       <x:c r="K77" s="395"/>
@@ -10553,25 +10553,25 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B78" s="390" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="D78" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E78" s="393" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="F78" s="392" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="G78" s="392" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="H78" s="394" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="I78" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J78" s="396"/>
       <x:c r="K78" s="395"/>
@@ -10581,25 +10581,25 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B79" s="390" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D79" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E79" s="393" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="F79" s="392" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G79" s="392" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H79" s="394" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="I79" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J79" s="396"/>
       <x:c r="K79" s="395"/>
@@ -10609,25 +10609,25 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B80" s="390" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="D80" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E80" s="393" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="F80" s="392" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="G80" s="392" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="H80" s="394" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="I80" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J80" s="396"/>
       <x:c r="K80" s="395"/>
@@ -10637,25 +10637,25 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B81" s="390" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D81" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E81" s="393" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="F81" s="392" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="G81" s="392" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="H81" s="394" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="I81" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J81" s="396"/>
       <x:c r="K81" s="395"/>
@@ -10665,25 +10665,25 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B82" s="390" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D82" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E82" s="393" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="F82" s="392" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="G82" s="392" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="H82" s="394" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="I82" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J82" s="396"/>
       <x:c r="K82" s="395"/>
@@ -10693,25 +10693,25 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B83" s="390" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D83" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E83" s="393" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="F83" s="392" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="G83" s="392" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="H83" s="394" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="I83" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J83" s="396"/>
       <x:c r="K83" s="395"/>
@@ -10721,25 +10721,25 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B84" s="390" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="D84" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E84" s="393" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="F84" s="392" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="G84" s="392" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="H84" s="394" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="I84" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J84" s="396"/>
       <x:c r="K84" s="395"/>
@@ -10749,25 +10749,25 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B85" s="390" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="D85" s="392" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E85" s="393" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F85" s="392" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="G85" s="392" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="H85" s="394" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="I85" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J85" s="396"/>
       <x:c r="K85" s="395"/>
@@ -10777,25 +10777,25 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B86" s="390" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D86" s="392" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E86" s="393" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="F86" s="392" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="G86" s="392" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="H86" s="394" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="I86" s="395" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J86" s="396"/>
       <x:c r="K86" s="395"/>
@@ -10805,26 +10805,26 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B87" s="397" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C87" s="398" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D87" s="399" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E87" s="400" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="F87" s="399" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="G87" s="397"/>
       <x:c r="H87" s="401" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="I87" s="402" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J87" s="403"/>
       <x:c r="K87" s="402"/>
@@ -10834,23 +10834,23 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B88" s="397" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D88" s="399" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E88" s="400" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F88" s="399" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="G88" s="397"/>
       <x:c r="H88" s="401" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="I88" s="402" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J88" s="403"/>
       <x:c r="K88" s="402"/>
@@ -10860,23 +10860,23 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B89" s="397" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="D89" s="399" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="E89" s="400" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="F89" s="399" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="G89" s="397"/>
       <x:c r="H89" s="401" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="I89" s="402" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J89" s="403"/>
       <x:c r="K89" s="402"/>
@@ -10886,23 +10886,23 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B90" s="397" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D90" s="399" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="E90" s="400" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="F90" s="399" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="G90" s="397"/>
       <x:c r="H90" s="401" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="I90" s="402" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J90" s="403"/>
       <x:c r="K90" s="402"/>
@@ -10912,23 +10912,23 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B91" s="397" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="D91" s="399" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="E91" s="400" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="F91" s="399" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="G91" s="397"/>
       <x:c r="H91" s="401" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="I91" s="402" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J91" s="403"/>
       <x:c r="K91" s="402"/>
@@ -10938,23 +10938,23 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B92" s="397" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="D92" s="399" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="E92" s="400" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="F92" s="399" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="G92" s="397"/>
       <x:c r="H92" s="401" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="I92" s="402" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J92" s="403"/>
       <x:c r="K92" s="402"/>
@@ -10964,23 +10964,23 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B93" s="397" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="D93" s="399" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E93" s="400" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="F93" s="399" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="G93" s="397"/>
       <x:c r="H93" s="401" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="I93" s="402" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J93" s="403"/>
       <x:c r="K93" s="402"/>
@@ -10990,23 +10990,23 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B94" s="397" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D94" s="399" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="E94" s="400" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="F94" s="399" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="G94" s="397"/>
       <x:c r="H94" s="401" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="I94" s="402" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J94" s="403"/>
       <x:c r="K94" s="402"/>
@@ -11016,23 +11016,23 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B95" s="397" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="D95" s="399" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="E95" s="400" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="F95" s="399" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="G95" s="397"/>
       <x:c r="H95" s="401" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="I95" s="402" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J95" s="403"/>
       <x:c r="K95" s="402"/>
@@ -11042,23 +11042,23 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B96" s="404" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C96" s="405" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="D96" s="406" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E96" s="407" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="F96" s="408" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G96" s="406"/>
       <x:c r="H96" s="404" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="I96" s="409"/>
       <x:c r="J96" s="410"/>
@@ -11066,7 +11066,7 @@
     </x:row>
     <x:row r="97" spans="1:11" ht="14" customHeight="1">
       <x:c r="F97" s="408" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="G97" s="406"/>
       <x:c r="I97" s="225"/>
@@ -11078,20 +11078,20 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B98" s="404" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="D98" s="406" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E98" s="407" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="F98" s="408" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G98" s="406"/>
       <x:c r="H98" s="404" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="I98" s="409"/>
       <x:c r="J98" s="410"/>
@@ -11099,7 +11099,7 @@
     </x:row>
     <x:row r="99" spans="1:11" ht="14" customHeight="1">
       <x:c r="F99" s="408" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="G99" s="406"/>
       <x:c r="I99" s="225"/>
@@ -11111,23 +11111,23 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B100" s="412" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="C100" s="413" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D100" s="414" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="E100" s="415" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="F100" s="414" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="G100" s="412"/>
       <x:c r="H100" s="416" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="I100" s="417"/>
       <x:c r="J100" s="418"/>
@@ -11138,20 +11138,20 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B101" s="412" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D101" s="414" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="E101" s="415" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="F101" s="414" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="G101" s="412"/>
       <x:c r="H101" s="419" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="I101" s="417"/>
       <x:c r="J101" s="418"/>
@@ -11162,20 +11162,20 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B102" s="412" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="D102" s="414" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E102" s="415" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="F102" s="414" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="G102" s="412"/>
       <x:c r="H102" s="419" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="I102" s="417"/>
       <x:c r="J102" s="418"/>
@@ -11186,20 +11186,20 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B103" s="412" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="D103" s="414" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E103" s="415" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="F103" s="414" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="G103" s="412"/>
       <x:c r="H103" s="419" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="I103" s="417"/>
       <x:c r="J103" s="418"/>
@@ -11210,20 +11210,20 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B104" s="412" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="D104" s="414" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E104" s="415" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="F104" s="414" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="G104" s="412"/>
       <x:c r="H104" s="419" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="I104" s="417"/>
       <x:c r="J104" s="418"/>
@@ -11234,20 +11234,20 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B105" s="412" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="D105" s="414" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="E105" s="415" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="F105" s="414" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="G105" s="412"/>
       <x:c r="H105" s="419" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="I105" s="417"/>
       <x:c r="J105" s="418"/>
@@ -11258,20 +11258,20 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B106" s="412" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="D106" s="414" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="E106" s="415" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="F106" s="414" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="G106" s="412"/>
       <x:c r="H106" s="419" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="I106" s="417"/>
       <x:c r="J106" s="418"/>
@@ -11282,20 +11282,20 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B107" s="412" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="D107" s="414" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="E107" s="415" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="F107" s="414" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="G107" s="412"/>
       <x:c r="H107" s="419" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="I107" s="417"/>
       <x:c r="J107" s="418"/>
@@ -11306,20 +11306,20 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B108" s="412" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="D108" s="412" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="E108" s="420" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F108" s="412" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="G108" s="412"/>
       <x:c r="H108" s="421" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="I108" s="417"/>
       <x:c r="J108" s="418"/>
@@ -14479,16 +14479,16 @@
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="261" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2" s="424" t="s">
         <x:v>170</x:v>
       </x:c>
       <x:c r="C2" s="424" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="D2" s="425" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="F2" s="426"/>
       <x:c r="G2" s="427"/>
@@ -14651,31 +14651,31 @@
     </x:row>
     <x:row r="12" spans="1:11" ht="15.75" customHeight="1">
       <x:c r="A12" s="14" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B12" s="207" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="C12" s="14" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D12" s="14" t="s">
         <x:v>111</x:v>
       </x:c>
       <x:c r="E12" s="14" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="F12" s="14" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="G12" s="14" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="H12" s="14" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="I12" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J12" s="14"/>
       <x:c r="K12" s="422"/>
@@ -14724,7 +14724,7 @@
         <x:v>477</x:v>
       </x:c>
       <x:c r="F14" s="14" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="G14" s="14" t="s">
         <x:v>478</x:v>
@@ -14753,7 +14753,7 @@
         <x:v>480</x:v>
       </x:c>
       <x:c r="F15" s="14" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="G15" s="14" t="s">
         <x:v>481</x:v>
@@ -14762,7 +14762,7 @@
         <x:v>482</x:v>
       </x:c>
       <x:c r="I15" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J15" s="14"/>
       <x:c r="K15" s="422"/>
@@ -14820,7 +14820,7 @@
         <x:v>491</x:v>
       </x:c>
       <x:c r="I17" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J17" s="14"/>
       <x:c r="K17" s="422"/>
@@ -14849,7 +14849,7 @@
         <x:v>491</x:v>
       </x:c>
       <x:c r="I18" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J18" s="14"/>
       <x:c r="K18" s="422"/>
@@ -14878,7 +14878,7 @@
         <x:v>491</x:v>
       </x:c>
       <x:c r="I19" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J19" s="14"/>
       <x:c r="K19" s="422"/>
@@ -14907,7 +14907,7 @@
         <x:v>491</x:v>
       </x:c>
       <x:c r="I20" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J20" s="14"/>
       <x:c r="K20" s="422"/>
@@ -14996,7 +14996,7 @@
         <x:v>514</x:v>
       </x:c>
       <x:c r="I23" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J23" s="14"/>
       <x:c r="K23" s="422"/>
@@ -15054,7 +15054,7 @@
         <x:v>509</x:v>
       </x:c>
       <x:c r="I25" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J25" s="14"/>
       <x:c r="K25" s="422"/>
@@ -15141,7 +15141,7 @@
         <x:v>535</x:v>
       </x:c>
       <x:c r="I28" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J28" s="14"/>
       <x:c r="K28" s="422"/>
@@ -15228,7 +15228,7 @@
         <x:v>548</x:v>
       </x:c>
       <x:c r="I31" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J31" s="14"/>
       <x:c r="K31" s="422"/>
@@ -15315,7 +15315,7 @@
         <x:v>559</x:v>
       </x:c>
       <x:c r="I34" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J34" s="14"/>
       <x:c r="K34" s="422"/>
@@ -15344,7 +15344,7 @@
         <x:v>559</x:v>
       </x:c>
       <x:c r="I35" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J35" s="14"/>
       <x:c r="K35" s="422"/>
@@ -15483,7 +15483,7 @@
         <x:v>580</x:v>
       </x:c>
       <x:c r="I40" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J40" s="14"/>
       <x:c r="K40" s="422"/>
@@ -15922,7 +15922,7 @@
         <x:v>654</x:v>
       </x:c>
       <x:c r="I55" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J55" s="14"/>
       <x:c r="K55" s="422"/>
@@ -15951,7 +15951,7 @@
         <x:v>660</x:v>
       </x:c>
       <x:c r="I56" s="14" t="s">
-        <x:v>468</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J56" s="14"/>
       <x:c r="K56" s="422"/>
@@ -19200,7 +19200,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:10" ht="16" customHeight="1">
       <x:c r="A2" s="228" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2" s="311" t="s">
         <x:v>170</x:v>
@@ -24789,7 +24789,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:10">
       <x:c r="A2" s="228" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2" s="311" t="s">
         <x:v>170</x:v>
@@ -25090,7 +25090,7 @@
         <x:v>1017</x:v>
       </x:c>
       <x:c r="F20" s="161" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G20" s="161"/>
       <x:c r="H20" s="161"/>
@@ -29864,7 +29864,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:10" ht="16" customHeight="1">
       <x:c r="A2" s="228" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2" s="311" t="s">
         <x:v>170</x:v>

--- a/Report/BDCLPM.xlsx
+++ b/Report/BDCLPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Máy tính\Test_salePhone\Test_Web_SalePhone\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BAEFE2-C01B-476D-A685-801F9FC25DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1128FA-12F6-483C-BDEC-462A23B917DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="770" firstSheet="0" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -24808,8 +24808,8 @@
   </x:sheetPr>
   <x:dimension ref="A2:L331"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <x:selection activeCell="I11" sqref="I11"/>
+    <x:sheetView tabSelected="1" topLeftCell="G150" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <x:selection activeCell="M161" sqref="M161"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.710625" defaultRowHeight="15.75" customHeight="1"/>
@@ -26070,7 +26070,7 @@
       <x:c r="H73" s="261"/>
       <x:c r="I73" s="261"/>
       <x:c r="J73" s="262" t="s">
-        <x:v>197</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="K73" s="263"/>
     </x:row>
@@ -26190,7 +26190,7 @@
       <x:c r="H80" s="261"/>
       <x:c r="I80" s="261"/>
       <x:c r="J80" s="262" t="s">
-        <x:v>197</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="K80" s="263"/>
     </x:row>
@@ -26310,7 +26310,7 @@
       <x:c r="H87" s="261"/>
       <x:c r="I87" s="261"/>
       <x:c r="J87" s="262" t="s">
-        <x:v>197</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="K87" s="263"/>
     </x:row>
@@ -26430,7 +26430,7 @@
       <x:c r="H94" s="261"/>
       <x:c r="I94" s="261"/>
       <x:c r="J94" s="262" t="s">
-        <x:v>197</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="K94" s="263"/>
     </x:row>
@@ -26550,7 +26550,7 @@
       <x:c r="H101" s="261"/>
       <x:c r="I101" s="261"/>
       <x:c r="J101" s="262" t="s">
-        <x:v>197</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="K101" s="263"/>
     </x:row>
@@ -26670,7 +26670,7 @@
       <x:c r="H108" s="261"/>
       <x:c r="I108" s="261"/>
       <x:c r="J108" s="262" t="s">
-        <x:v>197</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="K108" s="263"/>
     </x:row>
@@ -26790,7 +26790,7 @@
       <x:c r="H115" s="261"/>
       <x:c r="I115" s="261"/>
       <x:c r="J115" s="262" t="s">
-        <x:v>197</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="K115" s="263"/>
     </x:row>

--- a/Report/BDCLPM.xlsx
+++ b/Report/BDCLPM.xlsx
@@ -2236,6 +2236,14 @@
 [9]. Admin xem được đơn hàng vừa đặt</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">🛒 Kiểm tra và thêm sản phẩm vào giỏ hàng nếu cần...
+⚠️ Giỏ hàng trống, thêm sản phẩm vào giỏ.
+📦 Trước khi mua: 1 sản phẩm.
+📦 Sau khi mua: 0 sản phẩm.
+✅ Mua hàng thành công
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>ID_MuaHang_2</x:t>
   </x:si>
   <x:si>
@@ -2257,11 +2265,10 @@
 [5]. Đơn hàng không được tạo.</x:t>
   </x:si>
   <x:si>
-    <x:t>[2]. Thông báo xóa sản phẩm thành công.
-       Dữ liệu sản phẩm bị xóa
-[3]. Hiển thị thông báo mua hàng thất bại do không đủ số lượng.
-[4]. Sản phẩm đã bị xóa.
-[5]. Đơn hàng không được tạo.</x:t>
+    <x:t>Không thể mua hàng do sản phẩm đã bị xóa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PASS</x:t>
   </x:si>
   <x:si>
     <x:t>ID_MuaHang_3</x:t>
@@ -2285,10 +2292,10 @@
 [5]. Tùy thuộc vào khách hàng có mua mới không.</x:t>
   </x:si>
   <x:si>
-    <x:t>[2]. Thông báo cập nhật sản phẩm thành công. Dữ liệu sản phẩm được cập nhật
-[3]. Mua hàng thành công. Thông tin sản phẩm không được cập nhật.
-[4]. Thông tin sản phẩm được cập nhật mới
-[5]. Đơn hàng được tạo.</x:t>
+    <x:t>Mua hàng và chuyển hướng đến trang orderSuccess thành công. Không thông báo giá mới cho người dùng.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAIL</x:t>
   </x:si>
   <x:si>
     <x:t>ID_MuaHang_4</x:t>
@@ -2307,6 +2314,9 @@
     <x:t>[2]. Thông báo chỉnh sửa số lượng tồn kho thành công
 [3]. Hiển thị thông báo số lượng tồn kho không đủ, vui lòng thử lại.
 [4]. Số lượng tồn kho giảm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mua hàng thất bại do không đủ sản phẩm</x:t>
   </x:si>
   <x:si>
     <x:t>ID_MuaHang_5</x:t>
@@ -2324,6 +2334,9 @@
     <x:t>[7]. Đơn hàng không được đặt.</x:t>
   </x:si>
   <x:si>
+    <x:t>Giỏ hàng có sản phẩm sau khi về trang chủ</x:t>
+  </x:si>
+  <x:si>
     <x:t>ID_XemLSMH_1</x:t>
   </x:si>
   <x:si>
@@ -2371,11 +2384,6 @@
 [6]. Đơn hàng đã bị hủy</x:t>
   </x:si>
   <x:si>
-    <x:t>[4]. Hiển thị hộp thoại xác nhận hủy đơn.
-[5]. Chức năng hủy không hoạt động.
-[6]. Đơn hàng không bị hủy.</x:t>
-  </x:si>
-  <x:si>
     <x:t>ID_XemLSMH_3</x:t>
   </x:si>
   <x:si>
@@ -2395,7 +2403,7 @@
     <x:t>[4]. Nút "Hủy đơn hàng" không hiển thị.</x:t>
   </x:si>
   <x:si>
-    <x:t>[4]. Nút "Hủy đơn hàng" vẫn hiển thị.</x:t>
+    <x:t>Nút hủy đơn vẫn hiển thị</x:t>
   </x:si>
   <x:si>
     <x:t>ID_XemLSMH_4</x:t>
@@ -2427,6 +2435,9 @@
     <x:t>[3]. Hiển thị chính xác thông tin chi tiết đơn hàng.</x:t>
   </x:si>
   <x:si>
+    <x:t>Đã bấm vào 'Xem chi tiết' thành công.</x:t>
+  </x:si>
+  <x:si>
     <x:t>ID_XemLSMH_5</x:t>
   </x:si>
   <x:si>
@@ -2441,6 +2452,9 @@
 [5]. File Excel chứa đầy đủ và chính xác tất cả thông tin chi tiết đơn hàn.</x:t>
   </x:si>
   <x:si>
+    <x:t>Đã bấm vào 'Xem chi tiết' và 'Xuất file Excel' thành công.</x:t>
+  </x:si>
+  <x:si>
     <x:t>ID_XemLSMH_6</x:t>
   </x:si>
   <x:si>
@@ -4387,6 +4401,9 @@
   </x:si>
   <x:si>
     <x:t>ID_QLSANPHAM_07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hủy đơn hàng thất bại. Số lượng đơn hàng không giảm.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -5619,7 +5636,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="470">
+  <x:cellXfs count="471">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7098,6 +7115,10 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="47" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -15742,8 +15763,8 @@
       <x:c r="G49" s="14" t="s">
         <x:v>625</x:v>
       </x:c>
-      <x:c r="H49" s="14" t="s">
-        <x:v>625</x:v>
+      <x:c r="H49" s="470" t="s">
+        <x:v>626</x:v>
       </x:c>
       <x:c r="I49" s="14" t="s">
         <x:v>474</x:v>
@@ -15753,94 +15774,94 @@
     </x:row>
     <x:row r="50" spans="1:11" ht="15.75" customHeight="1">
       <x:c r="A50" s="14" t="s">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="B50" s="208"/>
       <x:c r="C50" s="14" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="D50" s="14" t="s">
         <x:v>156</x:v>
       </x:c>
       <x:c r="E50" s="14" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F50" s="14" t="s">
         <x:v>472</x:v>
       </x:c>
       <x:c r="G50" s="14" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="H50" s="14" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="I50" s="14" t="s">
-        <x:v>474</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="J50" s="14"/>
       <x:c r="K50" s="422"/>
     </x:row>
     <x:row r="51" spans="1:11" ht="17" customHeight="1">
       <x:c r="A51" s="14" t="s">
-        <x:v>631</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="B51" s="208"/>
       <x:c r="C51" s="14" t="s">
-        <x:v>632</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="D51" s="14" t="s">
         <x:v>157</x:v>
       </x:c>
       <x:c r="E51" s="14" t="s">
-        <x:v>633</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="F51" s="14" t="s">
         <x:v>472</x:v>
       </x:c>
       <x:c r="G51" s="14" t="s">
-        <x:v>634</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="H51" s="14" t="s">
-        <x:v>635</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="I51" s="14" t="s">
-        <x:v>615</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="J51" s="14"/>
       <x:c r="K51" s="422"/>
     </x:row>
     <x:row r="52" spans="1:11" ht="17" customHeight="1">
       <x:c r="A52" s="14" t="s">
-        <x:v>636</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="B52" s="208"/>
       <x:c r="C52" s="14" t="s">
-        <x:v>637</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="D52" s="14" t="s">
         <x:v>158</x:v>
       </x:c>
       <x:c r="E52" s="14" t="s">
-        <x:v>638</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="F52" s="14" t="s">
         <x:v>472</x:v>
       </x:c>
       <x:c r="G52" s="14" t="s">
-        <x:v>639</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="H52" s="14" t="s">
-        <x:v>639</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="I52" s="14" t="s">
-        <x:v>474</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="J52" s="14"/>
       <x:c r="K52" s="422"/>
     </x:row>
     <x:row r="53" spans="1:11" ht="17" customHeight="1">
       <x:c r="A53" s="14" t="s">
-        <x:v>640</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="B53" s="209"/>
       <x:c r="C53" s="14" t="s">
@@ -15850,47 +15871,47 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="14" t="s">
-        <x:v>641</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="F53" s="14" t="s">
         <x:v>624</x:v>
       </x:c>
       <x:c r="G53" s="14" t="s">
-        <x:v>642</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="H53" s="14" t="s">
-        <x:v>642</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="I53" s="14" t="s">
-        <x:v>474</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="J53" s="14"/>
       <x:c r="K53" s="422"/>
     </x:row>
     <x:row r="54" spans="1:11" ht="17" customHeight="1">
       <x:c r="A54" s="14" t="s">
-        <x:v>643</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="B54" s="207" t="s">
         <x:v>161</x:v>
       </x:c>
       <x:c r="C54" s="10" t="s">
-        <x:v>644</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="D54" s="10" t="s">
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="10" t="s">
-        <x:v>645</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="F54" s="10" t="s">
-        <x:v>646</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="G54" s="10" t="s">
-        <x:v>647</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="H54" s="10" t="s">
-        <x:v>648</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="I54" s="14" t="s">
         <x:v>474</x:v>
@@ -15900,55 +15921,55 @@
     </x:row>
     <x:row r="55" spans="1:11" ht="17" customHeight="1">
       <x:c r="A55" s="14" t="s">
-        <x:v>649</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="B55" s="208"/>
       <x:c r="C55" s="10" t="s">
-        <x:v>650</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="D55" s="10" t="s">
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="10" t="s">
-        <x:v>651</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="F55" s="10" t="s">
-        <x:v>652</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="G55" s="10" t="s">
-        <x:v>653</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="H55" s="10" t="s">
-        <x:v>654</x:v>
+        <x:v>1322</x:v>
       </x:c>
       <x:c r="I55" s="14" t="s">
-        <x:v>197</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="J55" s="14"/>
       <x:c r="K55" s="422"/>
     </x:row>
     <x:row r="56" spans="1:11" ht="17" customHeight="1">
       <x:c r="A56" s="14" t="s">
-        <x:v>655</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B56" s="208"/>
       <x:c r="C56" s="10" t="s">
-        <x:v>656</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="D56" s="10" t="s">
         <x:v>164</x:v>
       </x:c>
       <x:c r="E56" s="10" t="s">
-        <x:v>657</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="F56" s="10" t="s">
-        <x:v>658</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="G56" s="10" t="s">
-        <x:v>659</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="H56" s="14" t="s">
-        <x:v>660</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="I56" s="14" t="s">
         <x:v>197</x:v>
@@ -15958,84 +15979,84 @@
     </x:row>
     <x:row r="57" spans="1:11" ht="17" customHeight="1">
       <x:c r="A57" s="14" t="s">
-        <x:v>661</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="B57" s="208"/>
       <x:c r="C57" s="10" t="s">
-        <x:v>662</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="D57" s="10" t="s">
         <x:v>165</x:v>
       </x:c>
       <x:c r="E57" s="10" t="s">
-        <x:v>663</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="F57" s="10" t="s">
-        <x:v>664</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="G57" s="10" t="s">
-        <x:v>665</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="H57" s="10" t="s">
-        <x:v>665</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="I57" s="14" t="s">
-        <x:v>474</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="J57" s="14"/>
       <x:c r="K57" s="422"/>
     </x:row>
     <x:row r="58" spans="1:11" ht="17" customHeight="1">
       <x:c r="A58" s="14" t="s">
-        <x:v>666</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="B58" s="208"/>
       <x:c r="C58" s="10" t="s">
-        <x:v>662</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="D58" s="10" t="s">
         <x:v>166</x:v>
       </x:c>
       <x:c r="E58" s="10" t="s">
-        <x:v>667</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="F58" s="10" t="s">
-        <x:v>664</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="G58" s="10" t="s">
-        <x:v>668</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="H58" s="10" t="s">
-        <x:v>668</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="I58" s="14" t="s">
-        <x:v>474</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="J58" s="14"/>
       <x:c r="K58" s="422"/>
     </x:row>
     <x:row r="59" spans="1:11" ht="17" customHeight="1">
       <x:c r="A59" s="14" t="s">
-        <x:v>669</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B59" s="208"/>
       <x:c r="C59" s="10" t="s">
-        <x:v>670</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="D59" s="10" t="s">
         <x:v>167</x:v>
       </x:c>
       <x:c r="E59" s="10" t="s">
-        <x:v>671</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="F59" s="10" t="s">
-        <x:v>672</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="G59" s="10" t="s">
-        <x:v>673</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="H59" s="10" t="s">
-        <x:v>673</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="I59" s="14" t="s">
         <x:v>474</x:v>
@@ -16045,26 +16066,26 @@
     </x:row>
     <x:row r="60" spans="1:11" ht="17" customHeight="1">
       <x:c r="A60" s="14" t="s">
-        <x:v>674</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="B60" s="209"/>
       <x:c r="C60" s="10" t="s">
-        <x:v>670</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="D60" s="10" t="s">
         <x:v>168</x:v>
       </x:c>
       <x:c r="E60" s="10" t="s">
-        <x:v>675</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="F60" s="10" t="s">
-        <x:v>676</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="G60" s="10" t="s">
-        <x:v>677</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="H60" s="10" t="s">
-        <x:v>677</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="I60" s="14" t="s">
         <x:v>474</x:v>
@@ -19206,11 +19227,11 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="C2" s="311" t="s">
-        <x:v>678</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="D2" s="312"/>
       <x:c r="E2" s="312" t="s">
-        <x:v>679</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="F2" s="313"/>
       <x:c r="G2" s="314"/>
@@ -19226,7 +19247,7 @@
       <x:c r="C3" s="315"/>
       <x:c r="D3" s="317"/>
       <x:c r="E3" s="317" t="s">
-        <x:v>680</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="F3" s="318"/>
       <x:c r="G3" s="319"/>
@@ -19321,7 +19342,7 @@
     <x:row r="10" spans="1:10" ht="16" customHeight="1">
       <x:c r="A10" s="138"/>
       <x:c r="B10" s="139" t="s">
-        <x:v>681</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="D10" s="39"/>
       <x:c r="E10" s="39"/>
@@ -19365,25 +19386,25 @@
     </x:row>
     <x:row r="12" spans="1:10" ht="18" customHeight="1">
       <x:c r="A12" s="268" t="s">
-        <x:v>682</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="B12" s="269" t="s">
-        <x:v>683</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="C12" s="143" t="s">
-        <x:v>684</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="D12" s="270" t="s">
-        <x:v>685</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="E12" s="144" t="s">
-        <x:v>686</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="F12" s="144" t="s">
-        <x:v>687</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="G12" s="145" t="s">
-        <x:v>688</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="H12" s="146"/>
       <x:c r="I12" s="147"/>
@@ -19393,14 +19414,14 @@
       <x:c r="A13" s="208"/>
       <x:c r="B13" s="220"/>
       <x:c r="C13" s="271" t="s">
-        <x:v>689</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="D13" s="224"/>
       <x:c r="E13" s="144" t="s">
-        <x:v>690</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="F13" s="144" t="s">
-        <x:v>691</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="G13" s="208"/>
       <x:c r="H13" s="146"/>
@@ -19413,7 +19434,7 @@
       <x:c r="C14" s="209"/>
       <x:c r="D14" s="225"/>
       <x:c r="E14" s="144" t="s">
-        <x:v>692</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="F14" s="144"/>
       <x:c r="G14" s="209"/>
@@ -19423,25 +19444,25 @@
     </x:row>
     <x:row r="15" spans="1:10" ht="18" customHeight="1">
       <x:c r="A15" s="268" t="s">
-        <x:v>693</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="B15" s="268" t="s">
-        <x:v>694</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="C15" s="145" t="s">
-        <x:v>695</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="D15" s="145" t="s">
-        <x:v>696</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="E15" s="144" t="s">
-        <x:v>686</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="F15" s="145" t="s">
-        <x:v>697</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="G15" s="145" t="s">
-        <x:v>698</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="H15" s="146"/>
       <x:c r="I15" s="147"/>
@@ -19453,10 +19474,10 @@
       <x:c r="C16" s="208"/>
       <x:c r="D16" s="208"/>
       <x:c r="E16" s="148" t="s">
-        <x:v>699</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="F16" s="145" t="s">
-        <x:v>700</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="G16" s="208"/>
       <x:c r="H16" s="146"/>
@@ -19469,10 +19490,10 @@
       <x:c r="C17" s="209"/>
       <x:c r="D17" s="209"/>
       <x:c r="E17" s="148" t="s">
-        <x:v>701</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="F17" s="145" t="s">
-        <x:v>702</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="G17" s="208"/>
       <x:c r="H17" s="146"/>
@@ -19481,21 +19502,21 @@
     </x:row>
     <x:row r="18" spans="1:10" ht="18" customHeight="1">
       <x:c r="A18" s="268" t="s">
-        <x:v>703</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="B18" s="208"/>
       <x:c r="C18" s="145" t="s">
-        <x:v>704</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="D18" s="145" t="s">
-        <x:v>705</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="E18" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F18" s="145"/>
       <x:c r="G18" s="145" t="s">
-        <x:v>707</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="H18" s="146"/>
       <x:c r="I18" s="147"/>
@@ -19507,7 +19528,7 @@
       <x:c r="C19" s="208"/>
       <x:c r="D19" s="208"/>
       <x:c r="E19" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F19" s="208"/>
       <x:c r="G19" s="208"/>
@@ -19521,7 +19542,7 @@
       <x:c r="C20" s="209"/>
       <x:c r="D20" s="209"/>
       <x:c r="E20" s="144" t="s">
-        <x:v>709</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="F20" s="209"/>
       <x:c r="G20" s="209"/>
@@ -19531,25 +19552,25 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="18" customHeight="1">
       <x:c r="A21" s="268" t="s">
-        <x:v>710</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B21" s="268" t="s">
-        <x:v>711</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="C21" s="145" t="s">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="D21" s="145" t="s">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="E21" s="144" t="s">
         <x:v>712</x:v>
       </x:c>
-      <x:c r="D21" s="145" t="s">
-        <x:v>713</x:v>
-      </x:c>
-      <x:c r="E21" s="144" t="s">
-        <x:v>706</x:v>
-      </x:c>
       <x:c r="F21" s="145" t="s">
-        <x:v>687</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="G21" s="145" t="s">
-        <x:v>714</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="H21" s="20"/>
       <x:c r="I21" s="109"/>
@@ -19561,10 +19582,10 @@
       <x:c r="C22" s="208"/>
       <x:c r="D22" s="208"/>
       <x:c r="E22" s="148" t="s">
-        <x:v>699</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="F22" s="145" t="s">
-        <x:v>691</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="G22" s="208"/>
       <x:c r="H22" s="20"/>
@@ -19577,10 +19598,10 @@
       <x:c r="C23" s="208"/>
       <x:c r="D23" s="208"/>
       <x:c r="E23" s="148" t="s">
-        <x:v>715</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="F23" s="145" t="s">
-        <x:v>697</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="G23" s="208"/>
       <x:c r="H23" s="20"/>
@@ -19593,7 +19614,7 @@
       <x:c r="C24" s="209"/>
       <x:c r="D24" s="209"/>
       <x:c r="E24" s="148" t="s">
-        <x:v>716</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="F24" s="208"/>
       <x:c r="G24" s="208"/>
@@ -19603,23 +19624,23 @@
     </x:row>
     <x:row r="25" spans="1:10" ht="18" customHeight="1">
       <x:c r="A25" s="268" t="s">
-        <x:v>717</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="B25" s="208"/>
       <x:c r="C25" s="145" t="s">
-        <x:v>718</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="D25" s="145" t="s">
-        <x:v>719</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="E25" s="148" t="s">
-        <x:v>720</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="F25" s="145" t="s">
-        <x:v>721</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="G25" s="145" t="s">
-        <x:v>722</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="H25" s="20"/>
       <x:c r="I25" s="109"/>
@@ -19631,7 +19652,7 @@
       <x:c r="C26" s="208"/>
       <x:c r="D26" s="208"/>
       <x:c r="E26" s="148" t="s">
-        <x:v>723</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="F26" s="208"/>
       <x:c r="G26" s="208"/>
@@ -19645,7 +19666,7 @@
       <x:c r="C27" s="208"/>
       <x:c r="D27" s="208"/>
       <x:c r="E27" s="148" t="s">
-        <x:v>724</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="F27" s="208"/>
       <x:c r="G27" s="208"/>
@@ -19659,7 +19680,7 @@
       <x:c r="C28" s="208"/>
       <x:c r="D28" s="208"/>
       <x:c r="E28" s="148" t="s">
-        <x:v>725</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="F28" s="208"/>
       <x:c r="G28" s="208"/>
@@ -19673,7 +19694,7 @@
       <x:c r="C29" s="209"/>
       <x:c r="D29" s="209"/>
       <x:c r="E29" s="148" t="s">
-        <x:v>726</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="F29" s="209"/>
       <x:c r="G29" s="209"/>
@@ -19683,21 +19704,21 @@
     </x:row>
     <x:row r="30" spans="1:10" ht="18" customHeight="1">
       <x:c r="A30" s="268" t="s">
-        <x:v>727</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="B30" s="208"/>
       <x:c r="C30" s="145" t="s">
-        <x:v>728</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="D30" s="145" t="s">
-        <x:v>729</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="E30" s="148" t="s">
-        <x:v>720</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="F30" s="145"/>
       <x:c r="G30" s="145" t="s">
-        <x:v>730</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="H30" s="20"/>
       <x:c r="I30" s="109"/>
@@ -19709,7 +19730,7 @@
       <x:c r="C31" s="209"/>
       <x:c r="D31" s="209"/>
       <x:c r="E31" s="148" t="s">
-        <x:v>731</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="F31" s="209"/>
       <x:c r="G31" s="209"/>
@@ -19719,25 +19740,25 @@
     </x:row>
     <x:row r="32" spans="1:10" ht="25.5" customHeight="1">
       <x:c r="A32" s="268" t="s">
-        <x:v>732</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="B32" s="268" t="s">
-        <x:v>733</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="C32" s="145" t="s">
-        <x:v>734</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="D32" s="145" t="s">
-        <x:v>735</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="E32" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F32" s="148" t="s">
-        <x:v>736</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="G32" s="145" t="s">
-        <x:v>737</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="H32" s="20"/>
       <x:c r="I32" s="109"/>
@@ -19749,10 +19770,10 @@
       <x:c r="C33" s="208"/>
       <x:c r="D33" s="208"/>
       <x:c r="E33" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F33" s="145" t="s">
-        <x:v>738</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="G33" s="208"/>
       <x:c r="H33" s="20"/>
@@ -19765,7 +19786,7 @@
       <x:c r="C34" s="209"/>
       <x:c r="D34" s="209"/>
       <x:c r="E34" s="144" t="s">
-        <x:v>739</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="F34" s="209"/>
       <x:c r="G34" s="209"/>
@@ -19775,23 +19796,23 @@
     </x:row>
     <x:row r="35" spans="1:10" ht="24" customHeight="1">
       <x:c r="A35" s="268" t="s">
-        <x:v>740</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B35" s="208"/>
       <x:c r="C35" s="145" t="s">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c r="D35" s="145" t="s">
         <x:v>741</x:v>
       </x:c>
-      <x:c r="D35" s="145" t="s">
-        <x:v>735</x:v>
-      </x:c>
       <x:c r="E35" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F35" s="148" t="s">
-        <x:v>742</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="G35" s="145" t="s">
-        <x:v>737</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="H35" s="20"/>
       <x:c r="I35" s="109"/>
@@ -19803,10 +19824,10 @@
       <x:c r="C36" s="208"/>
       <x:c r="D36" s="208"/>
       <x:c r="E36" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F36" s="145" t="s">
-        <x:v>743</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="G36" s="208"/>
       <x:c r="H36" s="20"/>
@@ -19819,7 +19840,7 @@
       <x:c r="C37" s="209"/>
       <x:c r="D37" s="209"/>
       <x:c r="E37" s="144" t="s">
-        <x:v>744</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="F37" s="209"/>
       <x:c r="G37" s="209"/>
@@ -19829,23 +19850,23 @@
     </x:row>
     <x:row r="38" spans="1:10" ht="18" customHeight="1">
       <x:c r="A38" s="268" t="s">
-        <x:v>745</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="B38" s="208"/>
       <x:c r="C38" s="145" t="s">
-        <x:v>746</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="D38" s="143" t="s">
-        <x:v>747</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="E38" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F38" s="143" t="s">
-        <x:v>748</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="G38" s="143" t="s">
-        <x:v>749</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="H38" s="20"/>
       <x:c r="I38" s="109"/>
@@ -19857,7 +19878,7 @@
       <x:c r="C39" s="208"/>
       <x:c r="D39" s="208"/>
       <x:c r="E39" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F39" s="208"/>
       <x:c r="G39" s="208"/>
@@ -19871,7 +19892,7 @@
       <x:c r="C40" s="209"/>
       <x:c r="D40" s="209"/>
       <x:c r="E40" s="144" t="s">
-        <x:v>750</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="F40" s="209"/>
       <x:c r="G40" s="209"/>
@@ -19881,23 +19902,23 @@
     </x:row>
     <x:row r="41" spans="1:10" ht="28.5" customHeight="1">
       <x:c r="A41" s="268" t="s">
-        <x:v>751</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="B41" s="208"/>
       <x:c r="C41" s="143" t="s">
-        <x:v>752</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="D41" s="143" t="s">
-        <x:v>753</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="E41" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F41" s="143" t="s">
-        <x:v>754</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G41" s="143" t="s">
-        <x:v>755</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="H41" s="20"/>
       <x:c r="I41" s="109"/>
@@ -19909,7 +19930,7 @@
       <x:c r="C42" s="208"/>
       <x:c r="D42" s="208"/>
       <x:c r="E42" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F42" s="208"/>
       <x:c r="G42" s="208"/>
@@ -19923,7 +19944,7 @@
       <x:c r="C43" s="209"/>
       <x:c r="D43" s="209"/>
       <x:c r="E43" s="144" t="s">
-        <x:v>756</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="F43" s="209"/>
       <x:c r="G43" s="209"/>
@@ -19933,23 +19954,23 @@
     </x:row>
     <x:row r="44" spans="1:10" ht="18" customHeight="1">
       <x:c r="A44" s="268" t="s">
-        <x:v>757</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="B44" s="208"/>
       <x:c r="C44" s="143" t="s">
-        <x:v>758</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="D44" s="143" t="s">
-        <x:v>759</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="E44" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F44" s="143" t="s">
-        <x:v>760</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="G44" s="143" t="s">
-        <x:v>761</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="H44" s="20"/>
       <x:c r="I44" s="109"/>
@@ -19961,7 +19982,7 @@
       <x:c r="C45" s="208"/>
       <x:c r="D45" s="208"/>
       <x:c r="E45" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F45" s="208"/>
       <x:c r="G45" s="208"/>
@@ -19975,7 +19996,7 @@
       <x:c r="C46" s="209"/>
       <x:c r="D46" s="209"/>
       <x:c r="E46" s="144" t="s">
-        <x:v>762</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="F46" s="209"/>
       <x:c r="G46" s="209"/>
@@ -19985,25 +20006,25 @@
     </x:row>
     <x:row r="47" spans="1:10" ht="18" customHeight="1">
       <x:c r="A47" s="268" t="s">
-        <x:v>763</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="B47" s="268" t="s">
-        <x:v>764</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C47" s="143" t="s">
-        <x:v>765</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="D47" s="143" t="s">
-        <x:v>766</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="E47" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F47" s="143" t="s">
-        <x:v>767</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="G47" s="143" t="s">
-        <x:v>768</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="H47" s="20"/>
       <x:c r="I47" s="109"/>
@@ -20015,7 +20036,7 @@
       <x:c r="C48" s="208"/>
       <x:c r="D48" s="208"/>
       <x:c r="E48" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F48" s="208"/>
       <x:c r="G48" s="208"/>
@@ -20029,7 +20050,7 @@
       <x:c r="C49" s="208"/>
       <x:c r="D49" s="208"/>
       <x:c r="E49" s="148" t="s">
-        <x:v>769</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="F49" s="208"/>
       <x:c r="G49" s="208"/>
@@ -20043,7 +20064,7 @@
       <x:c r="C50" s="209"/>
       <x:c r="D50" s="209"/>
       <x:c r="E50" s="148" t="s">
-        <x:v>770</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="F50" s="209"/>
       <x:c r="G50" s="209"/>
@@ -20053,25 +20074,25 @@
     </x:row>
     <x:row r="51" spans="1:10" ht="18" customHeight="1">
       <x:c r="A51" s="268" t="s">
-        <x:v>771</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="B51" s="268" t="s">
-        <x:v>772</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="C51" s="145" t="s">
-        <x:v>773</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="D51" s="145" t="s">
-        <x:v>774</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="E51" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F51" s="145" t="s">
-        <x:v>775</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="G51" s="143" t="s">
-        <x:v>776</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="H51" s="20"/>
       <x:c r="I51" s="109"/>
@@ -20083,7 +20104,7 @@
       <x:c r="C52" s="208"/>
       <x:c r="D52" s="208"/>
       <x:c r="E52" s="144" t="s">
-        <x:v>777</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="F52" s="208"/>
       <x:c r="G52" s="209"/>
@@ -20097,11 +20118,11 @@
       <x:c r="C53" s="208"/>
       <x:c r="D53" s="208"/>
       <x:c r="E53" s="144" t="s">
-        <x:v>778</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="F53" s="208"/>
       <x:c r="G53" s="143" t="s">
-        <x:v>779</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="H53" s="20"/>
       <x:c r="I53" s="109"/>
@@ -20113,7 +20134,7 @@
       <x:c r="C54" s="208"/>
       <x:c r="D54" s="209"/>
       <x:c r="E54" s="144" t="s">
-        <x:v>780</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="F54" s="209"/>
       <x:c r="G54" s="209"/>
@@ -20126,16 +20147,16 @@
       <x:c r="B55" s="208"/>
       <x:c r="C55" s="208"/>
       <x:c r="D55" s="145" t="s">
-        <x:v>781</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="E55" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F55" s="145" t="s">
-        <x:v>782</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="G55" s="145" t="s">
-        <x:v>783</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="H55" s="20"/>
       <x:c r="I55" s="109"/>
@@ -20147,7 +20168,7 @@
       <x:c r="C56" s="208"/>
       <x:c r="D56" s="208"/>
       <x:c r="E56" s="144" t="s">
-        <x:v>777</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="F56" s="208"/>
       <x:c r="G56" s="208"/>
@@ -20161,7 +20182,7 @@
       <x:c r="C57" s="209"/>
       <x:c r="D57" s="209"/>
       <x:c r="E57" s="144" t="s">
-        <x:v>784</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="F57" s="209"/>
       <x:c r="G57" s="209"/>
@@ -20171,23 +20192,23 @@
     </x:row>
     <x:row r="58" spans="1:10" ht="18" customHeight="1">
       <x:c r="A58" s="268" t="s">
-        <x:v>785</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="B58" s="208"/>
       <x:c r="C58" s="145" t="s">
-        <x:v>786</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="D58" s="145" t="s">
-        <x:v>787</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="E58" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F58" s="145" t="s">
-        <x:v>788</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="G58" s="143" t="s">
-        <x:v>789</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="H58" s="20"/>
       <x:c r="I58" s="109"/>
@@ -20199,7 +20220,7 @@
       <x:c r="C59" s="208"/>
       <x:c r="D59" s="208"/>
       <x:c r="E59" s="144" t="s">
-        <x:v>777</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="F59" s="208"/>
       <x:c r="G59" s="208"/>
@@ -20213,7 +20234,7 @@
       <x:c r="C60" s="209"/>
       <x:c r="D60" s="209"/>
       <x:c r="E60" s="148" t="s">
-        <x:v>790</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="F60" s="209"/>
       <x:c r="G60" s="209"/>
@@ -20223,23 +20244,23 @@
     </x:row>
     <x:row r="61" spans="1:10" ht="18" customHeight="1">
       <x:c r="A61" s="268" t="s">
-        <x:v>791</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="B61" s="208"/>
       <x:c r="C61" s="145" t="s">
-        <x:v>773</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="D61" s="145" t="s">
-        <x:v>792</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="E61" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F61" s="145" t="s">
-        <x:v>793</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="G61" s="143" t="s">
-        <x:v>794</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="H61" s="20"/>
       <x:c r="I61" s="109"/>
@@ -20251,7 +20272,7 @@
       <x:c r="C62" s="208"/>
       <x:c r="D62" s="208"/>
       <x:c r="E62" s="144" t="s">
-        <x:v>777</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="F62" s="208"/>
       <x:c r="G62" s="209"/>
@@ -20265,11 +20286,11 @@
       <x:c r="C63" s="208"/>
       <x:c r="D63" s="208"/>
       <x:c r="E63" s="144" t="s">
-        <x:v>795</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="F63" s="208"/>
       <x:c r="G63" s="143" t="s">
-        <x:v>796</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="H63" s="20"/>
       <x:c r="I63" s="109"/>
@@ -20281,7 +20302,7 @@
       <x:c r="C64" s="208"/>
       <x:c r="D64" s="209"/>
       <x:c r="E64" s="144" t="s">
-        <x:v>797</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="F64" s="209"/>
       <x:c r="G64" s="209"/>
@@ -20291,21 +20312,21 @@
     </x:row>
     <x:row r="65" spans="1:10" ht="18" customHeight="1">
       <x:c r="A65" s="268" t="s">
-        <x:v>798</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="B65" s="208"/>
       <x:c r="C65" s="208"/>
       <x:c r="D65" s="145" t="s">
-        <x:v>799</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="E65" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F65" s="145" t="s">
-        <x:v>800</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="G65" s="143" t="s">
-        <x:v>801</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="H65" s="20"/>
       <x:c r="I65" s="109"/>
@@ -20317,7 +20338,7 @@
       <x:c r="C66" s="208"/>
       <x:c r="D66" s="208"/>
       <x:c r="E66" s="144" t="s">
-        <x:v>777</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="F66" s="208"/>
       <x:c r="G66" s="208"/>
@@ -20331,7 +20352,7 @@
       <x:c r="C67" s="208"/>
       <x:c r="D67" s="208"/>
       <x:c r="E67" s="144" t="s">
-        <x:v>802</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="F67" s="208"/>
       <x:c r="G67" s="208"/>
@@ -20345,7 +20366,7 @@
       <x:c r="C68" s="209"/>
       <x:c r="D68" s="209"/>
       <x:c r="E68" s="144" t="s">
-        <x:v>803</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="F68" s="209"/>
       <x:c r="G68" s="209"/>
@@ -20355,25 +20376,25 @@
     </x:row>
     <x:row r="69" spans="1:10" ht="18" customHeight="1">
       <x:c r="A69" s="268" t="s">
-        <x:v>804</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="B69" s="268" t="s">
-        <x:v>805</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="C69" s="143" t="s">
-        <x:v>806</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="D69" s="143" t="s">
-        <x:v>807</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="E69" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F69" s="143" t="s">
-        <x:v>808</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="G69" s="143" t="s">
-        <x:v>809</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="H69" s="20"/>
       <x:c r="I69" s="109"/>
@@ -20385,7 +20406,7 @@
       <x:c r="C70" s="208"/>
       <x:c r="D70" s="208"/>
       <x:c r="E70" s="144" t="s">
-        <x:v>777</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="F70" s="208"/>
       <x:c r="G70" s="208"/>
@@ -20399,7 +20420,7 @@
       <x:c r="C71" s="208"/>
       <x:c r="D71" s="208"/>
       <x:c r="E71" s="148" t="s">
-        <x:v>810</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="F71" s="208"/>
       <x:c r="G71" s="208"/>
@@ -20413,7 +20434,7 @@
       <x:c r="C72" s="209"/>
       <x:c r="D72" s="209"/>
       <x:c r="E72" s="148" t="s">
-        <x:v>811</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="F72" s="209"/>
       <x:c r="G72" s="209"/>
@@ -20423,25 +20444,25 @@
     </x:row>
     <x:row r="73" spans="1:10" ht="18" customHeight="1">
       <x:c r="A73" s="268" t="s">
-        <x:v>812</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="B73" s="268" t="s">
-        <x:v>813</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="C73" s="145" t="s">
-        <x:v>814</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="D73" s="145" t="s">
-        <x:v>815</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="E73" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F73" s="145" t="s">
-        <x:v>697</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="G73" s="145" t="s">
-        <x:v>816</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="H73" s="20"/>
       <x:c r="I73" s="109"/>
@@ -20453,7 +20474,7 @@
       <x:c r="C74" s="208"/>
       <x:c r="D74" s="208"/>
       <x:c r="E74" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F74" s="209"/>
       <x:c r="G74" s="208"/>
@@ -20467,10 +20488,10 @@
       <x:c r="C75" s="208"/>
       <x:c r="D75" s="208"/>
       <x:c r="E75" s="144" t="s">
-        <x:v>817</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="F75" s="145" t="s">
-        <x:v>818</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="G75" s="208"/>
       <x:c r="H75" s="20"/>
@@ -20483,7 +20504,7 @@
       <x:c r="C76" s="208"/>
       <x:c r="D76" s="208"/>
       <x:c r="E76" s="144" t="s">
-        <x:v>819</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="F76" s="208"/>
       <x:c r="G76" s="208"/>
@@ -20497,7 +20518,7 @@
       <x:c r="C77" s="209"/>
       <x:c r="D77" s="209"/>
       <x:c r="E77" s="144" t="s">
-        <x:v>820</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="F77" s="209"/>
       <x:c r="G77" s="209"/>
@@ -20507,23 +20528,23 @@
     </x:row>
     <x:row r="78" spans="1:10" ht="18" customHeight="1">
       <x:c r="A78" s="268" t="s">
-        <x:v>821</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="B78" s="208"/>
       <x:c r="C78" s="145" t="s">
-        <x:v>822</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="D78" s="145" t="s">
-        <x:v>823</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="E78" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F78" s="145" t="s">
-        <x:v>697</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="G78" s="145" t="s">
-        <x:v>824</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="H78" s="20"/>
       <x:c r="I78" s="109"/>
@@ -20535,7 +20556,7 @@
       <x:c r="C79" s="208"/>
       <x:c r="D79" s="208"/>
       <x:c r="E79" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F79" s="209"/>
       <x:c r="G79" s="208"/>
@@ -20549,10 +20570,10 @@
       <x:c r="C80" s="208"/>
       <x:c r="D80" s="208"/>
       <x:c r="E80" s="144" t="s">
-        <x:v>825</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="F80" s="145" t="s">
-        <x:v>826</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="G80" s="208"/>
       <x:c r="H80" s="20"/>
@@ -20565,7 +20586,7 @@
       <x:c r="C81" s="208"/>
       <x:c r="D81" s="208"/>
       <x:c r="E81" s="144" t="s">
-        <x:v>827</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="F81" s="208"/>
       <x:c r="G81" s="208"/>
@@ -20579,7 +20600,7 @@
       <x:c r="C82" s="209"/>
       <x:c r="D82" s="209"/>
       <x:c r="E82" s="144" t="s">
-        <x:v>828</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="F82" s="209"/>
       <x:c r="G82" s="209"/>
@@ -20589,25 +20610,25 @@
     </x:row>
     <x:row r="83" spans="1:10" ht="26.25" customHeight="1">
       <x:c r="A83" s="268" t="s">
-        <x:v>829</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="B83" s="268" t="s">
-        <x:v>830</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="C83" s="145" t="s">
-        <x:v>831</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="D83" s="145" t="s">
-        <x:v>832</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="E83" s="148" t="s">
-        <x:v>833</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="F83" s="145" t="s">
-        <x:v>834</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="G83" s="145" t="s">
-        <x:v>835</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="H83" s="20"/>
       <x:c r="I83" s="109"/>
@@ -20619,7 +20640,7 @@
       <x:c r="C84" s="209"/>
       <x:c r="D84" s="209"/>
       <x:c r="E84" s="148" t="s">
-        <x:v>836</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="F84" s="209"/>
       <x:c r="G84" s="209"/>
@@ -20629,25 +20650,25 @@
     </x:row>
     <x:row r="85" spans="1:10" ht="18" customHeight="1">
       <x:c r="A85" s="268" t="s">
-        <x:v>837</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="B85" s="272" t="s">
-        <x:v>838</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="C85" s="266" t="s">
-        <x:v>839</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="D85" s="143" t="s">
-        <x:v>840</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="E85" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F85" s="266" t="s">
-        <x:v>841</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="G85" s="266" t="s">
-        <x:v>842</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="H85" s="20"/>
       <x:c r="I85" s="109"/>
@@ -20659,7 +20680,7 @@
       <x:c r="C86" s="208"/>
       <x:c r="D86" s="208"/>
       <x:c r="E86" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F86" s="208"/>
       <x:c r="G86" s="208"/>
@@ -20673,7 +20694,7 @@
       <x:c r="C87" s="208"/>
       <x:c r="D87" s="208"/>
       <x:c r="E87" s="149" t="s">
-        <x:v>843</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="F87" s="208"/>
       <x:c r="G87" s="208"/>
@@ -20687,7 +20708,7 @@
       <x:c r="C88" s="209"/>
       <x:c r="D88" s="209"/>
       <x:c r="E88" s="149" t="s">
-        <x:v>844</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="F88" s="209"/>
       <x:c r="G88" s="209"/>
@@ -20697,23 +20718,23 @@
     </x:row>
     <x:row r="89" spans="1:10" ht="18" customHeight="1">
       <x:c r="A89" s="268" t="s">
-        <x:v>845</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="B89" s="208"/>
       <x:c r="C89" s="266" t="s">
-        <x:v>704</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="D89" s="267" t="s">
-        <x:v>846</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="E89" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F89" s="267" t="s">
-        <x:v>847</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="G89" s="267" t="s">
-        <x:v>848</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="H89" s="20"/>
       <x:c r="I89" s="109"/>
@@ -20725,7 +20746,7 @@
       <x:c r="C90" s="208"/>
       <x:c r="D90" s="208"/>
       <x:c r="E90" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F90" s="208"/>
       <x:c r="G90" s="208"/>
@@ -20739,7 +20760,7 @@
       <x:c r="C91" s="208"/>
       <x:c r="D91" s="208"/>
       <x:c r="E91" s="150" t="s">
-        <x:v>849</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="F91" s="208"/>
       <x:c r="G91" s="208"/>
@@ -20753,7 +20774,7 @@
       <x:c r="C92" s="209"/>
       <x:c r="D92" s="209"/>
       <x:c r="E92" s="149" t="s">
-        <x:v>850</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="F92" s="209"/>
       <x:c r="G92" s="209"/>
@@ -20763,23 +20784,23 @@
     </x:row>
     <x:row r="93" spans="1:10" ht="18" customHeight="1">
       <x:c r="A93" s="268" t="s">
-        <x:v>851</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="B93" s="208"/>
       <x:c r="C93" s="266" t="s">
-        <x:v>852</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="D93" s="143" t="s">
-        <x:v>853</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="E93" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F93" s="266" t="s">
-        <x:v>854</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="G93" s="266" t="s">
-        <x:v>855</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="H93" s="20"/>
       <x:c r="I93" s="109"/>
@@ -20791,7 +20812,7 @@
       <x:c r="C94" s="208"/>
       <x:c r="D94" s="208"/>
       <x:c r="E94" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F94" s="208"/>
       <x:c r="G94" s="208"/>
@@ -20805,7 +20826,7 @@
       <x:c r="C95" s="208"/>
       <x:c r="D95" s="208"/>
       <x:c r="E95" s="149" t="s">
-        <x:v>856</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="F95" s="208"/>
       <x:c r="G95" s="208"/>
@@ -20819,7 +20840,7 @@
       <x:c r="C96" s="209"/>
       <x:c r="D96" s="209"/>
       <x:c r="E96" s="149" t="s">
-        <x:v>850</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="F96" s="209"/>
       <x:c r="G96" s="209"/>
@@ -20829,25 +20850,25 @@
     </x:row>
     <x:row r="97" spans="1:10" ht="18" customHeight="1">
       <x:c r="A97" s="268" t="s">
-        <x:v>857</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="B97" s="272" t="s">
-        <x:v>858</x:v>
+        <x:v>864</x:v>
       </x:c>
       <x:c r="C97" s="266" t="s">
-        <x:v>695</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="D97" s="266" t="s">
-        <x:v>859</x:v>
+        <x:v>865</x:v>
       </x:c>
       <x:c r="E97" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F97" s="143" t="s">
-        <x:v>860</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="G97" s="266" t="s">
-        <x:v>861</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="H97" s="20"/>
       <x:c r="I97" s="109"/>
@@ -20859,7 +20880,7 @@
       <x:c r="C98" s="208"/>
       <x:c r="D98" s="208"/>
       <x:c r="E98" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F98" s="208"/>
       <x:c r="G98" s="208"/>
@@ -20873,7 +20894,7 @@
       <x:c r="C99" s="208"/>
       <x:c r="D99" s="208"/>
       <x:c r="E99" s="149" t="s">
-        <x:v>862</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="F99" s="208"/>
       <x:c r="G99" s="208"/>
@@ -20887,7 +20908,7 @@
       <x:c r="C100" s="209"/>
       <x:c r="D100" s="209"/>
       <x:c r="E100" s="149" t="s">
-        <x:v>863</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="F100" s="209"/>
       <x:c r="G100" s="209"/>
@@ -20897,23 +20918,23 @@
     </x:row>
     <x:row r="101" spans="1:10" ht="18" customHeight="1">
       <x:c r="A101" s="268" t="s">
-        <x:v>864</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="B101" s="208"/>
       <x:c r="C101" s="266" t="s">
-        <x:v>865</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="D101" s="143" t="s">
-        <x:v>866</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="E101" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F101" s="143" t="s">
-        <x:v>867</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="G101" s="266" t="s">
-        <x:v>868</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="H101" s="20"/>
       <x:c r="I101" s="109"/>
@@ -20925,7 +20946,7 @@
       <x:c r="C102" s="208"/>
       <x:c r="D102" s="208"/>
       <x:c r="E102" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F102" s="208"/>
       <x:c r="G102" s="208"/>
@@ -20939,7 +20960,7 @@
       <x:c r="C103" s="208"/>
       <x:c r="D103" s="208"/>
       <x:c r="E103" s="149" t="s">
-        <x:v>862</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="F103" s="208"/>
       <x:c r="G103" s="208"/>
@@ -20953,7 +20974,7 @@
       <x:c r="C104" s="209"/>
       <x:c r="D104" s="209"/>
       <x:c r="E104" s="149" t="s">
-        <x:v>863</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="F104" s="209"/>
       <x:c r="G104" s="209"/>
@@ -20963,23 +20984,23 @@
     </x:row>
     <x:row r="105" spans="1:10" ht="18" customHeight="1">
       <x:c r="A105" s="268" t="s">
-        <x:v>869</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="B105" s="208"/>
       <x:c r="C105" s="266" t="s">
-        <x:v>870</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="D105" s="143" t="s">
-        <x:v>871</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="E105" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F105" s="143" t="s">
-        <x:v>872</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="G105" s="143" t="s">
-        <x:v>873</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="H105" s="20"/>
       <x:c r="I105" s="109"/>
@@ -20991,7 +21012,7 @@
       <x:c r="C106" s="208"/>
       <x:c r="D106" s="208"/>
       <x:c r="E106" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F106" s="209"/>
       <x:c r="G106" s="208"/>
@@ -21005,10 +21026,10 @@
       <x:c r="C107" s="208"/>
       <x:c r="D107" s="208"/>
       <x:c r="E107" s="149" t="s">
-        <x:v>862</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="F107" s="143" t="s">
-        <x:v>874</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="G107" s="208"/>
       <x:c r="H107" s="20"/>
@@ -21021,7 +21042,7 @@
       <x:c r="C108" s="209"/>
       <x:c r="D108" s="209"/>
       <x:c r="E108" s="149" t="s">
-        <x:v>863</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="F108" s="209"/>
       <x:c r="G108" s="209"/>
@@ -21031,25 +21052,25 @@
     </x:row>
     <x:row r="109" spans="1:10" ht="18" customHeight="1">
       <x:c r="A109" s="268" t="s">
-        <x:v>875</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="B109" s="272" t="s">
-        <x:v>876</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="C109" s="145" t="s">
-        <x:v>877</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="D109" s="266" t="s">
+        <x:v>884</x:v>
+      </x:c>
+      <x:c r="E109" s="144" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="F109" s="143" t="s">
         <x:v>878</x:v>
       </x:c>
-      <x:c r="E109" s="144" t="s">
-        <x:v>706</x:v>
-      </x:c>
-      <x:c r="F109" s="143" t="s">
-        <x:v>872</x:v>
-      </x:c>
       <x:c r="G109" s="266" t="s">
-        <x:v>879</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="H109" s="20"/>
       <x:c r="I109" s="109"/>
@@ -21061,7 +21082,7 @@
       <x:c r="C110" s="208"/>
       <x:c r="D110" s="208"/>
       <x:c r="E110" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F110" s="209"/>
       <x:c r="G110" s="208"/>
@@ -21075,10 +21096,10 @@
       <x:c r="C111" s="208"/>
       <x:c r="D111" s="208"/>
       <x:c r="E111" s="149" t="s">
-        <x:v>880</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="F111" s="266" t="s">
-        <x:v>881</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="G111" s="208"/>
       <x:c r="H111" s="20"/>
@@ -21091,7 +21112,7 @@
       <x:c r="C112" s="209"/>
       <x:c r="D112" s="209"/>
       <x:c r="E112" s="149" t="s">
-        <x:v>863</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="F112" s="209"/>
       <x:c r="G112" s="209"/>
@@ -21101,23 +21122,23 @@
     </x:row>
     <x:row r="113" spans="1:10" ht="18" customHeight="1">
       <x:c r="A113" s="268" t="s">
-        <x:v>882</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="B113" s="208"/>
       <x:c r="C113" s="266" t="s">
-        <x:v>883</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="D113" s="143" t="s">
-        <x:v>884</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="E113" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F113" s="143" t="s">
-        <x:v>872</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="G113" s="266" t="s">
-        <x:v>885</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="H113" s="20"/>
       <x:c r="I113" s="109"/>
@@ -21129,7 +21150,7 @@
       <x:c r="C114" s="208"/>
       <x:c r="D114" s="208"/>
       <x:c r="E114" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F114" s="209"/>
       <x:c r="G114" s="208"/>
@@ -21143,10 +21164,10 @@
       <x:c r="C115" s="208"/>
       <x:c r="D115" s="208"/>
       <x:c r="E115" s="150" t="s">
-        <x:v>886</x:v>
+        <x:v>892</x:v>
       </x:c>
       <x:c r="F115" s="266" t="s">
-        <x:v>887</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="G115" s="208"/>
       <x:c r="H115" s="20"/>
@@ -21159,7 +21180,7 @@
       <x:c r="C116" s="208"/>
       <x:c r="D116" s="208"/>
       <x:c r="E116" s="150" t="s">
-        <x:v>888</x:v>
+        <x:v>894</x:v>
       </x:c>
       <x:c r="F116" s="208"/>
       <x:c r="G116" s="208"/>
@@ -21173,7 +21194,7 @@
       <x:c r="C117" s="209"/>
       <x:c r="D117" s="209"/>
       <x:c r="E117" s="149" t="s">
-        <x:v>889</x:v>
+        <x:v>895</x:v>
       </x:c>
       <x:c r="F117" s="209"/>
       <x:c r="G117" s="209"/>
@@ -21183,25 +21204,25 @@
     </x:row>
     <x:row r="118" spans="1:10" ht="18" customHeight="1">
       <x:c r="A118" s="268" t="s">
-        <x:v>890</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="B118" s="272" t="s">
-        <x:v>891</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="C118" s="266" t="s">
-        <x:v>892</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="D118" s="266" t="s">
-        <x:v>893</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="E118" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F118" s="143" t="s">
-        <x:v>894</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="G118" s="266" t="s">
-        <x:v>895</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="H118" s="20"/>
       <x:c r="I118" s="109"/>
@@ -21213,7 +21234,7 @@
       <x:c r="C119" s="208"/>
       <x:c r="D119" s="208"/>
       <x:c r="E119" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F119" s="208"/>
       <x:c r="G119" s="208"/>
@@ -21227,7 +21248,7 @@
       <x:c r="C120" s="209"/>
       <x:c r="D120" s="209"/>
       <x:c r="E120" s="149" t="s">
-        <x:v>896</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="F120" s="209"/>
       <x:c r="G120" s="209"/>
@@ -21237,23 +21258,23 @@
     </x:row>
     <x:row r="121" spans="1:10" ht="18" customHeight="1">
       <x:c r="A121" s="268" t="s">
-        <x:v>897</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="B121" s="208"/>
       <x:c r="C121" s="266" t="s">
-        <x:v>898</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="D121" s="266" t="s">
-        <x:v>899</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="E121" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F121" s="143" t="s">
-        <x:v>900</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="G121" s="266" t="s">
-        <x:v>901</x:v>
+        <x:v>907</x:v>
       </x:c>
       <x:c r="H121" s="20"/>
       <x:c r="I121" s="109"/>
@@ -21265,7 +21286,7 @@
       <x:c r="C122" s="208"/>
       <x:c r="D122" s="208"/>
       <x:c r="E122" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F122" s="208"/>
       <x:c r="G122" s="208"/>
@@ -21279,7 +21300,7 @@
       <x:c r="C123" s="209"/>
       <x:c r="D123" s="209"/>
       <x:c r="E123" s="149" t="s">
-        <x:v>902</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="F123" s="209"/>
       <x:c r="G123" s="209"/>
@@ -21289,23 +21310,23 @@
     </x:row>
     <x:row r="124" spans="1:10" ht="18" customHeight="1">
       <x:c r="A124" s="268" t="s">
-        <x:v>903</x:v>
+        <x:v>909</x:v>
       </x:c>
       <x:c r="B124" s="208"/>
       <x:c r="C124" s="266" t="s">
-        <x:v>904</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="D124" s="143" t="s">
-        <x:v>905</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="E124" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F124" s="143" t="s">
-        <x:v>906</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="G124" s="266" t="s">
-        <x:v>907</x:v>
+        <x:v>913</x:v>
       </x:c>
       <x:c r="H124" s="20"/>
       <x:c r="I124" s="109"/>
@@ -21317,7 +21338,7 @@
       <x:c r="C125" s="208"/>
       <x:c r="D125" s="208"/>
       <x:c r="E125" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F125" s="208"/>
       <x:c r="G125" s="208"/>
@@ -21331,7 +21352,7 @@
       <x:c r="C126" s="208"/>
       <x:c r="D126" s="208"/>
       <x:c r="E126" s="149" t="s">
-        <x:v>908</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="F126" s="208"/>
       <x:c r="G126" s="208"/>
@@ -21345,7 +21366,7 @@
       <x:c r="C127" s="209"/>
       <x:c r="D127" s="209"/>
       <x:c r="E127" s="149" t="s">
-        <x:v>909</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="F127" s="209"/>
       <x:c r="G127" s="209"/>
@@ -21355,25 +21376,25 @@
     </x:row>
     <x:row r="128" spans="1:10" ht="18" customHeight="1">
       <x:c r="A128" s="268" t="s">
-        <x:v>910</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="B128" s="272" t="s">
-        <x:v>911</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="C128" s="266" t="s">
-        <x:v>912</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="D128" s="143" t="s">
-        <x:v>913</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="E128" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F128" s="143" t="s">
-        <x:v>914</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="G128" s="266" t="s">
-        <x:v>915</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="H128" s="20"/>
       <x:c r="I128" s="109"/>
@@ -21385,7 +21406,7 @@
       <x:c r="C129" s="208"/>
       <x:c r="D129" s="208"/>
       <x:c r="E129" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F129" s="209"/>
       <x:c r="G129" s="208"/>
@@ -21399,10 +21420,10 @@
       <x:c r="C130" s="208"/>
       <x:c r="D130" s="208"/>
       <x:c r="E130" s="149" t="s">
-        <x:v>916</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="F130" s="143" t="s">
-        <x:v>917</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="G130" s="208"/>
       <x:c r="H130" s="20"/>
@@ -21415,7 +21436,7 @@
       <x:c r="C131" s="209"/>
       <x:c r="D131" s="209"/>
       <x:c r="E131" s="149" t="s">
-        <x:v>918</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="F131" s="209"/>
       <x:c r="G131" s="209"/>
@@ -21425,23 +21446,23 @@
     </x:row>
     <x:row r="132" spans="1:10" ht="18" customHeight="1">
       <x:c r="A132" s="268" t="s">
-        <x:v>919</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="B132" s="208"/>
       <x:c r="C132" s="266" t="s">
-        <x:v>920</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="D132" s="266" t="s">
-        <x:v>921</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="E132" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F132" s="266" t="s">
-        <x:v>922</x:v>
+        <x:v>928</x:v>
       </x:c>
       <x:c r="G132" s="143" t="s">
-        <x:v>923</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="H132" s="20"/>
       <x:c r="I132" s="109"/>
@@ -21453,7 +21474,7 @@
       <x:c r="C133" s="208"/>
       <x:c r="D133" s="208"/>
       <x:c r="E133" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F133" s="209"/>
       <x:c r="G133" s="208"/>
@@ -21467,10 +21488,10 @@
       <x:c r="C134" s="208"/>
       <x:c r="D134" s="208"/>
       <x:c r="E134" s="149" t="s">
-        <x:v>916</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="F134" s="266" t="s">
-        <x:v>924</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="G134" s="208"/>
       <x:c r="H134" s="20"/>
@@ -21483,7 +21504,7 @@
       <x:c r="C135" s="209"/>
       <x:c r="D135" s="209"/>
       <x:c r="E135" s="149" t="s">
-        <x:v>925</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="F135" s="209"/>
       <x:c r="G135" s="209"/>
@@ -21493,25 +21514,25 @@
     </x:row>
     <x:row r="136" spans="1:10" ht="18" customHeight="1">
       <x:c r="A136" s="268" t="s">
-        <x:v>926</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="B136" s="272" t="s">
-        <x:v>927</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="C136" s="266" t="s">
-        <x:v>928</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="D136" s="266" t="s">
-        <x:v>929</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="E136" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F136" s="143" t="s">
-        <x:v>930</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="G136" s="266" t="s">
-        <x:v>931</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="H136" s="20"/>
       <x:c r="I136" s="109"/>
@@ -21523,7 +21544,7 @@
       <x:c r="C137" s="208"/>
       <x:c r="D137" s="208"/>
       <x:c r="E137" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F137" s="209"/>
       <x:c r="G137" s="208"/>
@@ -21537,10 +21558,10 @@
       <x:c r="C138" s="208"/>
       <x:c r="D138" s="208"/>
       <x:c r="E138" s="149" t="s">
-        <x:v>932</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="F138" s="143" t="s">
-        <x:v>933</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="G138" s="208"/>
       <x:c r="H138" s="20"/>
@@ -21553,7 +21574,7 @@
       <x:c r="C139" s="208"/>
       <x:c r="D139" s="208"/>
       <x:c r="E139" s="149" t="s">
-        <x:v>934</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="F139" s="208"/>
       <x:c r="G139" s="208"/>
@@ -21567,7 +21588,7 @@
       <x:c r="C140" s="209"/>
       <x:c r="D140" s="209"/>
       <x:c r="E140" s="149" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F140" s="209"/>
       <x:c r="G140" s="209"/>
@@ -21577,23 +21598,23 @@
     </x:row>
     <x:row r="141" spans="1:10" ht="18" customHeight="1">
       <x:c r="A141" s="268" t="s">
-        <x:v>936</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="B141" s="208"/>
       <x:c r="C141" s="266" t="s">
-        <x:v>937</x:v>
+        <x:v>943</x:v>
       </x:c>
       <x:c r="D141" s="266" t="s">
-        <x:v>938</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="E141" s="144" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F141" s="143" t="s">
-        <x:v>930</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="G141" s="266" t="s">
-        <x:v>939</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="H141" s="20"/>
       <x:c r="I141" s="109"/>
@@ -21605,7 +21626,7 @@
       <x:c r="C142" s="208"/>
       <x:c r="D142" s="208"/>
       <x:c r="E142" s="144" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F142" s="208"/>
       <x:c r="G142" s="208"/>
@@ -21619,7 +21640,7 @@
       <x:c r="C143" s="208"/>
       <x:c r="D143" s="208"/>
       <x:c r="E143" s="149" t="s">
-        <x:v>932</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="F143" s="209"/>
       <x:c r="G143" s="208"/>
@@ -21633,10 +21654,10 @@
       <x:c r="C144" s="208"/>
       <x:c r="D144" s="208"/>
       <x:c r="E144" s="149" t="s">
-        <x:v>940</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="F144" s="143" t="s">
-        <x:v>941</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="G144" s="208"/>
       <x:c r="H144" s="20"/>
@@ -21649,7 +21670,7 @@
       <x:c r="C145" s="209"/>
       <x:c r="D145" s="209"/>
       <x:c r="E145" s="149" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F145" s="209"/>
       <x:c r="G145" s="209"/>
@@ -21659,25 +21680,25 @@
     </x:row>
     <x:row r="146" spans="1:10" ht="18" customHeight="1">
       <x:c r="A146" s="268" t="s">
-        <x:v>942</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="B146" s="273" t="s">
-        <x:v>943</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="C146" s="266" t="s">
-        <x:v>695</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="D146" s="266" t="s">
-        <x:v>944</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="E146" s="148" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F146" s="145" t="s">
-        <x:v>697</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="G146" s="266" t="s">
-        <x:v>945</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="H146" s="20"/>
       <x:c r="I146" s="109"/>
@@ -21689,7 +21710,7 @@
       <x:c r="C147" s="208"/>
       <x:c r="D147" s="208"/>
       <x:c r="E147" s="148" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F147" s="208"/>
       <x:c r="G147" s="208"/>
@@ -21703,7 +21724,7 @@
       <x:c r="C148" s="208"/>
       <x:c r="D148" s="208"/>
       <x:c r="E148" s="149" t="s">
-        <x:v>946</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="F148" s="208"/>
       <x:c r="G148" s="208"/>
@@ -21717,7 +21738,7 @@
       <x:c r="C149" s="208"/>
       <x:c r="D149" s="208"/>
       <x:c r="E149" s="149" t="s">
-        <x:v>947</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="F149" s="208"/>
       <x:c r="G149" s="208"/>
@@ -21731,7 +21752,7 @@
       <x:c r="C150" s="209"/>
       <x:c r="D150" s="209"/>
       <x:c r="E150" s="149" t="s">
-        <x:v>948</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="F150" s="209"/>
       <x:c r="G150" s="209"/>
@@ -21741,23 +21762,23 @@
     </x:row>
     <x:row r="151" spans="1:10" ht="18" customHeight="1">
       <x:c r="A151" s="268" t="s">
-        <x:v>949</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="B151" s="208"/>
       <x:c r="C151" s="266" t="s">
-        <x:v>950</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="D151" s="145" t="s">
-        <x:v>951</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="E151" s="148" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F151" s="145" t="s">
-        <x:v>952</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="G151" s="266" t="s">
-        <x:v>953</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="H151" s="20"/>
       <x:c r="I151" s="109"/>
@@ -21769,7 +21790,7 @@
       <x:c r="C152" s="208"/>
       <x:c r="D152" s="208"/>
       <x:c r="E152" s="148" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F152" s="208"/>
       <x:c r="G152" s="208"/>
@@ -21783,7 +21804,7 @@
       <x:c r="C153" s="208"/>
       <x:c r="D153" s="208"/>
       <x:c r="E153" s="149" t="s">
-        <x:v>946</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="F153" s="208"/>
       <x:c r="G153" s="208"/>
@@ -21797,7 +21818,7 @@
       <x:c r="C154" s="208"/>
       <x:c r="D154" s="208"/>
       <x:c r="E154" s="149" t="s">
-        <x:v>954</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="F154" s="208"/>
       <x:c r="G154" s="208"/>
@@ -21811,7 +21832,7 @@
       <x:c r="C155" s="209"/>
       <x:c r="D155" s="209"/>
       <x:c r="E155" s="149" t="s">
-        <x:v>948</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="F155" s="209"/>
       <x:c r="G155" s="209"/>
@@ -21821,25 +21842,25 @@
     </x:row>
     <x:row r="156" spans="1:10" ht="18" customHeight="1">
       <x:c r="A156" s="268" t="s">
-        <x:v>955</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="B156" s="273" t="s">
-        <x:v>956</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="C156" s="266" t="s">
-        <x:v>957</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="D156" s="145" t="s">
-        <x:v>958</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="E156" s="148" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F156" s="266" t="s">
-        <x:v>959</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="G156" s="266" t="s">
-        <x:v>960</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="H156" s="20"/>
       <x:c r="I156" s="109"/>
@@ -21851,7 +21872,7 @@
       <x:c r="C157" s="208"/>
       <x:c r="D157" s="208"/>
       <x:c r="E157" s="148" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F157" s="209"/>
       <x:c r="G157" s="208"/>
@@ -21865,10 +21886,10 @@
       <x:c r="C158" s="208"/>
       <x:c r="D158" s="208"/>
       <x:c r="E158" s="149" t="s">
-        <x:v>961</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="F158" s="266" t="s">
-        <x:v>962</x:v>
+        <x:v>968</x:v>
       </x:c>
       <x:c r="G158" s="208"/>
       <x:c r="H158" s="20"/>
@@ -21881,7 +21902,7 @@
       <x:c r="C159" s="209"/>
       <x:c r="D159" s="209"/>
       <x:c r="E159" s="149" t="s">
-        <x:v>963</x:v>
+        <x:v>969</x:v>
       </x:c>
       <x:c r="F159" s="209"/>
       <x:c r="G159" s="209"/>
@@ -21891,23 +21912,23 @@
     </x:row>
     <x:row r="160" spans="1:10" ht="18" customHeight="1">
       <x:c r="A160" s="268" t="s">
-        <x:v>964</x:v>
+        <x:v>970</x:v>
       </x:c>
       <x:c r="B160" s="208"/>
       <x:c r="C160" s="266" t="s">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c r="D160" s="145" t="s">
+        <x:v>972</x:v>
+      </x:c>
+      <x:c r="E160" s="148" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="F160" s="266" t="s">
         <x:v>965</x:v>
       </x:c>
-      <x:c r="D160" s="145" t="s">
-        <x:v>966</x:v>
-      </x:c>
-      <x:c r="E160" s="148" t="s">
-        <x:v>706</x:v>
-      </x:c>
-      <x:c r="F160" s="266" t="s">
-        <x:v>959</x:v>
-      </x:c>
       <x:c r="G160" s="266" t="s">
-        <x:v>967</x:v>
+        <x:v>973</x:v>
       </x:c>
       <x:c r="H160" s="20"/>
       <x:c r="I160" s="109"/>
@@ -21919,7 +21940,7 @@
       <x:c r="C161" s="208"/>
       <x:c r="D161" s="208"/>
       <x:c r="E161" s="148" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F161" s="209"/>
       <x:c r="G161" s="208"/>
@@ -21933,10 +21954,10 @@
       <x:c r="C162" s="208"/>
       <x:c r="D162" s="208"/>
       <x:c r="E162" s="149" t="s">
+        <x:v>974</x:v>
+      </x:c>
+      <x:c r="F162" s="266" t="s">
         <x:v>968</x:v>
-      </x:c>
-      <x:c r="F162" s="266" t="s">
-        <x:v>962</x:v>
       </x:c>
       <x:c r="G162" s="208"/>
       <x:c r="H162" s="20"/>
@@ -21949,7 +21970,7 @@
       <x:c r="C163" s="208"/>
       <x:c r="D163" s="208"/>
       <x:c r="E163" s="149" t="s">
-        <x:v>963</x:v>
+        <x:v>969</x:v>
       </x:c>
       <x:c r="F163" s="208"/>
       <x:c r="G163" s="208"/>
@@ -21963,7 +21984,7 @@
       <x:c r="C164" s="209"/>
       <x:c r="D164" s="209"/>
       <x:c r="E164" s="149" t="s">
-        <x:v>969</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="F164" s="209"/>
       <x:c r="G164" s="209"/>
@@ -21973,25 +21994,25 @@
     </x:row>
     <x:row r="165" spans="1:10" ht="18" customHeight="1">
       <x:c r="A165" s="268" t="s">
-        <x:v>970</x:v>
+        <x:v>976</x:v>
       </x:c>
       <x:c r="B165" s="273" t="s">
-        <x:v>971</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="C165" s="145" t="s">
-        <x:v>972</x:v>
+        <x:v>978</x:v>
       </x:c>
       <x:c r="D165" s="266" t="s">
-        <x:v>973</x:v>
+        <x:v>979</x:v>
       </x:c>
       <x:c r="E165" s="148" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F165" s="148" t="s">
-        <x:v>974</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="G165" s="266" t="s">
-        <x:v>975</x:v>
+        <x:v>981</x:v>
       </x:c>
       <x:c r="H165" s="20"/>
       <x:c r="I165" s="109"/>
@@ -22003,10 +22024,10 @@
       <x:c r="C166" s="208"/>
       <x:c r="D166" s="208"/>
       <x:c r="E166" s="148" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F166" s="145" t="s">
-        <x:v>976</x:v>
+        <x:v>982</x:v>
       </x:c>
       <x:c r="G166" s="208"/>
       <x:c r="H166" s="20"/>
@@ -22019,7 +22040,7 @@
       <x:c r="C167" s="209"/>
       <x:c r="D167" s="209"/>
       <x:c r="E167" s="149" t="s">
-        <x:v>977</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="F167" s="209"/>
       <x:c r="G167" s="209"/>
@@ -22029,25 +22050,25 @@
     </x:row>
     <x:row r="168" spans="1:10" ht="18" customHeight="1">
       <x:c r="A168" s="268" t="s">
-        <x:v>978</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="B168" s="273" t="s">
-        <x:v>979</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="C168" s="145" t="s">
-        <x:v>980</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="D168" s="266" t="s">
-        <x:v>981</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="E168" s="148" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F168" s="145" t="s">
-        <x:v>982</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="G168" s="266" t="s">
-        <x:v>983</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="H168" s="20"/>
       <x:c r="I168" s="109"/>
@@ -22059,7 +22080,7 @@
       <x:c r="C169" s="208"/>
       <x:c r="D169" s="208"/>
       <x:c r="E169" s="148" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F169" s="208"/>
       <x:c r="G169" s="208"/>
@@ -22073,7 +22094,7 @@
       <x:c r="C170" s="208"/>
       <x:c r="D170" s="208"/>
       <x:c r="E170" s="149" t="s">
-        <x:v>968</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="F170" s="208"/>
       <x:c r="G170" s="208"/>
@@ -22087,7 +22108,7 @@
       <x:c r="C171" s="209"/>
       <x:c r="D171" s="209"/>
       <x:c r="E171" s="149" t="s">
-        <x:v>984</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="F171" s="209"/>
       <x:c r="G171" s="209"/>
@@ -22097,25 +22118,25 @@
     </x:row>
     <x:row r="172" spans="1:10" ht="18" customHeight="1">
       <x:c r="A172" s="268" t="s">
-        <x:v>985</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="B172" s="273" t="s">
-        <x:v>986</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="C172" s="145" t="s">
-        <x:v>695</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="D172" s="145" t="s">
-        <x:v>987</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="E172" s="148" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F172" s="148" t="s">
-        <x:v>988</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="G172" s="266" t="s">
-        <x:v>989</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="H172" s="20"/>
       <x:c r="I172" s="109"/>
@@ -22127,10 +22148,10 @@
       <x:c r="C173" s="208"/>
       <x:c r="D173" s="208"/>
       <x:c r="E173" s="148" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F173" s="266" t="s">
-        <x:v>990</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="G173" s="208"/>
       <x:c r="H173" s="20"/>
@@ -22143,7 +22164,7 @@
       <x:c r="C174" s="209"/>
       <x:c r="D174" s="209"/>
       <x:c r="E174" s="149" t="s">
-        <x:v>991</x:v>
+        <x:v>997</x:v>
       </x:c>
       <x:c r="F174" s="209"/>
       <x:c r="G174" s="209"/>
@@ -22153,25 +22174,25 @@
     </x:row>
     <x:row r="175" spans="1:10" ht="18" customHeight="1">
       <x:c r="A175" s="268" t="s">
-        <x:v>992</x:v>
+        <x:v>998</x:v>
       </x:c>
       <x:c r="B175" s="273" t="s">
-        <x:v>993</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="C175" s="145" t="s">
-        <x:v>994</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="D175" s="145" t="s">
-        <x:v>995</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="E175" s="148" t="s">
-        <x:v>706</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F175" s="145" t="s">
-        <x:v>996</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="G175" s="266" t="s">
-        <x:v>997</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="H175" s="20"/>
       <x:c r="I175" s="109"/>
@@ -22183,7 +22204,7 @@
       <x:c r="C176" s="208"/>
       <x:c r="D176" s="208"/>
       <x:c r="E176" s="148" t="s">
-        <x:v>708</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F176" s="208"/>
       <x:c r="G176" s="208"/>
@@ -22197,7 +22218,7 @@
       <x:c r="C177" s="209"/>
       <x:c r="D177" s="209"/>
       <x:c r="E177" s="149" t="s">
-        <x:v>998</x:v>
+        <x:v>1004</x:v>
       </x:c>
       <x:c r="F177" s="209"/>
       <x:c r="G177" s="209"/>
@@ -24516,16 +24537,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="274" t="s">
-        <x:v>999</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="C2" s="274" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="274" t="s">
-        <x:v>1000</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="E2" s="153" t="s">
-        <x:v>683</x:v>
+        <x:v>689</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -24534,7 +24555,7 @@
       <x:c r="C3" s="208"/>
       <x:c r="D3" s="208"/>
       <x:c r="E3" s="148" t="s">
-        <x:v>1001</x:v>
+        <x:v>1007</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" ht="15.75" customHeight="1">
@@ -24543,7 +24564,7 @@
       <x:c r="C4" s="208"/>
       <x:c r="D4" s="208"/>
       <x:c r="E4" s="154" t="s">
-        <x:v>711</x:v>
+        <x:v>717</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -24552,7 +24573,7 @@
       <x:c r="C5" s="208"/>
       <x:c r="D5" s="208"/>
       <x:c r="E5" s="153" t="s">
-        <x:v>1002</x:v>
+        <x:v>1008</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" ht="15.75" customHeight="1">
@@ -24561,7 +24582,7 @@
       <x:c r="C6" s="208"/>
       <x:c r="D6" s="208"/>
       <x:c r="E6" s="153" t="s">
-        <x:v>1003</x:v>
+        <x:v>1009</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8" ht="15.75" customHeight="1">
@@ -24570,7 +24591,7 @@
       <x:c r="C7" s="208"/>
       <x:c r="D7" s="208"/>
       <x:c r="E7" s="153" t="s">
-        <x:v>1004</x:v>
+        <x:v>1010</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" ht="15.75" customHeight="1">
@@ -24579,7 +24600,7 @@
       <x:c r="C8" s="208"/>
       <x:c r="D8" s="208"/>
       <x:c r="E8" s="153" t="s">
-        <x:v>1005</x:v>
+        <x:v>1011</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -24588,7 +24609,7 @@
       <x:c r="C9" s="208"/>
       <x:c r="D9" s="208"/>
       <x:c r="E9" s="153" t="s">
-        <x:v>1006</x:v>
+        <x:v>1012</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8" ht="15.75" customHeight="1">
@@ -24597,7 +24618,7 @@
       <x:c r="C10" s="208"/>
       <x:c r="D10" s="208"/>
       <x:c r="E10" s="153" t="s">
-        <x:v>764</x:v>
+        <x:v>770</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8" ht="15.75" customHeight="1">
@@ -24606,7 +24627,7 @@
       <x:c r="C11" s="208"/>
       <x:c r="D11" s="208"/>
       <x:c r="E11" s="153" t="s">
-        <x:v>772</x:v>
+        <x:v>778</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8" ht="15.75" customHeight="1">
@@ -24615,7 +24636,7 @@
       <x:c r="C12" s="208"/>
       <x:c r="D12" s="208"/>
       <x:c r="E12" s="153" t="s">
-        <x:v>943</x:v>
+        <x:v>949</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8" ht="15.75" customHeight="1">
@@ -24624,7 +24645,7 @@
       <x:c r="C13" s="208"/>
       <x:c r="D13" s="208"/>
       <x:c r="E13" s="154" t="s">
-        <x:v>805</x:v>
+        <x:v>811</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8" ht="15.75" customHeight="1">
@@ -24633,7 +24654,7 @@
       <x:c r="C14" s="208"/>
       <x:c r="D14" s="208"/>
       <x:c r="E14" s="153" t="s">
-        <x:v>1007</x:v>
+        <x:v>1013</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8" ht="15.75" customHeight="1">
@@ -24642,7 +24663,7 @@
       <x:c r="C15" s="208"/>
       <x:c r="D15" s="208"/>
       <x:c r="E15" s="154" t="s">
-        <x:v>830</x:v>
+        <x:v>836</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -24651,7 +24672,7 @@
       <x:c r="C16" s="208"/>
       <x:c r="D16" s="208"/>
       <x:c r="E16" s="155" t="s">
-        <x:v>1008</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="F16" s="156"/>
     </x:row>
@@ -24661,7 +24682,7 @@
       <x:c r="C17" s="208"/>
       <x:c r="D17" s="208"/>
       <x:c r="E17" s="155" t="s">
-        <x:v>1009</x:v>
+        <x:v>1015</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -24670,7 +24691,7 @@
       <x:c r="C18" s="208"/>
       <x:c r="D18" s="208"/>
       <x:c r="E18" s="155" t="s">
-        <x:v>1010</x:v>
+        <x:v>1016</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -24679,7 +24700,7 @@
       <x:c r="C19" s="208"/>
       <x:c r="D19" s="208"/>
       <x:c r="E19" s="155" t="s">
-        <x:v>927</x:v>
+        <x:v>933</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -24688,7 +24709,7 @@
       <x:c r="C20" s="208"/>
       <x:c r="D20" s="208"/>
       <x:c r="E20" s="155" t="s">
-        <x:v>971</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="F20" s="156"/>
     </x:row>
@@ -24698,7 +24719,7 @@
       <x:c r="C21" s="208"/>
       <x:c r="D21" s="208"/>
       <x:c r="E21" s="155" t="s">
-        <x:v>876</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="F21" s="156"/>
       <x:c r="G21" s="156"/>
@@ -24709,7 +24730,7 @@
       <x:c r="C22" s="208"/>
       <x:c r="D22" s="208"/>
       <x:c r="E22" s="155" t="s">
-        <x:v>1011</x:v>
+        <x:v>1017</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
@@ -24718,7 +24739,7 @@
       <x:c r="C23" s="208"/>
       <x:c r="D23" s="208"/>
       <x:c r="E23" s="155" t="s">
-        <x:v>979</x:v>
+        <x:v>985</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -24727,7 +24748,7 @@
       <x:c r="C24" s="208"/>
       <x:c r="D24" s="208"/>
       <x:c r="E24" s="155" t="s">
-        <x:v>986</x:v>
+        <x:v>992</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -24736,7 +24757,7 @@
       <x:c r="C25" s="208"/>
       <x:c r="D25" s="208"/>
       <x:c r="E25" s="155" t="s">
-        <x:v>993</x:v>
+        <x:v>999</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -24745,7 +24766,7 @@
       <x:c r="C26" s="209"/>
       <x:c r="D26" s="209"/>
       <x:c r="E26" s="155" t="s">
-        <x:v>891</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="F26" s="156"/>
       <x:c r="G26" s="156"/>
@@ -24797,7 +24818,7 @@
       <x:c r="C2" s="311"/>
       <x:c r="D2" s="312"/>
       <x:c r="E2" s="312" t="s">
-        <x:v>1012</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="F2" s="313"/>
       <x:c r="G2" s="314"/>
@@ -24987,22 +25008,22 @@
     </x:row>
     <x:row r="15" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A15" s="275" t="s">
-        <x:v>1013</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="B15" s="447" t="s">
-        <x:v>1014</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="C15" s="277" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D15" s="277" t="s">
-        <x:v>1016</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="E15" s="161" t="s">
-        <x:v>1017</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="F15" s="161" t="s">
-        <x:v>1018</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="G15" s="161"/>
       <x:c r="H15" s="161"/>
@@ -25015,10 +25036,10 @@
       <x:c r="C16" s="208"/>
       <x:c r="D16" s="208"/>
       <x:c r="E16" s="164" t="s">
-        <x:v>1019</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="F16" s="164" t="s">
-        <x:v>1020</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="G16" s="164"/>
       <x:c r="H16" s="164"/>
@@ -25031,10 +25052,10 @@
       <x:c r="C17" s="208"/>
       <x:c r="D17" s="208"/>
       <x:c r="E17" s="164" t="s">
-        <x:v>1021</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F17" s="164" t="s">
-        <x:v>1022</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="G17" s="164"/>
       <x:c r="H17" s="164"/>
@@ -25047,7 +25068,7 @@
       <x:c r="C18" s="208"/>
       <x:c r="D18" s="208"/>
       <x:c r="E18" s="164" t="s">
-        <x:v>1023</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="F18" s="164"/>
       <x:c r="G18" s="167"/>
@@ -25061,33 +25082,33 @@
       <x:c r="C19" s="209"/>
       <x:c r="D19" s="209"/>
       <x:c r="E19" s="168" t="s">
-        <x:v>1024</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F19" s="168"/>
       <x:c r="G19" s="168" t="s">
-        <x:v>1025</x:v>
+        <x:v>1031</x:v>
       </x:c>
       <x:c r="H19" s="168" t="s">
-        <x:v>1026</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="I19" s="169"/>
       <x:c r="J19" s="146"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A20" s="275" t="s">
-        <x:v>1027</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="B20" s="447" t="s">
-        <x:v>1014</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="C20" s="277" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D20" s="277" t="s">
-        <x:v>1028</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="E20" s="161" t="s">
-        <x:v>1017</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="F20" s="161" t="s">
         <x:v>224</x:v>
@@ -25103,10 +25124,10 @@
       <x:c r="C21" s="208"/>
       <x:c r="D21" s="208"/>
       <x:c r="E21" s="164" t="s">
-        <x:v>1019</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="F21" s="164" t="s">
-        <x:v>1020</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="G21" s="164"/>
       <x:c r="H21" s="164"/>
@@ -25119,10 +25140,10 @@
       <x:c r="C22" s="208"/>
       <x:c r="D22" s="208"/>
       <x:c r="E22" s="164" t="s">
-        <x:v>1021</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F22" s="164" t="s">
-        <x:v>1022</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="G22" s="164"/>
       <x:c r="H22" s="164"/>
@@ -25135,7 +25156,7 @@
       <x:c r="C23" s="208"/>
       <x:c r="D23" s="208"/>
       <x:c r="E23" s="164" t="s">
-        <x:v>1023</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="F23" s="164"/>
       <x:c r="G23" s="164"/>
@@ -25149,36 +25170,36 @@
       <x:c r="C24" s="209"/>
       <x:c r="D24" s="209"/>
       <x:c r="E24" s="164" t="s">
-        <x:v>1024</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F24" s="164"/>
       <x:c r="G24" s="164" t="s">
-        <x:v>1029</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="H24" s="164" t="s">
-        <x:v>1030</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="I24" s="165"/>
       <x:c r="J24" s="166"/>
     </x:row>
     <x:row r="25" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A25" s="275" t="s">
-        <x:v>1031</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="B25" s="447" t="s">
-        <x:v>1014</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="C25" s="277" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D25" s="277" t="s">
-        <x:v>1032</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="E25" s="161" t="s">
-        <x:v>1017</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="F25" s="161" t="s">
-        <x:v>1033</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="G25" s="161"/>
       <x:c r="H25" s="161"/>
@@ -25191,10 +25212,10 @@
       <x:c r="C26" s="208"/>
       <x:c r="D26" s="208"/>
       <x:c r="E26" s="164" t="s">
-        <x:v>1019</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="F26" s="164" t="s">
-        <x:v>1020</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="G26" s="164"/>
       <x:c r="H26" s="164"/>
@@ -25207,10 +25228,10 @@
       <x:c r="C27" s="208"/>
       <x:c r="D27" s="208"/>
       <x:c r="E27" s="164" t="s">
-        <x:v>1021</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F27" s="164" t="s">
-        <x:v>1022</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="G27" s="164"/>
       <x:c r="H27" s="164"/>
@@ -25223,7 +25244,7 @@
       <x:c r="C28" s="208"/>
       <x:c r="D28" s="208"/>
       <x:c r="E28" s="164" t="s">
-        <x:v>1023</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="F28" s="164"/>
       <x:c r="G28" s="164"/>
@@ -25237,36 +25258,36 @@
       <x:c r="C29" s="209"/>
       <x:c r="D29" s="209"/>
       <x:c r="E29" s="168" t="s">
-        <x:v>1024</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F29" s="168"/>
       <x:c r="G29" s="168" t="s">
-        <x:v>1034</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="H29" s="168" t="s">
-        <x:v>1035</x:v>
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="I29" s="169"/>
       <x:c r="J29" s="146"/>
     </x:row>
     <x:row r="30" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A30" s="275" t="s">
-        <x:v>1036</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="B30" s="447" t="s">
-        <x:v>1014</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="C30" s="277" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D30" s="277" t="s">
-        <x:v>1016</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="E30" s="161" t="s">
-        <x:v>1017</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="F30" s="161" t="s">
-        <x:v>1037</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="G30" s="161"/>
       <x:c r="H30" s="161"/>
@@ -25279,10 +25300,10 @@
       <x:c r="C31" s="208"/>
       <x:c r="D31" s="208"/>
       <x:c r="E31" s="164" t="s">
-        <x:v>1019</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="F31" s="164" t="s">
-        <x:v>1020</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="G31" s="164"/>
       <x:c r="H31" s="164"/>
@@ -25295,10 +25316,10 @@
       <x:c r="C32" s="208"/>
       <x:c r="D32" s="208"/>
       <x:c r="E32" s="164" t="s">
-        <x:v>1021</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F32" s="164" t="s">
-        <x:v>1022</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="G32" s="164"/>
       <x:c r="H32" s="164"/>
@@ -25311,7 +25332,7 @@
       <x:c r="C33" s="208"/>
       <x:c r="D33" s="208"/>
       <x:c r="E33" s="164" t="s">
-        <x:v>1023</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="F33" s="164"/>
       <x:c r="G33" s="167"/>
@@ -25325,36 +25346,36 @@
       <x:c r="C34" s="209"/>
       <x:c r="D34" s="209"/>
       <x:c r="E34" s="168" t="s">
-        <x:v>1024</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F34" s="168"/>
       <x:c r="G34" s="168" t="s">
-        <x:v>1038</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="H34" s="168" t="s">
-        <x:v>1026</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="I34" s="169"/>
       <x:c r="J34" s="146"/>
     </x:row>
     <x:row r="35" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A35" s="275" t="s">
-        <x:v>1039</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="B35" s="447" t="s">
-        <x:v>1014</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="C35" s="277" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D35" s="277" t="s">
-        <x:v>1040</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="E35" s="161" t="s">
-        <x:v>1017</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="F35" s="161" t="s">
-        <x:v>1041</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="G35" s="161"/>
       <x:c r="H35" s="161"/>
@@ -25367,10 +25388,10 @@
       <x:c r="C36" s="208"/>
       <x:c r="D36" s="208"/>
       <x:c r="E36" s="164" t="s">
-        <x:v>1019</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="F36" s="164" t="s">
-        <x:v>1020</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="G36" s="164"/>
       <x:c r="H36" s="164"/>
@@ -25383,10 +25404,10 @@
       <x:c r="C37" s="208"/>
       <x:c r="D37" s="208"/>
       <x:c r="E37" s="164" t="s">
-        <x:v>1021</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F37" s="164" t="s">
-        <x:v>1022</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="G37" s="164"/>
       <x:c r="H37" s="164"/>
@@ -25399,7 +25420,7 @@
       <x:c r="C38" s="208"/>
       <x:c r="D38" s="208"/>
       <x:c r="E38" s="164" t="s">
-        <x:v>1023</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="F38" s="164"/>
       <x:c r="G38" s="164"/>
@@ -25413,14 +25434,14 @@
       <x:c r="C39" s="208"/>
       <x:c r="D39" s="208"/>
       <x:c r="E39" s="168" t="s">
-        <x:v>1024</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F39" s="164"/>
       <x:c r="G39" s="164" t="s">
-        <x:v>1042</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="H39" s="164" t="s">
-        <x:v>1043</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="I39" s="165"/>
       <x:c r="J39" s="166"/>
@@ -25433,7 +25454,7 @@
       <x:c r="E40" s="168"/>
       <x:c r="F40" s="168"/>
       <x:c r="G40" s="168" t="s">
-        <x:v>1044</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="H40" s="448"/>
       <x:c r="I40" s="169"/>
@@ -25441,22 +25462,22 @@
     </x:row>
     <x:row r="41" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A41" s="275" t="s">
-        <x:v>1045</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="B41" s="447" t="s">
-        <x:v>1014</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="C41" s="277" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D41" s="277" t="s">
-        <x:v>1046</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="E41" s="161" t="s">
-        <x:v>1017</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="F41" s="161" t="s">
-        <x:v>1047</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="G41" s="161"/>
       <x:c r="H41" s="161"/>
@@ -25469,10 +25490,10 @@
       <x:c r="C42" s="208"/>
       <x:c r="D42" s="208"/>
       <x:c r="E42" s="164" t="s">
-        <x:v>1019</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="F42" s="164" t="s">
-        <x:v>1048</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="G42" s="164"/>
       <x:c r="H42" s="164"/>
@@ -25485,10 +25506,10 @@
       <x:c r="C43" s="208"/>
       <x:c r="D43" s="208"/>
       <x:c r="E43" s="164" t="s">
-        <x:v>1021</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F43" s="164" t="s">
-        <x:v>1049</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="G43" s="164"/>
       <x:c r="H43" s="164"/>
@@ -25501,7 +25522,7 @@
       <x:c r="C44" s="208"/>
       <x:c r="D44" s="208"/>
       <x:c r="E44" s="164" t="s">
-        <x:v>1023</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="F44" s="164"/>
       <x:c r="G44" s="164"/>
@@ -25515,36 +25536,36 @@
       <x:c r="C45" s="209"/>
       <x:c r="D45" s="209"/>
       <x:c r="E45" s="168" t="s">
-        <x:v>1024</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F45" s="168"/>
       <x:c r="G45" s="168" t="s">
-        <x:v>1050</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="H45" s="168" t="s">
-        <x:v>1051</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="I45" s="169"/>
       <x:c r="J45" s="146"/>
     </x:row>
     <x:row r="46" spans="1:10">
       <x:c r="A46" s="275" t="s">
-        <x:v>1052</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="B46" s="447" t="s">
-        <x:v>1014</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="C46" s="277" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D46" s="277" t="s">
+        <x:v>1059</x:v>
+      </x:c>
+      <x:c r="E46" s="161" t="s">
+        <x:v>1023</x:v>
+      </x:c>
+      <x:c r="F46" s="161" t="s">
         <x:v>1053</x:v>
-      </x:c>
-      <x:c r="E46" s="161" t="s">
-        <x:v>1017</x:v>
-      </x:c>
-      <x:c r="F46" s="161" t="s">
-        <x:v>1047</x:v>
       </x:c>
       <x:c r="G46" s="171"/>
       <x:c r="H46" s="449"/>
@@ -25557,10 +25578,10 @@
       <x:c r="C47" s="208"/>
       <x:c r="D47" s="208"/>
       <x:c r="E47" s="164" t="s">
-        <x:v>1019</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="F47" s="164" t="s">
-        <x:v>1054</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="G47" s="164"/>
       <x:c r="H47" s="164"/>
@@ -25573,10 +25594,10 @@
       <x:c r="C48" s="208"/>
       <x:c r="D48" s="208"/>
       <x:c r="E48" s="164" t="s">
-        <x:v>1021</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F48" s="164" t="s">
-        <x:v>1055</x:v>
+        <x:v>1061</x:v>
       </x:c>
       <x:c r="G48" s="164"/>
       <x:c r="H48" s="164"/>
@@ -25589,7 +25610,7 @@
       <x:c r="C49" s="208"/>
       <x:c r="D49" s="208"/>
       <x:c r="E49" s="164" t="s">
-        <x:v>1023</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="F49" s="164"/>
       <x:c r="G49" s="164"/>
@@ -25603,36 +25624,36 @@
       <x:c r="C50" s="209"/>
       <x:c r="D50" s="209"/>
       <x:c r="E50" s="168" t="s">
-        <x:v>1024</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F50" s="168"/>
       <x:c r="G50" s="168" t="s">
-        <x:v>1056</x:v>
+        <x:v>1062</x:v>
       </x:c>
       <x:c r="H50" s="168" t="s">
-        <x:v>1051</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="I50" s="169"/>
       <x:c r="J50" s="146"/>
     </x:row>
     <x:row r="51" spans="1:10" ht="13" customHeight="1">
       <x:c r="A51" s="275" t="s">
-        <x:v>1057</x:v>
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="B51" s="447" t="s">
-        <x:v>1014</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="C51" s="277" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D51" s="277" t="s">
-        <x:v>1058</x:v>
+        <x:v>1064</x:v>
       </x:c>
       <x:c r="E51" s="161" t="s">
-        <x:v>1017</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="F51" s="161" t="s">
-        <x:v>1047</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="G51" s="161"/>
       <x:c r="H51" s="161"/>
@@ -25645,10 +25666,10 @@
       <x:c r="C52" s="208"/>
       <x:c r="D52" s="208"/>
       <x:c r="E52" s="164" t="s">
-        <x:v>1019</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="F52" s="164" t="s">
-        <x:v>1059</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="G52" s="164"/>
       <x:c r="H52" s="164"/>
@@ -25661,10 +25682,10 @@
       <x:c r="C53" s="208"/>
       <x:c r="D53" s="208"/>
       <x:c r="E53" s="164" t="s">
-        <x:v>1021</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F53" s="164" t="s">
-        <x:v>1060</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="G53" s="167"/>
       <x:c r="H53" s="164"/>
@@ -25677,7 +25698,7 @@
       <x:c r="C54" s="208"/>
       <x:c r="D54" s="208"/>
       <x:c r="E54" s="164" t="s">
-        <x:v>1023</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="F54" s="164"/>
       <x:c r="G54" s="164"/>
@@ -25691,36 +25712,36 @@
       <x:c r="C55" s="209"/>
       <x:c r="D55" s="209"/>
       <x:c r="E55" s="168" t="s">
-        <x:v>1024</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F55" s="168"/>
       <x:c r="G55" s="168" t="s">
-        <x:v>1061</x:v>
+        <x:v>1067</x:v>
       </x:c>
       <x:c r="H55" s="168" t="s">
-        <x:v>1051</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="I55" s="169"/>
       <x:c r="J55" s="146"/>
     </x:row>
     <x:row r="56" spans="1:10" ht="13" customHeight="1">
       <x:c r="A56" s="275" t="s">
-        <x:v>1062</x:v>
+        <x:v>1068</x:v>
       </x:c>
       <x:c r="B56" s="447" t="s">
-        <x:v>1014</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="C56" s="277" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D56" s="277" t="s">
-        <x:v>1063</x:v>
+        <x:v>1069</x:v>
       </x:c>
       <x:c r="E56" s="161" t="s">
-        <x:v>1017</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="F56" s="161" t="s">
-        <x:v>1047</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="G56" s="161"/>
       <x:c r="H56" s="161"/>
@@ -25733,10 +25754,10 @@
       <x:c r="C57" s="208"/>
       <x:c r="D57" s="208"/>
       <x:c r="E57" s="164" t="s">
-        <x:v>1019</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="F57" s="164" t="s">
-        <x:v>1064</x:v>
+        <x:v>1070</x:v>
       </x:c>
       <x:c r="G57" s="164"/>
       <x:c r="H57" s="164"/>
@@ -25749,10 +25770,10 @@
       <x:c r="C58" s="208"/>
       <x:c r="D58" s="208"/>
       <x:c r="E58" s="164" t="s">
-        <x:v>1021</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F58" s="164" t="s">
-        <x:v>1060</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="G58" s="164"/>
       <x:c r="H58" s="164"/>
@@ -25765,7 +25786,7 @@
       <x:c r="C59" s="208"/>
       <x:c r="D59" s="208"/>
       <x:c r="E59" s="164" t="s">
-        <x:v>1023</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="F59" s="164"/>
       <x:c r="G59" s="164"/>
@@ -25779,36 +25800,36 @@
       <x:c r="C60" s="209"/>
       <x:c r="D60" s="209"/>
       <x:c r="E60" s="168" t="s">
-        <x:v>1024</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F60" s="168"/>
       <x:c r="G60" s="168" t="s">
-        <x:v>1065</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="H60" s="168" t="s">
-        <x:v>1066</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="I60" s="169"/>
       <x:c r="J60" s="146"/>
     </x:row>
     <x:row r="61" spans="1:10" ht="13" customHeight="1">
       <x:c r="A61" s="275" t="s">
-        <x:v>1067</x:v>
+        <x:v>1073</x:v>
       </x:c>
       <x:c r="B61" s="447" t="s">
-        <x:v>1014</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="C61" s="277" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D61" s="277" t="s">
-        <x:v>1068</x:v>
+        <x:v>1074</x:v>
       </x:c>
       <x:c r="E61" s="161" t="s">
-        <x:v>1017</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="F61" s="161" t="s">
-        <x:v>1047</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="G61" s="161"/>
       <x:c r="H61" s="161"/>
@@ -25821,10 +25842,10 @@
       <x:c r="C62" s="208"/>
       <x:c r="D62" s="208"/>
       <x:c r="E62" s="164" t="s">
-        <x:v>1019</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="F62" s="164" t="s">
-        <x:v>1059</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="G62" s="164"/>
       <x:c r="H62" s="164"/>
@@ -25837,10 +25858,10 @@
       <x:c r="C63" s="208"/>
       <x:c r="D63" s="208"/>
       <x:c r="E63" s="164" t="s">
-        <x:v>1021</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F63" s="164" t="s">
-        <x:v>1069</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="G63" s="164"/>
       <x:c r="H63" s="164"/>
@@ -25853,7 +25874,7 @@
       <x:c r="C64" s="208"/>
       <x:c r="D64" s="208"/>
       <x:c r="E64" s="164" t="s">
-        <x:v>1023</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="F64" s="164"/>
       <x:c r="G64" s="164"/>
@@ -25867,36 +25888,36 @@
       <x:c r="C65" s="209"/>
       <x:c r="D65" s="209"/>
       <x:c r="E65" s="168" t="s">
-        <x:v>1024</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F65" s="168"/>
       <x:c r="G65" s="168" t="s">
-        <x:v>1070</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="H65" s="168" t="s">
-        <x:v>1066</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="I65" s="169"/>
       <x:c r="J65" s="146"/>
     </x:row>
     <x:row r="66" spans="1:10" ht="13" customHeight="1">
       <x:c r="A66" s="275" t="s">
-        <x:v>1071</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="B66" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C66" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D66" s="277" t="s">
-        <x:v>1074</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="E66" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F66" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G66" s="161"/>
       <x:c r="H66" s="161"/>
@@ -25907,14 +25928,14 @@
       <x:c r="A67" s="208"/>
       <x:c r="B67" s="208"/>
       <x:c r="C67" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D67" s="208"/>
       <x:c r="E67" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F67" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G67" s="164"/>
       <x:c r="H67" s="164"/>
@@ -25927,10 +25948,10 @@
       <x:c r="C68" s="165"/>
       <x:c r="D68" s="208"/>
       <x:c r="E68" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F68" s="164" t="s">
-        <x:v>1080</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="G68" s="164"/>
       <x:c r="H68" s="164"/>
@@ -25943,10 +25964,10 @@
       <x:c r="C69" s="165"/>
       <x:c r="D69" s="208"/>
       <x:c r="E69" s="164" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F69" s="164" t="s">
-        <x:v>1082</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="G69" s="164"/>
       <x:c r="H69" s="164"/>
@@ -25959,10 +25980,10 @@
       <x:c r="C70" s="165"/>
       <x:c r="D70" s="208"/>
       <x:c r="E70" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F70" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G70" s="164"/>
       <x:c r="H70" s="164"/>
@@ -25975,16 +25996,16 @@
       <x:c r="C71" s="165"/>
       <x:c r="D71" s="208"/>
       <x:c r="E71" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F71" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G71" s="164" t="s">
-        <x:v>1086</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="H71" s="164" t="s">
-        <x:v>1087</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="I71" s="165"/>
       <x:c r="J71" s="166"/>
@@ -25995,36 +26016,36 @@
       <x:c r="C72" s="169"/>
       <x:c r="D72" s="209"/>
       <x:c r="E72" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F72" s="168"/>
       <x:c r="G72" s="168" t="s">
-        <x:v>1089</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="H72" s="168" t="s">
-        <x:v>1090</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="I72" s="169"/>
       <x:c r="J72" s="146"/>
     </x:row>
     <x:row r="73" spans="1:10" ht="13" customHeight="1">
       <x:c r="A73" s="275" t="s">
-        <x:v>1091</x:v>
+        <x:v>1097</x:v>
       </x:c>
       <x:c r="B73" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C73" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D73" s="277" t="s">
-        <x:v>1092</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="E73" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F73" s="171" t="s">
-        <x:v>1093</x:v>
+        <x:v>1099</x:v>
       </x:c>
       <x:c r="G73" s="161"/>
       <x:c r="H73" s="161"/>
@@ -26035,14 +26056,14 @@
       <x:c r="A74" s="208"/>
       <x:c r="B74" s="208"/>
       <x:c r="C74" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D74" s="208"/>
       <x:c r="E74" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F74" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G74" s="164"/>
       <x:c r="H74" s="164"/>
@@ -26055,10 +26076,10 @@
       <x:c r="C75" s="165"/>
       <x:c r="D75" s="208"/>
       <x:c r="E75" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F75" s="164" t="s">
-        <x:v>1080</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="G75" s="164"/>
       <x:c r="H75" s="164"/>
@@ -26071,10 +26092,10 @@
       <x:c r="C76" s="165"/>
       <x:c r="D76" s="208"/>
       <x:c r="E76" s="164" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F76" s="164" t="s">
-        <x:v>1082</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="G76" s="164"/>
       <x:c r="H76" s="164"/>
@@ -26087,10 +26108,10 @@
       <x:c r="C77" s="165"/>
       <x:c r="D77" s="208"/>
       <x:c r="E77" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F77" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G77" s="164"/>
       <x:c r="H77" s="164"/>
@@ -26103,16 +26124,16 @@
       <x:c r="C78" s="165"/>
       <x:c r="D78" s="208"/>
       <x:c r="E78" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F78" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G78" s="164" t="s">
-        <x:v>1094</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="H78" s="164" t="s">
-        <x:v>1095</x:v>
+        <x:v>1101</x:v>
       </x:c>
       <x:c r="I78" s="165"/>
       <x:c r="J78" s="166"/>
@@ -26123,36 +26144,36 @@
       <x:c r="C79" s="169"/>
       <x:c r="D79" s="209"/>
       <x:c r="E79" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F79" s="168"/>
       <x:c r="G79" s="168" t="s">
-        <x:v>1096</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="H79" s="168" t="s">
-        <x:v>1097</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="I79" s="169"/>
       <x:c r="J79" s="146"/>
     </x:row>
     <x:row r="80" spans="1:10" ht="13" customHeight="1">
       <x:c r="A80" s="275" t="s">
-        <x:v>1098</x:v>
+        <x:v>1104</x:v>
       </x:c>
       <x:c r="B80" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C80" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D80" s="277" t="s">
-        <x:v>1099</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="E80" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F80" s="171" t="s">
-        <x:v>1100</x:v>
+        <x:v>1106</x:v>
       </x:c>
       <x:c r="G80" s="161"/>
       <x:c r="H80" s="161"/>
@@ -26163,14 +26184,14 @@
       <x:c r="A81" s="208"/>
       <x:c r="B81" s="208"/>
       <x:c r="C81" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D81" s="208"/>
       <x:c r="E81" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F81" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G81" s="164"/>
       <x:c r="H81" s="164"/>
@@ -26183,10 +26204,10 @@
       <x:c r="C82" s="165"/>
       <x:c r="D82" s="208"/>
       <x:c r="E82" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F82" s="164" t="s">
-        <x:v>1080</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="G82" s="164"/>
       <x:c r="H82" s="164"/>
@@ -26199,10 +26220,10 @@
       <x:c r="C83" s="165"/>
       <x:c r="D83" s="208"/>
       <x:c r="E83" s="164" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F83" s="164" t="s">
-        <x:v>1082</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="G83" s="164"/>
       <x:c r="H83" s="164"/>
@@ -26215,10 +26236,10 @@
       <x:c r="C84" s="165"/>
       <x:c r="D84" s="208"/>
       <x:c r="E84" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F84" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G84" s="164"/>
       <x:c r="H84" s="164"/>
@@ -26231,16 +26252,16 @@
       <x:c r="C85" s="165"/>
       <x:c r="D85" s="208"/>
       <x:c r="E85" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F85" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G85" s="164" t="s">
-        <x:v>1086</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="H85" s="164" t="s">
-        <x:v>1101</x:v>
+        <x:v>1107</x:v>
       </x:c>
       <x:c r="I85" s="165"/>
       <x:c r="J85" s="166"/>
@@ -26251,36 +26272,36 @@
       <x:c r="C86" s="169"/>
       <x:c r="D86" s="209"/>
       <x:c r="E86" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F86" s="168"/>
       <x:c r="G86" s="168" t="s">
-        <x:v>1089</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="H86" s="168" t="s">
-        <x:v>1097</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="I86" s="169"/>
       <x:c r="J86" s="146"/>
     </x:row>
     <x:row r="87" spans="1:10" ht="13" customHeight="1">
       <x:c r="A87" s="275" t="s">
-        <x:v>1102</x:v>
+        <x:v>1108</x:v>
       </x:c>
       <x:c r="B87" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C87" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D87" s="277" t="s">
-        <x:v>1103</x:v>
+        <x:v>1109</x:v>
       </x:c>
       <x:c r="E87" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F87" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G87" s="161"/>
       <x:c r="H87" s="161"/>
@@ -26291,14 +26312,14 @@
       <x:c r="A88" s="208"/>
       <x:c r="B88" s="208"/>
       <x:c r="C88" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D88" s="208"/>
       <x:c r="E88" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F88" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G88" s="164"/>
       <x:c r="H88" s="164"/>
@@ -26311,10 +26332,10 @@
       <x:c r="C89" s="165"/>
       <x:c r="D89" s="208"/>
       <x:c r="E89" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F89" s="164" t="s">
-        <x:v>1104</x:v>
+        <x:v>1110</x:v>
       </x:c>
       <x:c r="G89" s="164"/>
       <x:c r="H89" s="164"/>
@@ -26327,10 +26348,10 @@
       <x:c r="C90" s="165"/>
       <x:c r="D90" s="208"/>
       <x:c r="E90" s="164" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F90" s="164" t="s">
-        <x:v>1082</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="G90" s="164"/>
       <x:c r="H90" s="164"/>
@@ -26343,10 +26364,10 @@
       <x:c r="C91" s="165"/>
       <x:c r="D91" s="208"/>
       <x:c r="E91" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F91" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G91" s="164"/>
       <x:c r="H91" s="164"/>
@@ -26359,16 +26380,16 @@
       <x:c r="C92" s="165"/>
       <x:c r="D92" s="208"/>
       <x:c r="E92" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F92" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G92" s="164" t="s">
-        <x:v>1105</x:v>
+        <x:v>1111</x:v>
       </x:c>
       <x:c r="H92" s="164" t="s">
-        <x:v>1106</x:v>
+        <x:v>1112</x:v>
       </x:c>
       <x:c r="I92" s="165"/>
       <x:c r="J92" s="166"/>
@@ -26379,36 +26400,36 @@
       <x:c r="C93" s="169"/>
       <x:c r="D93" s="209"/>
       <x:c r="E93" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F93" s="168"/>
       <x:c r="G93" s="168" t="s">
-        <x:v>1096</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="H93" s="168" t="s">
-        <x:v>1097</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="I93" s="169"/>
       <x:c r="J93" s="146"/>
     </x:row>
     <x:row r="94" spans="1:10" ht="13" customHeight="1">
       <x:c r="A94" s="275" t="s">
-        <x:v>1107</x:v>
+        <x:v>1113</x:v>
       </x:c>
       <x:c r="B94" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C94" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D94" s="277" t="s">
-        <x:v>1108</x:v>
+        <x:v>1114</x:v>
       </x:c>
       <x:c r="E94" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F94" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G94" s="161"/>
       <x:c r="H94" s="161"/>
@@ -26419,14 +26440,14 @@
       <x:c r="A95" s="208"/>
       <x:c r="B95" s="208"/>
       <x:c r="C95" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D95" s="208"/>
       <x:c r="E95" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F95" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G95" s="164"/>
       <x:c r="H95" s="164"/>
@@ -26439,10 +26460,10 @@
       <x:c r="C96" s="165"/>
       <x:c r="D96" s="208"/>
       <x:c r="E96" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F96" s="164" t="s">
-        <x:v>1109</x:v>
+        <x:v>1115</x:v>
       </x:c>
       <x:c r="G96" s="164"/>
       <x:c r="H96" s="164"/>
@@ -26455,10 +26476,10 @@
       <x:c r="C97" s="165"/>
       <x:c r="D97" s="208"/>
       <x:c r="E97" s="164" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F97" s="164" t="s">
-        <x:v>1082</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="G97" s="450"/>
       <x:c r="H97" s="164"/>
@@ -26471,16 +26492,16 @@
       <x:c r="C98" s="165"/>
       <x:c r="D98" s="208"/>
       <x:c r="E98" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F98" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G98" s="164" t="s">
-        <x:v>1110</x:v>
+        <x:v>1116</x:v>
       </x:c>
       <x:c r="H98" s="164" t="s">
-        <x:v>1111</x:v>
+        <x:v>1117</x:v>
       </x:c>
       <x:c r="I98" s="165"/>
       <x:c r="J98" s="166"/>
@@ -26491,16 +26512,16 @@
       <x:c r="C99" s="165"/>
       <x:c r="D99" s="208"/>
       <x:c r="E99" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F99" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G99" s="164" t="s">
-        <x:v>1096</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="H99" s="164" t="s">
-        <x:v>1097</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="I99" s="165"/>
       <x:c r="J99" s="166"/>
@@ -26511,7 +26532,7 @@
       <x:c r="C100" s="169"/>
       <x:c r="D100" s="209"/>
       <x:c r="E100" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F100" s="168"/>
       <x:c r="G100" s="168"/>
@@ -26521,22 +26542,22 @@
     </x:row>
     <x:row r="101" spans="1:10" ht="13" customHeight="1">
       <x:c r="A101" s="275" t="s">
-        <x:v>1112</x:v>
+        <x:v>1118</x:v>
       </x:c>
       <x:c r="B101" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C101" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D101" s="277" t="s">
-        <x:v>1113</x:v>
+        <x:v>1119</x:v>
       </x:c>
       <x:c r="E101" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F101" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G101" s="161"/>
       <x:c r="H101" s="161"/>
@@ -26547,14 +26568,14 @@
       <x:c r="A102" s="208"/>
       <x:c r="B102" s="208"/>
       <x:c r="C102" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D102" s="208"/>
       <x:c r="E102" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F102" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G102" s="164"/>
       <x:c r="H102" s="164"/>
@@ -26567,10 +26588,10 @@
       <x:c r="C103" s="165"/>
       <x:c r="D103" s="208"/>
       <x:c r="E103" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F103" s="164" t="s">
-        <x:v>1114</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="G103" s="164"/>
       <x:c r="H103" s="164"/>
@@ -26583,10 +26604,10 @@
       <x:c r="C104" s="165"/>
       <x:c r="D104" s="208"/>
       <x:c r="E104" s="164" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F104" s="164" t="s">
-        <x:v>1082</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="G104" s="164"/>
       <x:c r="H104" s="164"/>
@@ -26599,10 +26620,10 @@
       <x:c r="C105" s="165"/>
       <x:c r="D105" s="208"/>
       <x:c r="E105" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F105" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G105" s="164"/>
       <x:c r="H105" s="164"/>
@@ -26615,16 +26636,16 @@
       <x:c r="C106" s="165"/>
       <x:c r="D106" s="208"/>
       <x:c r="E106" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F106" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G106" s="164" t="s">
-        <x:v>1110</x:v>
+        <x:v>1116</x:v>
       </x:c>
       <x:c r="H106" s="164" t="s">
-        <x:v>1111</x:v>
+        <x:v>1117</x:v>
       </x:c>
       <x:c r="I106" s="165"/>
       <x:c r="J106" s="166"/>
@@ -26635,36 +26656,36 @@
       <x:c r="C107" s="169"/>
       <x:c r="D107" s="209"/>
       <x:c r="E107" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F107" s="168"/>
       <x:c r="G107" s="168" t="s">
-        <x:v>1096</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="H107" s="168" t="s">
-        <x:v>1097</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="I107" s="169"/>
       <x:c r="J107" s="146"/>
     </x:row>
     <x:row r="108" spans="1:10" ht="13" customHeight="1">
       <x:c r="A108" s="275" t="s">
-        <x:v>1115</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="B108" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C108" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D108" s="277" t="s">
-        <x:v>1116</x:v>
+        <x:v>1122</x:v>
       </x:c>
       <x:c r="E108" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F108" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G108" s="161"/>
       <x:c r="H108" s="161"/>
@@ -26675,14 +26696,14 @@
       <x:c r="A109" s="208"/>
       <x:c r="B109" s="208"/>
       <x:c r="C109" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D109" s="208"/>
       <x:c r="E109" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F109" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G109" s="164"/>
       <x:c r="H109" s="164"/>
@@ -26695,10 +26716,10 @@
       <x:c r="C110" s="165"/>
       <x:c r="D110" s="208"/>
       <x:c r="E110" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F110" s="164" t="s">
-        <x:v>1117</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="G110" s="164"/>
       <x:c r="H110" s="164"/>
@@ -26711,10 +26732,10 @@
       <x:c r="C111" s="165"/>
       <x:c r="D111" s="208"/>
       <x:c r="E111" s="164" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F111" s="164" t="s">
-        <x:v>1082</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="G111" s="164"/>
       <x:c r="H111" s="164"/>
@@ -26727,10 +26748,10 @@
       <x:c r="C112" s="165"/>
       <x:c r="D112" s="208"/>
       <x:c r="E112" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F112" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G112" s="164"/>
       <x:c r="H112" s="164"/>
@@ -26743,16 +26764,16 @@
       <x:c r="C113" s="165"/>
       <x:c r="D113" s="208"/>
       <x:c r="E113" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F113" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G113" s="164" t="s">
-        <x:v>1086</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="H113" s="164" t="s">
-        <x:v>1087</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="I113" s="165"/>
       <x:c r="J113" s="166"/>
@@ -26763,36 +26784,36 @@
       <x:c r="C114" s="169"/>
       <x:c r="D114" s="209"/>
       <x:c r="E114" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F114" s="168"/>
       <x:c r="G114" s="168" t="s">
-        <x:v>1089</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="H114" s="168" t="s">
-        <x:v>1090</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="I114" s="169"/>
       <x:c r="J114" s="146"/>
     </x:row>
     <x:row r="115" spans="1:10" ht="13" customHeight="1">
       <x:c r="A115" s="275" t="s">
-        <x:v>1118</x:v>
+        <x:v>1124</x:v>
       </x:c>
       <x:c r="B115" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C115" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D115" s="277" t="s">
-        <x:v>1119</x:v>
+        <x:v>1125</x:v>
       </x:c>
       <x:c r="E115" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F115" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G115" s="161"/>
       <x:c r="H115" s="161"/>
@@ -26803,14 +26824,14 @@
       <x:c r="A116" s="208"/>
       <x:c r="B116" s="208"/>
       <x:c r="C116" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D116" s="208"/>
       <x:c r="E116" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F116" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G116" s="164"/>
       <x:c r="H116" s="164"/>
@@ -26823,10 +26844,10 @@
       <x:c r="C117" s="165"/>
       <x:c r="D117" s="208"/>
       <x:c r="E117" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F117" s="164" t="s">
-        <x:v>1117</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="G117" s="164"/>
       <x:c r="H117" s="164"/>
@@ -26839,7 +26860,7 @@
       <x:c r="C118" s="165"/>
       <x:c r="D118" s="208"/>
       <x:c r="E118" s="164" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F118" s="164" t="s">
         <x:v>546</x:v>
@@ -26855,10 +26876,10 @@
       <x:c r="C119" s="165"/>
       <x:c r="D119" s="208"/>
       <x:c r="E119" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F119" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G119" s="164"/>
       <x:c r="H119" s="164"/>
@@ -26871,16 +26892,16 @@
       <x:c r="C120" s="165"/>
       <x:c r="D120" s="208"/>
       <x:c r="E120" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F120" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G120" s="164" t="s">
-        <x:v>1086</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="H120" s="164" t="s">
-        <x:v>1087</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="I120" s="165"/>
       <x:c r="J120" s="166"/>
@@ -26891,36 +26912,36 @@
       <x:c r="C121" s="169"/>
       <x:c r="D121" s="209"/>
       <x:c r="E121" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F121" s="168"/>
       <x:c r="G121" s="168" t="s">
-        <x:v>1089</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="H121" s="168" t="s">
-        <x:v>1090</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="I121" s="169"/>
       <x:c r="J121" s="146"/>
     </x:row>
     <x:row r="122" spans="1:10" ht="13" customHeight="1">
       <x:c r="A122" s="275" t="s">
-        <x:v>1120</x:v>
+        <x:v>1126</x:v>
       </x:c>
       <x:c r="B122" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C122" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D122" s="277" t="s">
-        <x:v>1121</x:v>
+        <x:v>1127</x:v>
       </x:c>
       <x:c r="E122" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F122" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G122" s="161"/>
       <x:c r="H122" s="161"/>
@@ -26931,14 +26952,14 @@
       <x:c r="A123" s="208"/>
       <x:c r="B123" s="208"/>
       <x:c r="C123" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D123" s="208"/>
       <x:c r="E123" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F123" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G123" s="164"/>
       <x:c r="H123" s="164"/>
@@ -26951,10 +26972,10 @@
       <x:c r="C124" s="165"/>
       <x:c r="D124" s="208"/>
       <x:c r="E124" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F124" s="164" t="s">
-        <x:v>1117</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="G124" s="164"/>
       <x:c r="H124" s="164"/>
@@ -26967,10 +26988,10 @@
       <x:c r="C125" s="165"/>
       <x:c r="D125" s="208"/>
       <x:c r="E125" s="175" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F125" s="176" t="s">
-        <x:v>1122</x:v>
+        <x:v>1128</x:v>
       </x:c>
       <x:c r="G125" s="164"/>
       <x:c r="H125" s="164"/>
@@ -26983,10 +27004,10 @@
       <x:c r="C126" s="165"/>
       <x:c r="D126" s="208"/>
       <x:c r="E126" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F126" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G126" s="164"/>
       <x:c r="H126" s="164"/>
@@ -26999,16 +27020,16 @@
       <x:c r="C127" s="165"/>
       <x:c r="D127" s="208"/>
       <x:c r="E127" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F127" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G127" s="164" t="s">
-        <x:v>1123</x:v>
+        <x:v>1129</x:v>
       </x:c>
       <x:c r="H127" s="164" t="s">
-        <x:v>1124</x:v>
+        <x:v>1130</x:v>
       </x:c>
       <x:c r="I127" s="165"/>
       <x:c r="J127" s="166"/>
@@ -27019,36 +27040,36 @@
       <x:c r="C128" s="169"/>
       <x:c r="D128" s="209"/>
       <x:c r="E128" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F128" s="168"/>
       <x:c r="G128" s="168" t="s">
+        <x:v>1102</x:v>
+      </x:c>
+      <x:c r="H128" s="168" t="s">
         <x:v>1096</x:v>
-      </x:c>
-      <x:c r="H128" s="168" t="s">
-        <x:v>1090</x:v>
       </x:c>
       <x:c r="I128" s="169"/>
       <x:c r="J128" s="146"/>
     </x:row>
     <x:row r="129" spans="1:10" ht="13" customHeight="1">
       <x:c r="A129" s="275" t="s">
-        <x:v>1125</x:v>
+        <x:v>1131</x:v>
       </x:c>
       <x:c r="B129" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C129" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D129" s="277" t="s">
-        <x:v>1126</x:v>
+        <x:v>1132</x:v>
       </x:c>
       <x:c r="E129" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F129" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G129" s="161"/>
       <x:c r="H129" s="161"/>
@@ -27059,14 +27080,14 @@
       <x:c r="A130" s="208"/>
       <x:c r="B130" s="208"/>
       <x:c r="C130" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D130" s="208"/>
       <x:c r="E130" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F130" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G130" s="164"/>
       <x:c r="H130" s="164"/>
@@ -27079,10 +27100,10 @@
       <x:c r="C131" s="165"/>
       <x:c r="D131" s="208"/>
       <x:c r="E131" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F131" s="164" t="s">
-        <x:v>1117</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="G131" s="164"/>
       <x:c r="H131" s="164"/>
@@ -27095,7 +27116,7 @@
       <x:c r="C132" s="165"/>
       <x:c r="D132" s="208"/>
       <x:c r="E132" s="175" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F132" s="164" t="s">
         <x:v>546</x:v>
@@ -27111,10 +27132,10 @@
       <x:c r="C133" s="165"/>
       <x:c r="D133" s="208"/>
       <x:c r="E133" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F133" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G133" s="164"/>
       <x:c r="H133" s="164"/>
@@ -27127,16 +27148,16 @@
       <x:c r="C134" s="165"/>
       <x:c r="D134" s="208"/>
       <x:c r="E134" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F134" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G134" s="164" t="s">
-        <x:v>1086</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="H134" s="164" t="s">
-        <x:v>1087</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="I134" s="165"/>
       <x:c r="J134" s="166"/>
@@ -27147,38 +27168,38 @@
       <x:c r="C135" s="169"/>
       <x:c r="D135" s="209"/>
       <x:c r="E135" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F135" s="168" t="s">
-        <x:v>1127</x:v>
+        <x:v>1133</x:v>
       </x:c>
       <x:c r="G135" s="168" t="s">
-        <x:v>1089</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="H135" s="168" t="s">
-        <x:v>1090</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="I135" s="169"/>
       <x:c r="J135" s="146"/>
     </x:row>
     <x:row r="136" spans="1:10" ht="13" customHeight="1">
       <x:c r="A136" s="275" t="s">
-        <x:v>1128</x:v>
+        <x:v>1134</x:v>
       </x:c>
       <x:c r="B136" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C136" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D136" s="277" t="s">
-        <x:v>1129</x:v>
+        <x:v>1135</x:v>
       </x:c>
       <x:c r="E136" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F136" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G136" s="161"/>
       <x:c r="H136" s="161"/>
@@ -27189,14 +27210,14 @@
       <x:c r="A137" s="208"/>
       <x:c r="B137" s="208"/>
       <x:c r="C137" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D137" s="208"/>
       <x:c r="E137" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F137" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G137" s="164"/>
       <x:c r="H137" s="164"/>
@@ -27209,10 +27230,10 @@
       <x:c r="C138" s="165"/>
       <x:c r="D138" s="208"/>
       <x:c r="E138" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F138" s="164" t="s">
-        <x:v>1117</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="G138" s="164"/>
       <x:c r="H138" s="164"/>
@@ -27225,7 +27246,7 @@
       <x:c r="C139" s="165"/>
       <x:c r="D139" s="208"/>
       <x:c r="E139" s="175" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F139" s="164" t="s">
         <x:v>546</x:v>
@@ -27241,10 +27262,10 @@
       <x:c r="C140" s="165"/>
       <x:c r="D140" s="208"/>
       <x:c r="E140" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F140" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G140" s="164"/>
       <x:c r="H140" s="164"/>
@@ -27257,16 +27278,16 @@
       <x:c r="C141" s="165"/>
       <x:c r="D141" s="208"/>
       <x:c r="E141" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F141" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G141" s="164" t="s">
-        <x:v>1130</x:v>
+        <x:v>1136</x:v>
       </x:c>
       <x:c r="H141" s="164" t="s">
-        <x:v>1087</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="I141" s="165"/>
       <x:c r="J141" s="166"/>
@@ -27277,38 +27298,38 @@
       <x:c r="C142" s="169"/>
       <x:c r="D142" s="209"/>
       <x:c r="E142" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F142" s="168" t="s">
-        <x:v>1131</x:v>
+        <x:v>1137</x:v>
       </x:c>
       <x:c r="G142" s="168" t="s">
+        <x:v>1102</x:v>
+      </x:c>
+      <x:c r="H142" s="168" t="s">
         <x:v>1096</x:v>
-      </x:c>
-      <x:c r="H142" s="168" t="s">
-        <x:v>1090</x:v>
       </x:c>
       <x:c r="I142" s="169"/>
       <x:c r="J142" s="146"/>
     </x:row>
     <x:row r="143" spans="1:10" ht="13" customHeight="1">
       <x:c r="A143" s="275" t="s">
-        <x:v>1132</x:v>
+        <x:v>1138</x:v>
       </x:c>
       <x:c r="B143" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C143" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D143" s="277" t="s">
-        <x:v>1133</x:v>
+        <x:v>1139</x:v>
       </x:c>
       <x:c r="E143" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F143" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G143" s="161"/>
       <x:c r="H143" s="161"/>
@@ -27319,14 +27340,14 @@
       <x:c r="A144" s="208"/>
       <x:c r="B144" s="208"/>
       <x:c r="C144" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D144" s="208"/>
       <x:c r="E144" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F144" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G144" s="164"/>
       <x:c r="H144" s="164"/>
@@ -27339,10 +27360,10 @@
       <x:c r="C145" s="165"/>
       <x:c r="D145" s="208"/>
       <x:c r="E145" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F145" s="164" t="s">
-        <x:v>1117</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="G145" s="164"/>
       <x:c r="H145" s="164"/>
@@ -27355,7 +27376,7 @@
       <x:c r="C146" s="165"/>
       <x:c r="D146" s="208"/>
       <x:c r="E146" s="175" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F146" s="164" t="s">
         <x:v>546</x:v>
@@ -27371,10 +27392,10 @@
       <x:c r="C147" s="165"/>
       <x:c r="D147" s="208"/>
       <x:c r="E147" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F147" s="164" t="s">
-        <x:v>1134</x:v>
+        <x:v>1140</x:v>
       </x:c>
       <x:c r="G147" s="164"/>
       <x:c r="H147" s="164"/>
@@ -27387,16 +27408,16 @@
       <x:c r="C148" s="165"/>
       <x:c r="D148" s="208"/>
       <x:c r="E148" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F148" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G148" s="164" t="s">
-        <x:v>1135</x:v>
+        <x:v>1141</x:v>
       </x:c>
       <x:c r="H148" s="164" t="s">
-        <x:v>1136</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="I148" s="165"/>
       <x:c r="J148" s="166"/>
@@ -27407,38 +27428,38 @@
       <x:c r="C149" s="169"/>
       <x:c r="D149" s="209"/>
       <x:c r="E149" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F149" s="168" t="s">
-        <x:v>1127</x:v>
+        <x:v>1133</x:v>
       </x:c>
       <x:c r="G149" s="168" t="s">
+        <x:v>1102</x:v>
+      </x:c>
+      <x:c r="H149" s="168" t="s">
         <x:v>1096</x:v>
-      </x:c>
-      <x:c r="H149" s="168" t="s">
-        <x:v>1090</x:v>
       </x:c>
       <x:c r="I149" s="169"/>
       <x:c r="J149" s="146"/>
     </x:row>
     <x:row r="150" spans="1:10" ht="13" customHeight="1">
       <x:c r="A150" s="275" t="s">
-        <x:v>1137</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="B150" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C150" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D150" s="277" t="s">
-        <x:v>1138</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="E150" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F150" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G150" s="161"/>
       <x:c r="H150" s="161"/>
@@ -27449,14 +27470,14 @@
       <x:c r="A151" s="208"/>
       <x:c r="B151" s="208"/>
       <x:c r="C151" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D151" s="208"/>
       <x:c r="E151" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F151" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G151" s="164"/>
       <x:c r="H151" s="164"/>
@@ -27469,10 +27490,10 @@
       <x:c r="C152" s="165"/>
       <x:c r="D152" s="208"/>
       <x:c r="E152" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F152" s="164" t="s">
-        <x:v>1117</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="G152" s="164"/>
       <x:c r="H152" s="164"/>
@@ -27485,7 +27506,7 @@
       <x:c r="C153" s="165"/>
       <x:c r="D153" s="208"/>
       <x:c r="E153" s="175" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F153" s="164" t="s">
         <x:v>546</x:v>
@@ -27501,10 +27522,10 @@
       <x:c r="C154" s="165"/>
       <x:c r="D154" s="208"/>
       <x:c r="E154" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F154" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G154" s="164"/>
       <x:c r="H154" s="164"/>
@@ -27517,16 +27538,16 @@
       <x:c r="C155" s="165"/>
       <x:c r="D155" s="208"/>
       <x:c r="E155" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F155" s="164" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G155" s="164" t="s">
-        <x:v>1086</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="H155" s="164" t="s">
-        <x:v>1087</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="I155" s="165"/>
       <x:c r="J155" s="166"/>
@@ -27537,38 +27558,38 @@
       <x:c r="C156" s="169"/>
       <x:c r="D156" s="209"/>
       <x:c r="E156" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F156" s="168" t="s">
-        <x:v>1127</x:v>
+        <x:v>1133</x:v>
       </x:c>
       <x:c r="G156" s="168" t="s">
-        <x:v>1089</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="H156" s="168" t="s">
-        <x:v>1090</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="I156" s="169"/>
       <x:c r="J156" s="146"/>
     </x:row>
     <x:row r="157" spans="1:10" ht="13" customHeight="1">
       <x:c r="A157" s="275" t="s">
-        <x:v>1139</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="B157" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C157" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D157" s="277" t="s">
-        <x:v>1140</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="E157" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F157" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G157" s="161"/>
       <x:c r="H157" s="161"/>
@@ -27579,14 +27600,14 @@
       <x:c r="A158" s="208"/>
       <x:c r="B158" s="208"/>
       <x:c r="C158" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D158" s="208"/>
       <x:c r="E158" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F158" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G158" s="164"/>
       <x:c r="H158" s="164"/>
@@ -27599,10 +27620,10 @@
       <x:c r="C159" s="165"/>
       <x:c r="D159" s="208"/>
       <x:c r="E159" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F159" s="164" t="s">
-        <x:v>1117</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="G159" s="164"/>
       <x:c r="H159" s="164"/>
@@ -27615,7 +27636,7 @@
       <x:c r="C160" s="165"/>
       <x:c r="D160" s="208"/>
       <x:c r="E160" s="175" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F160" s="164" t="s">
         <x:v>546</x:v>
@@ -27631,10 +27652,10 @@
       <x:c r="C161" s="165"/>
       <x:c r="D161" s="208"/>
       <x:c r="E161" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F161" s="164" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="G161" s="164"/>
       <x:c r="H161" s="164"/>
@@ -27647,16 +27668,16 @@
       <x:c r="C162" s="165"/>
       <x:c r="D162" s="208"/>
       <x:c r="E162" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F162" s="164" t="s">
-        <x:v>1141</x:v>
+        <x:v>1147</x:v>
       </x:c>
       <x:c r="G162" s="164" t="s">
-        <x:v>1086</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="H162" s="164" t="s">
-        <x:v>1087</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="I162" s="165"/>
       <x:c r="J162" s="166"/>
@@ -27667,38 +27688,38 @@
       <x:c r="C163" s="169"/>
       <x:c r="D163" s="209"/>
       <x:c r="E163" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F163" s="168" t="s">
-        <x:v>1127</x:v>
+        <x:v>1133</x:v>
       </x:c>
       <x:c r="G163" s="168" t="s">
-        <x:v>1089</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="H163" s="168" t="s">
-        <x:v>1090</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="I163" s="169"/>
       <x:c r="J163" s="146"/>
     </x:row>
     <x:row r="164" spans="1:10" ht="13" customHeight="1">
       <x:c r="A164" s="275" t="s">
-        <x:v>1142</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="B164" s="447" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C164" s="171" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D164" s="277" t="s">
-        <x:v>1143</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="E164" s="161" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F164" s="171" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G164" s="161"/>
       <x:c r="H164" s="161"/>
@@ -27709,14 +27730,14 @@
       <x:c r="A165" s="208"/>
       <x:c r="B165" s="208"/>
       <x:c r="C165" s="173" t="s">
-        <x:v>1015</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D165" s="208"/>
       <x:c r="E165" s="164" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="F165" s="164" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G165" s="164"/>
       <x:c r="H165" s="164"/>
@@ -27729,10 +27750,10 @@
       <x:c r="C166" s="165"/>
       <x:c r="D166" s="208"/>
       <x:c r="E166" s="164" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="F166" s="164" t="s">
-        <x:v>1117</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="G166" s="164"/>
       <x:c r="H166" s="164"/>
@@ -27745,7 +27766,7 @@
       <x:c r="C167" s="165"/>
       <x:c r="D167" s="208"/>
       <x:c r="E167" s="175" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F167" s="164" t="s">
         <x:v>546</x:v>
@@ -27761,10 +27782,10 @@
       <x:c r="C168" s="165"/>
       <x:c r="D168" s="208"/>
       <x:c r="E168" s="164" t="s">
-        <x:v>935</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="F168" s="164" t="s">
-        <x:v>1144</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="G168" s="164"/>
       <x:c r="H168" s="164"/>
@@ -27777,16 +27798,16 @@
       <x:c r="C169" s="165"/>
       <x:c r="D169" s="208"/>
       <x:c r="E169" s="164" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F169" s="164" t="s">
-        <x:v>1145</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="G169" s="164" t="s">
-        <x:v>1146</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="H169" s="164" t="s">
-        <x:v>1147</x:v>
+        <x:v>1153</x:v>
       </x:c>
       <x:c r="I169" s="165"/>
       <x:c r="J169" s="166"/>
@@ -27797,16 +27818,16 @@
       <x:c r="C170" s="169"/>
       <x:c r="D170" s="209"/>
       <x:c r="E170" s="168" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F170" s="168" t="s">
-        <x:v>1127</x:v>
+        <x:v>1133</x:v>
       </x:c>
       <x:c r="G170" s="168" t="s">
-        <x:v>1096</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="H170" s="168" t="s">
-        <x:v>1148</x:v>
+        <x:v>1154</x:v>
       </x:c>
       <x:c r="I170" s="169"/>
       <x:c r="J170" s="146"/>
@@ -29872,7 +29893,7 @@
       <x:c r="C2" s="311"/>
       <x:c r="D2" s="312"/>
       <x:c r="E2" s="312" t="s">
-        <x:v>1012</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="F2" s="313"/>
       <x:c r="G2" s="314"/>
@@ -30026,25 +30047,25 @@
     </x:row>
     <x:row r="12" spans="1:10" ht="17" customHeight="1">
       <x:c r="A12" s="455" t="s">
-        <x:v>1149</x:v>
+        <x:v>1155</x:v>
       </x:c>
       <x:c r="B12" s="456" t="s">
-        <x:v>1150</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="C12" s="280" t="s">
-        <x:v>1151</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="D12" s="281" t="s">
-        <x:v>1152</x:v>
+        <x:v>1158</x:v>
       </x:c>
       <x:c r="E12" s="184" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F12" s="184" t="s">
-        <x:v>1154</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="G12" s="184" t="s">
-        <x:v>1155</x:v>
+        <x:v>1161</x:v>
       </x:c>
       <x:c r="H12" s="185"/>
       <x:c r="I12" s="186"/>
@@ -30056,13 +30077,13 @@
       <x:c r="C13" s="208"/>
       <x:c r="D13" s="224"/>
       <x:c r="E13" s="187" t="s">
-        <x:v>1156</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="F13" s="187" t="s">
-        <x:v>1157</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="G13" s="187" t="s">
-        <x:v>1158</x:v>
+        <x:v>1164</x:v>
       </x:c>
       <x:c r="H13" s="185"/>
       <x:c r="I13" s="186"/>
@@ -30074,13 +30095,13 @@
       <x:c r="C14" s="208"/>
       <x:c r="D14" s="224"/>
       <x:c r="E14" s="187" t="s">
-        <x:v>1159</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="F14" s="187" t="s">
-        <x:v>1160</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="G14" s="187" t="s">
-        <x:v>1161</x:v>
+        <x:v>1167</x:v>
       </x:c>
       <x:c r="H14" s="185"/>
       <x:c r="I14" s="186"/>
@@ -30092,10 +30113,10 @@
       <x:c r="C15" s="208"/>
       <x:c r="D15" s="224"/>
       <x:c r="E15" s="187" t="s">
-        <x:v>1162</x:v>
+        <x:v>1168</x:v>
       </x:c>
       <x:c r="F15" s="187" t="s">
-        <x:v>1163</x:v>
+        <x:v>1169</x:v>
       </x:c>
       <x:c r="G15" s="187"/>
       <x:c r="H15" s="185"/>
@@ -30108,10 +30129,10 @@
       <x:c r="C16" s="208"/>
       <x:c r="D16" s="224"/>
       <x:c r="E16" s="187" t="s">
-        <x:v>1164</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="F16" s="187" t="s">
-        <x:v>1165</x:v>
+        <x:v>1171</x:v>
       </x:c>
       <x:c r="G16" s="187"/>
       <x:c r="H16" s="185"/>
@@ -30124,10 +30145,10 @@
       <x:c r="C17" s="208"/>
       <x:c r="D17" s="224"/>
       <x:c r="E17" s="187" t="s">
-        <x:v>1166</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="F17" s="188" t="s">
-        <x:v>1167</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="G17" s="187"/>
       <x:c r="H17" s="185"/>
@@ -30141,7 +30162,7 @@
       <x:c r="D18" s="224"/>
       <x:c r="E18" s="187"/>
       <x:c r="F18" s="187" t="s">
-        <x:v>1168</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="G18" s="187"/>
       <x:c r="H18" s="185"/>
@@ -30155,7 +30176,7 @@
       <x:c r="D19" s="224"/>
       <x:c r="E19" s="187"/>
       <x:c r="F19" s="187" t="s">
-        <x:v>1169</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="G19" s="187"/>
       <x:c r="H19" s="185"/>
@@ -30169,7 +30190,7 @@
       <x:c r="D20" s="224"/>
       <x:c r="E20" s="187"/>
       <x:c r="F20" s="187" t="s">
-        <x:v>1170</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="G20" s="187"/>
       <x:c r="H20" s="185"/>
@@ -30183,7 +30204,7 @@
       <x:c r="D21" s="224"/>
       <x:c r="E21" s="187"/>
       <x:c r="F21" s="187" t="s">
-        <x:v>1171</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="G21" s="187"/>
       <x:c r="H21" s="185"/>
@@ -30197,7 +30218,7 @@
       <x:c r="D22" s="224"/>
       <x:c r="E22" s="187"/>
       <x:c r="F22" s="187" t="s">
-        <x:v>1172</x:v>
+        <x:v>1178</x:v>
       </x:c>
       <x:c r="G22" s="187"/>
       <x:c r="H22" s="185"/>
@@ -30211,7 +30232,7 @@
       <x:c r="D23" s="224"/>
       <x:c r="E23" s="189"/>
       <x:c r="F23" s="189" t="s">
-        <x:v>1173</x:v>
+        <x:v>1179</x:v>
       </x:c>
       <x:c r="G23" s="189"/>
       <x:c r="H23" s="185"/>
@@ -30220,25 +30241,25 @@
     </x:row>
     <x:row r="24" spans="1:10" ht="17" customHeight="1">
       <x:c r="A24" s="457" t="s">
-        <x:v>1149</x:v>
+        <x:v>1155</x:v>
       </x:c>
       <x:c r="B24" s="458" t="s">
-        <x:v>1150</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="C24" s="280" t="s">
-        <x:v>1151</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="D24" s="284" t="s">
-        <x:v>1174</x:v>
+        <x:v>1180</x:v>
       </x:c>
       <x:c r="E24" s="184" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F24" s="184" t="s">
-        <x:v>1175</x:v>
+        <x:v>1181</x:v>
       </x:c>
       <x:c r="G24" s="190" t="s">
-        <x:v>1176</x:v>
+        <x:v>1182</x:v>
       </x:c>
       <x:c r="H24" s="185"/>
       <x:c r="I24" s="186"/>
@@ -30249,13 +30270,13 @@
       <x:c r="B25" s="220"/>
       <x:c r="C25" s="208"/>
       <x:c r="E25" s="187" t="s">
-        <x:v>1156</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="F25" s="187" t="s">
-        <x:v>1157</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="G25" s="189" t="s">
-        <x:v>1177</x:v>
+        <x:v>1183</x:v>
       </x:c>
       <x:c r="H25" s="191"/>
       <x:c r="I25" s="192"/>
@@ -30266,10 +30287,10 @@
       <x:c r="B26" s="220"/>
       <x:c r="C26" s="208"/>
       <x:c r="E26" s="187" t="s">
-        <x:v>1178</x:v>
+        <x:v>1184</x:v>
       </x:c>
       <x:c r="F26" s="187" t="s">
-        <x:v>1160</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="G26" s="189"/>
       <x:c r="H26" s="191"/>
@@ -30281,10 +30302,10 @@
       <x:c r="B27" s="220"/>
       <x:c r="C27" s="208"/>
       <x:c r="E27" s="187" t="s">
-        <x:v>1162</x:v>
+        <x:v>1168</x:v>
       </x:c>
       <x:c r="F27" s="187" t="s">
-        <x:v>1179</x:v>
+        <x:v>1185</x:v>
       </x:c>
       <x:c r="G27" s="189"/>
       <x:c r="H27" s="191"/>
@@ -30296,10 +30317,10 @@
       <x:c r="B28" s="220"/>
       <x:c r="C28" s="208"/>
       <x:c r="E28" s="187" t="s">
-        <x:v>1164</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="F28" s="187" t="s">
-        <x:v>1165</x:v>
+        <x:v>1171</x:v>
       </x:c>
       <x:c r="G28" s="189"/>
       <x:c r="H28" s="191"/>
@@ -30311,10 +30332,10 @@
       <x:c r="B29" s="220"/>
       <x:c r="C29" s="208"/>
       <x:c r="E29" s="187" t="s">
-        <x:v>1180</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="F29" s="188" t="s">
-        <x:v>1167</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="G29" s="189"/>
       <x:c r="H29" s="191"/>
@@ -30327,7 +30348,7 @@
       <x:c r="C30" s="208"/>
       <x:c r="E30" s="187"/>
       <x:c r="F30" s="187" t="s">
-        <x:v>1168</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="G30" s="189"/>
       <x:c r="H30" s="191"/>
@@ -30340,7 +30361,7 @@
       <x:c r="C31" s="208"/>
       <x:c r="E31" s="187"/>
       <x:c r="F31" s="187" t="s">
-        <x:v>1169</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="G31" s="189"/>
       <x:c r="H31" s="191"/>
@@ -30353,7 +30374,7 @@
       <x:c r="C32" s="208"/>
       <x:c r="E32" s="187"/>
       <x:c r="F32" s="187" t="s">
-        <x:v>1170</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="G32" s="189"/>
       <x:c r="H32" s="191"/>
@@ -30366,7 +30387,7 @@
       <x:c r="C33" s="208"/>
       <x:c r="E33" s="187"/>
       <x:c r="F33" s="187" t="s">
-        <x:v>1171</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="G33" s="189"/>
       <x:c r="H33" s="191"/>
@@ -30379,7 +30400,7 @@
       <x:c r="C34" s="208"/>
       <x:c r="E34" s="187"/>
       <x:c r="F34" s="187" t="s">
-        <x:v>1172</x:v>
+        <x:v>1178</x:v>
       </x:c>
       <x:c r="G34" s="189"/>
       <x:c r="H34" s="191"/>
@@ -30393,7 +30414,7 @@
       <x:c r="D35" s="285"/>
       <x:c r="E35" s="187"/>
       <x:c r="F35" s="187" t="s">
-        <x:v>1173</x:v>
+        <x:v>1179</x:v>
       </x:c>
       <x:c r="G35" s="187"/>
       <x:c r="H35" s="191"/>
@@ -30402,25 +30423,25 @@
     </x:row>
     <x:row r="36" spans="1:10" ht="17" customHeight="1">
       <x:c r="A36" s="459" t="s">
-        <x:v>1149</x:v>
+        <x:v>1155</x:v>
       </x:c>
       <x:c r="B36" s="460" t="s">
-        <x:v>1150</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="C36" s="287" t="s">
-        <x:v>1151</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="D36" s="284" t="s">
+        <x:v>1187</x:v>
+      </x:c>
+      <x:c r="E36" s="187" t="s">
+        <x:v>1159</x:v>
+      </x:c>
+      <x:c r="F36" s="187" t="s">
         <x:v>1181</x:v>
       </x:c>
-      <x:c r="E36" s="187" t="s">
-        <x:v>1153</x:v>
-      </x:c>
-      <x:c r="F36" s="187" t="s">
-        <x:v>1175</x:v>
-      </x:c>
       <x:c r="G36" s="189" t="s">
-        <x:v>1182</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="H36" s="191"/>
       <x:c r="I36" s="192"/>
@@ -30431,13 +30452,13 @@
       <x:c r="B37" s="220"/>
       <x:c r="C37" s="208"/>
       <x:c r="E37" s="187" t="s">
-        <x:v>1156</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="F37" s="187" t="s">
-        <x:v>1183</x:v>
+        <x:v>1189</x:v>
       </x:c>
       <x:c r="G37" s="189" t="s">
-        <x:v>1184</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="H37" s="191"/>
       <x:c r="I37" s="192"/>
@@ -30448,10 +30469,10 @@
       <x:c r="B38" s="220"/>
       <x:c r="C38" s="208"/>
       <x:c r="E38" s="187" t="s">
-        <x:v>1159</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="F38" s="187" t="s">
-        <x:v>1160</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="G38" s="189"/>
       <x:c r="H38" s="191"/>
@@ -30463,10 +30484,10 @@
       <x:c r="B39" s="220"/>
       <x:c r="C39" s="208"/>
       <x:c r="E39" s="187" t="s">
-        <x:v>1185</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="F39" s="187" t="s">
-        <x:v>1163</x:v>
+        <x:v>1169</x:v>
       </x:c>
       <x:c r="G39" s="189"/>
       <x:c r="H39" s="191"/>
@@ -30478,10 +30499,10 @@
       <x:c r="B40" s="220"/>
       <x:c r="C40" s="208"/>
       <x:c r="E40" s="187" t="s">
-        <x:v>1186</x:v>
+        <x:v>1192</x:v>
       </x:c>
       <x:c r="F40" s="187" t="s">
-        <x:v>1165</x:v>
+        <x:v>1171</x:v>
       </x:c>
       <x:c r="G40" s="189"/>
       <x:c r="H40" s="191"/>
@@ -30493,10 +30514,10 @@
       <x:c r="B41" s="220"/>
       <x:c r="C41" s="208"/>
       <x:c r="E41" s="187" t="s">
-        <x:v>1187</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="F41" s="188" t="s">
-        <x:v>1167</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="G41" s="189"/>
       <x:c r="H41" s="191"/>
@@ -30508,10 +30529,10 @@
       <x:c r="B42" s="220"/>
       <x:c r="C42" s="208"/>
       <x:c r="E42" s="187" t="s">
-        <x:v>1188</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="F42" s="187" t="s">
-        <x:v>1168</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="G42" s="189"/>
       <x:c r="H42" s="191"/>
@@ -30524,7 +30545,7 @@
       <x:c r="C43" s="208"/>
       <x:c r="E43" s="187"/>
       <x:c r="F43" s="187" t="s">
-        <x:v>1169</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="G43" s="189"/>
       <x:c r="H43" s="191"/>
@@ -30537,7 +30558,7 @@
       <x:c r="C44" s="208"/>
       <x:c r="E44" s="187"/>
       <x:c r="F44" s="187" t="s">
-        <x:v>1170</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="G44" s="189"/>
       <x:c r="H44" s="191"/>
@@ -30550,7 +30571,7 @@
       <x:c r="C45" s="208"/>
       <x:c r="E45" s="187"/>
       <x:c r="F45" s="187" t="s">
-        <x:v>1171</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="G45" s="189"/>
       <x:c r="H45" s="191"/>
@@ -30563,7 +30584,7 @@
       <x:c r="C46" s="208"/>
       <x:c r="E46" s="188"/>
       <x:c r="F46" s="187" t="s">
-        <x:v>1172</x:v>
+        <x:v>1178</x:v>
       </x:c>
       <x:c r="G46" s="189"/>
       <x:c r="H46" s="191"/>
@@ -30576,7 +30597,7 @@
       <x:c r="C47" s="208"/>
       <x:c r="E47" s="189"/>
       <x:c r="F47" s="189" t="s">
-        <x:v>1173</x:v>
+        <x:v>1179</x:v>
       </x:c>
       <x:c r="G47" s="189"/>
       <x:c r="H47" s="191"/>
@@ -30585,25 +30606,25 @@
     </x:row>
     <x:row r="48" spans="1:10" ht="17" customHeight="1">
       <x:c r="A48" s="457" t="s">
-        <x:v>1189</x:v>
+        <x:v>1195</x:v>
       </x:c>
       <x:c r="B48" s="461" t="s">
-        <x:v>1190</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="C48" s="280" t="s">
-        <x:v>1191</x:v>
+        <x:v>1197</x:v>
       </x:c>
       <x:c r="D48" s="280" t="s">
-        <x:v>1192</x:v>
+        <x:v>1198</x:v>
       </x:c>
       <x:c r="E48" s="184" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F48" s="184" t="s">
-        <x:v>1193</x:v>
+        <x:v>1199</x:v>
       </x:c>
       <x:c r="G48" s="190" t="s">
-        <x:v>1194</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="H48" s="191"/>
       <x:c r="I48" s="192"/>
@@ -30615,13 +30636,13 @@
       <x:c r="C49" s="208"/>
       <x:c r="D49" s="208"/>
       <x:c r="E49" s="187" t="s">
-        <x:v>1195</x:v>
+        <x:v>1201</x:v>
       </x:c>
       <x:c r="F49" s="187" t="s">
-        <x:v>1157</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="G49" s="189" t="s">
-        <x:v>1196</x:v>
+        <x:v>1202</x:v>
       </x:c>
       <x:c r="H49" s="191"/>
       <x:c r="I49" s="192"/>
@@ -30633,10 +30654,10 @@
       <x:c r="C50" s="208"/>
       <x:c r="D50" s="208"/>
       <x:c r="E50" s="187" t="s">
-        <x:v>1197</x:v>
+        <x:v>1203</x:v>
       </x:c>
       <x:c r="F50" s="187" t="s">
-        <x:v>1198</x:v>
+        <x:v>1204</x:v>
       </x:c>
       <x:c r="G50" s="189"/>
       <x:c r="H50" s="191"/>
@@ -30649,10 +30670,10 @@
       <x:c r="C51" s="208"/>
       <x:c r="D51" s="208"/>
       <x:c r="E51" s="187" t="s">
-        <x:v>1199</x:v>
+        <x:v>1205</x:v>
       </x:c>
       <x:c r="F51" s="187" t="s">
-        <x:v>1200</x:v>
+        <x:v>1206</x:v>
       </x:c>
       <x:c r="G51" s="189"/>
       <x:c r="H51" s="191"/>
@@ -30665,10 +30686,10 @@
       <x:c r="C52" s="208"/>
       <x:c r="D52" s="208"/>
       <x:c r="E52" s="188" t="s">
-        <x:v>1201</x:v>
+        <x:v>1207</x:v>
       </x:c>
       <x:c r="F52" s="187" t="s">
-        <x:v>1202</x:v>
+        <x:v>1208</x:v>
       </x:c>
       <x:c r="G52" s="189"/>
       <x:c r="H52" s="191"/>
@@ -30682,7 +30703,7 @@
       <x:c r="D53" s="209"/>
       <x:c r="E53" s="285"/>
       <x:c r="F53" s="188" t="s">
-        <x:v>1167</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="G53" s="187"/>
       <x:c r="H53" s="191"/>
@@ -30691,25 +30712,25 @@
     </x:row>
     <x:row r="54" spans="1:10" ht="17" customHeight="1">
       <x:c r="A54" s="459" t="s">
-        <x:v>1189</x:v>
+        <x:v>1195</x:v>
       </x:c>
       <x:c r="B54" s="456" t="s">
-        <x:v>1190</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="C54" s="287" t="s">
-        <x:v>1191</x:v>
+        <x:v>1197</x:v>
       </x:c>
       <x:c r="D54" s="287" t="s">
-        <x:v>1203</x:v>
+        <x:v>1209</x:v>
       </x:c>
       <x:c r="E54" s="187" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F54" s="187" t="s">
-        <x:v>1193</x:v>
+        <x:v>1199</x:v>
       </x:c>
       <x:c r="G54" s="187" t="s">
-        <x:v>1204</x:v>
+        <x:v>1210</x:v>
       </x:c>
       <x:c r="H54" s="191"/>
       <x:c r="I54" s="192"/>
@@ -30721,13 +30742,13 @@
       <x:c r="C55" s="208"/>
       <x:c r="D55" s="208"/>
       <x:c r="E55" s="187" t="s">
-        <x:v>1195</x:v>
+        <x:v>1201</x:v>
       </x:c>
       <x:c r="F55" s="187" t="s">
-        <x:v>1157</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="G55" s="187" t="s">
-        <x:v>1205</x:v>
+        <x:v>1211</x:v>
       </x:c>
       <x:c r="H55" s="191"/>
       <x:c r="I55" s="192"/>
@@ -30739,10 +30760,10 @@
       <x:c r="C56" s="208"/>
       <x:c r="D56" s="208"/>
       <x:c r="E56" s="187" t="s">
-        <x:v>1206</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="F56" s="187" t="s">
-        <x:v>1198</x:v>
+        <x:v>1204</x:v>
       </x:c>
       <x:c r="G56" s="187"/>
       <x:c r="H56" s="191"/>
@@ -30755,10 +30776,10 @@
       <x:c r="C57" s="208"/>
       <x:c r="D57" s="208"/>
       <x:c r="E57" s="187" t="s">
-        <x:v>1207</x:v>
+        <x:v>1213</x:v>
       </x:c>
       <x:c r="F57" s="187" t="s">
-        <x:v>1208</x:v>
+        <x:v>1214</x:v>
       </x:c>
       <x:c r="G57" s="187"/>
       <x:c r="H57" s="191"/>
@@ -30771,10 +30792,10 @@
       <x:c r="C58" s="208"/>
       <x:c r="D58" s="208"/>
       <x:c r="E58" s="288" t="s">
-        <x:v>1201</x:v>
+        <x:v>1207</x:v>
       </x:c>
       <x:c r="F58" s="187" t="s">
-        <x:v>1202</x:v>
+        <x:v>1208</x:v>
       </x:c>
       <x:c r="G58" s="187"/>
       <x:c r="H58" s="191"/>
@@ -30788,7 +30809,7 @@
       <x:c r="D59" s="209"/>
       <x:c r="E59" s="209"/>
       <x:c r="F59" s="188" t="s">
-        <x:v>1167</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="G59" s="187"/>
       <x:c r="H59" s="191"/>
@@ -30797,25 +30818,25 @@
     </x:row>
     <x:row r="60" spans="1:10" ht="17" customHeight="1">
       <x:c r="A60" s="459" t="s">
-        <x:v>1209</x:v>
+        <x:v>1215</x:v>
       </x:c>
       <x:c r="B60" s="456" t="s">
-        <x:v>1210</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="C60" s="287" t="s">
-        <x:v>1211</x:v>
+        <x:v>1217</x:v>
       </x:c>
       <x:c r="D60" s="287" t="s">
-        <x:v>1212</x:v>
+        <x:v>1218</x:v>
       </x:c>
       <x:c r="E60" s="189" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F60" s="189" t="s">
-        <x:v>1213</x:v>
+        <x:v>1219</x:v>
       </x:c>
       <x:c r="G60" s="189" t="s">
-        <x:v>1214</x:v>
+        <x:v>1220</x:v>
       </x:c>
       <x:c r="H60" s="191"/>
       <x:c r="I60" s="192"/>
@@ -30827,11 +30848,11 @@
       <x:c r="C61" s="208"/>
       <x:c r="D61" s="208"/>
       <x:c r="E61" s="189" t="s">
-        <x:v>1215</x:v>
+        <x:v>1221</x:v>
       </x:c>
       <x:c r="F61" s="189"/>
       <x:c r="G61" s="189" t="s">
-        <x:v>1216</x:v>
+        <x:v>1222</x:v>
       </x:c>
       <x:c r="H61" s="191"/>
       <x:c r="I61" s="192"/>
@@ -30843,7 +30864,7 @@
       <x:c r="C62" s="208"/>
       <x:c r="D62" s="208"/>
       <x:c r="E62" s="188" t="s">
-        <x:v>1217</x:v>
+        <x:v>1223</x:v>
       </x:c>
       <x:c r="F62" s="189"/>
       <x:c r="G62" s="189"/>
@@ -30857,7 +30878,7 @@
       <x:c r="C63" s="208"/>
       <x:c r="D63" s="208"/>
       <x:c r="E63" s="189" t="s">
-        <x:v>1218</x:v>
+        <x:v>1224</x:v>
       </x:c>
       <x:c r="F63" s="189"/>
       <x:c r="G63" s="189"/>
@@ -30871,7 +30892,7 @@
       <x:c r="C64" s="208"/>
       <x:c r="D64" s="208"/>
       <x:c r="E64" s="189" t="s">
-        <x:v>1219</x:v>
+        <x:v>1225</x:v>
       </x:c>
       <x:c r="F64" s="189"/>
       <x:c r="G64" s="189"/>
@@ -30893,25 +30914,25 @@
     </x:row>
     <x:row r="66" spans="1:10" ht="17" customHeight="1">
       <x:c r="A66" s="459" t="s">
-        <x:v>1220</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="B66" s="456" t="s">
-        <x:v>1221</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="C66" s="287" t="s">
-        <x:v>1222</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="D66" s="289" t="s">
-        <x:v>1223</x:v>
+        <x:v>1229</x:v>
       </x:c>
       <x:c r="E66" s="189" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F66" s="287" t="s">
-        <x:v>1224</x:v>
+        <x:v>1230</x:v>
       </x:c>
       <x:c r="G66" s="287" t="s">
-        <x:v>1225</x:v>
+        <x:v>1231</x:v>
       </x:c>
       <x:c r="H66" s="191"/>
       <x:c r="I66" s="192"/>
@@ -30923,7 +30944,7 @@
       <x:c r="C67" s="208"/>
       <x:c r="D67" s="208"/>
       <x:c r="E67" s="189" t="s">
-        <x:v>1226</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="F67" s="208"/>
       <x:c r="G67" s="208"/>
@@ -30981,23 +31002,23 @@
     </x:row>
     <x:row r="72" spans="1:10" ht="17" customHeight="1">
       <x:c r="A72" s="459" t="s">
-        <x:v>1220</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="B72" s="456" t="s">
-        <x:v>1221</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="C72" s="287" t="s">
-        <x:v>1222</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="D72" s="287" t="s">
-        <x:v>1227</x:v>
+        <x:v>1233</x:v>
       </x:c>
       <x:c r="E72" s="189" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F72" s="287"/>
       <x:c r="G72" s="287" t="s">
-        <x:v>1228</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="H72" s="191"/>
       <x:c r="I72" s="192"/>
@@ -31009,7 +31030,7 @@
       <x:c r="C73" s="208"/>
       <x:c r="D73" s="208"/>
       <x:c r="E73" s="189" t="s">
-        <x:v>1229</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="F73" s="208"/>
       <x:c r="G73" s="208"/>
@@ -31023,7 +31044,7 @@
       <x:c r="C74" s="208"/>
       <x:c r="D74" s="208"/>
       <x:c r="E74" s="189" t="s">
-        <x:v>1230</x:v>
+        <x:v>1236</x:v>
       </x:c>
       <x:c r="F74" s="208"/>
       <x:c r="G74" s="208"/>
@@ -31069,23 +31090,23 @@
     </x:row>
     <x:row r="78" spans="1:10" ht="17" customHeight="1">
       <x:c r="A78" s="459" t="s">
-        <x:v>1220</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="B78" s="456" t="s">
-        <x:v>1221</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="C78" s="287" t="s">
-        <x:v>1222</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="D78" s="287" t="s">
-        <x:v>1231</x:v>
+        <x:v>1237</x:v>
       </x:c>
       <x:c r="E78" s="189" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F78" s="287"/>
       <x:c r="G78" s="287" t="s">
-        <x:v>1232</x:v>
+        <x:v>1238</x:v>
       </x:c>
       <x:c r="H78" s="191"/>
       <x:c r="I78" s="192"/>
@@ -31097,7 +31118,7 @@
       <x:c r="C79" s="208"/>
       <x:c r="D79" s="208"/>
       <x:c r="E79" s="189" t="s">
-        <x:v>1233</x:v>
+        <x:v>1239</x:v>
       </x:c>
       <x:c r="F79" s="208"/>
       <x:c r="G79" s="208"/>
@@ -31111,7 +31132,7 @@
       <x:c r="C80" s="208"/>
       <x:c r="D80" s="208"/>
       <x:c r="E80" s="189" t="s">
-        <x:v>1234</x:v>
+        <x:v>1240</x:v>
       </x:c>
       <x:c r="F80" s="208"/>
       <x:c r="G80" s="208"/>
@@ -31157,25 +31178,25 @@
     </x:row>
     <x:row r="84" spans="1:10" ht="17" customHeight="1">
       <x:c r="A84" s="459" t="s">
-        <x:v>1235</x:v>
+        <x:v>1241</x:v>
       </x:c>
       <x:c r="B84" s="456" t="s">
-        <x:v>1221</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="C84" s="287" t="s">
-        <x:v>1222</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="D84" s="287" t="s">
-        <x:v>1236</x:v>
+        <x:v>1242</x:v>
       </x:c>
       <x:c r="E84" s="189" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F84" s="287" t="s">
-        <x:v>1237</x:v>
+        <x:v>1243</x:v>
       </x:c>
       <x:c r="G84" s="281" t="s">
-        <x:v>1238</x:v>
+        <x:v>1244</x:v>
       </x:c>
       <x:c r="H84" s="191"/>
       <x:c r="I84" s="192"/>
@@ -31187,7 +31208,7 @@
       <x:c r="C85" s="208"/>
       <x:c r="D85" s="208"/>
       <x:c r="E85" s="189" t="s">
-        <x:v>1239</x:v>
+        <x:v>1245</x:v>
       </x:c>
       <x:c r="F85" s="208"/>
       <x:c r="G85" s="224"/>
@@ -31201,7 +31222,7 @@
       <x:c r="C86" s="208"/>
       <x:c r="D86" s="208"/>
       <x:c r="E86" s="189" t="s">
-        <x:v>1234</x:v>
+        <x:v>1240</x:v>
       </x:c>
       <x:c r="F86" s="208"/>
       <x:c r="G86" s="224"/>
@@ -31247,25 +31268,25 @@
     </x:row>
     <x:row r="90" spans="1:10" ht="17" customHeight="1">
       <x:c r="A90" s="459" t="s">
-        <x:v>1235</x:v>
+        <x:v>1241</x:v>
       </x:c>
       <x:c r="B90" s="456" t="s">
-        <x:v>1221</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="C90" s="287" t="s">
-        <x:v>1222</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="D90" s="287" t="s">
-        <x:v>1240</x:v>
+        <x:v>1246</x:v>
       </x:c>
       <x:c r="E90" s="189" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F90" s="187" t="s">
-        <x:v>1175</x:v>
+        <x:v>1181</x:v>
       </x:c>
       <x:c r="G90" s="281" t="s">
-        <x:v>1241</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="H90" s="191"/>
       <x:c r="I90" s="192"/>
@@ -31277,10 +31298,10 @@
       <x:c r="C91" s="208"/>
       <x:c r="D91" s="208"/>
       <x:c r="E91" s="189" t="s">
-        <x:v>1242</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="F91" s="187" t="s">
-        <x:v>1157</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="G91" s="224"/>
       <x:c r="H91" s="191"/>
@@ -31293,10 +31314,10 @@
       <x:c r="C92" s="208"/>
       <x:c r="D92" s="208"/>
       <x:c r="E92" s="189" t="s">
-        <x:v>1234</x:v>
+        <x:v>1240</x:v>
       </x:c>
       <x:c r="F92" s="187" t="s">
-        <x:v>1160</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="G92" s="224"/>
       <x:c r="H92" s="191"/>
@@ -31310,7 +31331,7 @@
       <x:c r="D93" s="208"/>
       <x:c r="E93" s="189"/>
       <x:c r="F93" s="187" t="s">
-        <x:v>1179</x:v>
+        <x:v>1185</x:v>
       </x:c>
       <x:c r="G93" s="224"/>
       <x:c r="H93" s="191"/>
@@ -31324,7 +31345,7 @@
       <x:c r="D94" s="208"/>
       <x:c r="E94" s="189"/>
       <x:c r="F94" s="187" t="s">
-        <x:v>1165</x:v>
+        <x:v>1171</x:v>
       </x:c>
       <x:c r="G94" s="224"/>
       <x:c r="H94" s="191"/>
@@ -31338,7 +31359,7 @@
       <x:c r="D95" s="208"/>
       <x:c r="E95" s="189"/>
       <x:c r="F95" s="188" t="s">
-        <x:v>1167</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="G95" s="224"/>
       <x:c r="H95" s="191"/>
@@ -31352,7 +31373,7 @@
       <x:c r="D96" s="208"/>
       <x:c r="E96" s="189"/>
       <x:c r="F96" s="187" t="s">
-        <x:v>1168</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="G96" s="224"/>
       <x:c r="H96" s="191"/>
@@ -31366,7 +31387,7 @@
       <x:c r="D97" s="208"/>
       <x:c r="E97" s="189"/>
       <x:c r="F97" s="187" t="s">
-        <x:v>1169</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="G97" s="224"/>
       <x:c r="H97" s="191"/>
@@ -31380,7 +31401,7 @@
       <x:c r="D98" s="208"/>
       <x:c r="E98" s="189"/>
       <x:c r="F98" s="187" t="s">
-        <x:v>1170</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="G98" s="224"/>
       <x:c r="H98" s="191"/>
@@ -31394,7 +31415,7 @@
       <x:c r="D99" s="208"/>
       <x:c r="E99" s="189"/>
       <x:c r="F99" s="187" t="s">
-        <x:v>1171</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="G99" s="224"/>
       <x:c r="H99" s="191"/>
@@ -31408,7 +31429,7 @@
       <x:c r="D100" s="208"/>
       <x:c r="E100" s="189"/>
       <x:c r="F100" s="187" t="s">
-        <x:v>1172</x:v>
+        <x:v>1178</x:v>
       </x:c>
       <x:c r="G100" s="224"/>
       <x:c r="H100" s="191"/>
@@ -31422,7 +31443,7 @@
       <x:c r="D101" s="209"/>
       <x:c r="E101" s="187"/>
       <x:c r="F101" s="187" t="s">
-        <x:v>1173</x:v>
+        <x:v>1179</x:v>
       </x:c>
       <x:c r="G101" s="225"/>
       <x:c r="H101" s="191"/>
@@ -31431,25 +31452,25 @@
     </x:row>
     <x:row r="102" spans="1:10" ht="17" customHeight="1">
       <x:c r="A102" s="459" t="s">
-        <x:v>1243</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="B102" s="456" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C102" s="287" t="s">
-        <x:v>1244</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="D102" s="287" t="s">
-        <x:v>1245</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="E102" s="189" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F102" s="287" t="s">
-        <x:v>1246</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="G102" s="281" t="s">
-        <x:v>1247</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="H102" s="191"/>
       <x:c r="I102" s="192"/>
@@ -31461,7 +31482,7 @@
       <x:c r="C103" s="208"/>
       <x:c r="D103" s="208"/>
       <x:c r="E103" s="189" t="s">
-        <x:v>1248</x:v>
+        <x:v>1254</x:v>
       </x:c>
       <x:c r="F103" s="208"/>
       <x:c r="G103" s="224"/>
@@ -31475,7 +31496,7 @@
       <x:c r="C104" s="208"/>
       <x:c r="D104" s="208"/>
       <x:c r="E104" s="189" t="s">
-        <x:v>1249</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="F104" s="208"/>
       <x:c r="G104" s="224"/>
@@ -31489,7 +31510,7 @@
       <x:c r="C105" s="208"/>
       <x:c r="D105" s="208"/>
       <x:c r="E105" s="189" t="s">
-        <x:v>1250</x:v>
+        <x:v>1256</x:v>
       </x:c>
       <x:c r="F105" s="208"/>
       <x:c r="G105" s="224"/>
@@ -31503,7 +31524,7 @@
       <x:c r="C106" s="208"/>
       <x:c r="D106" s="208"/>
       <x:c r="E106" s="189" t="s">
-        <x:v>1251</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="F106" s="208"/>
       <x:c r="G106" s="224"/>
@@ -31517,7 +31538,7 @@
       <x:c r="C107" s="208"/>
       <x:c r="D107" s="208"/>
       <x:c r="E107" s="189" t="s">
-        <x:v>1252</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="F107" s="208"/>
       <x:c r="G107" s="224"/>
@@ -31599,25 +31620,25 @@
     </x:row>
     <x:row r="114" spans="1:10" ht="17" customHeight="1">
       <x:c r="A114" s="459" t="s">
-        <x:v>1243</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="B114" s="456" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C114" s="287" t="s">
-        <x:v>1244</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="D114" s="287" t="s">
-        <x:v>1253</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="E114" s="189" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F114" s="287" t="s">
-        <x:v>1254</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="G114" s="281" t="s">
-        <x:v>1255</x:v>
+        <x:v>1261</x:v>
       </x:c>
       <x:c r="H114" s="191"/>
       <x:c r="I114" s="192"/>
@@ -31629,7 +31650,7 @@
       <x:c r="C115" s="208"/>
       <x:c r="D115" s="208"/>
       <x:c r="E115" s="189" t="s">
-        <x:v>1256</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="F115" s="208"/>
       <x:c r="G115" s="224"/>
@@ -31643,7 +31664,7 @@
       <x:c r="C116" s="208"/>
       <x:c r="D116" s="208"/>
       <x:c r="E116" s="189" t="s">
-        <x:v>1249</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="F116" s="208"/>
       <x:c r="G116" s="224"/>
@@ -31657,7 +31678,7 @@
       <x:c r="C117" s="208"/>
       <x:c r="D117" s="208"/>
       <x:c r="E117" s="189" t="s">
-        <x:v>1250</x:v>
+        <x:v>1256</x:v>
       </x:c>
       <x:c r="F117" s="208"/>
       <x:c r="G117" s="224"/>
@@ -31671,7 +31692,7 @@
       <x:c r="C118" s="208"/>
       <x:c r="D118" s="208"/>
       <x:c r="E118" s="189" t="s">
-        <x:v>1251</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="F118" s="208"/>
       <x:c r="G118" s="224"/>
@@ -31685,7 +31706,7 @@
       <x:c r="C119" s="208"/>
       <x:c r="D119" s="208"/>
       <x:c r="E119" s="189" t="s">
-        <x:v>1252</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="F119" s="208"/>
       <x:c r="G119" s="224"/>
@@ -31767,25 +31788,25 @@
     </x:row>
     <x:row r="126" spans="1:10" ht="17" customHeight="1">
       <x:c r="A126" s="459" t="s">
-        <x:v>1243</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="B126" s="456" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C126" s="287" t="s">
-        <x:v>1244</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="D126" s="287" t="s">
-        <x:v>1257</x:v>
+        <x:v>1263</x:v>
       </x:c>
       <x:c r="E126" s="189" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F126" s="287" t="s">
-        <x:v>1258</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="G126" s="281" t="s">
-        <x:v>1259</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="H126" s="191"/>
       <x:c r="I126" s="192"/>
@@ -31797,7 +31818,7 @@
       <x:c r="C127" s="208"/>
       <x:c r="D127" s="208"/>
       <x:c r="E127" s="189" t="s">
-        <x:v>1260</x:v>
+        <x:v>1266</x:v>
       </x:c>
       <x:c r="F127" s="208"/>
       <x:c r="G127" s="224"/>
@@ -31811,7 +31832,7 @@
       <x:c r="C128" s="208"/>
       <x:c r="D128" s="208"/>
       <x:c r="E128" s="189" t="s">
-        <x:v>1249</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="F128" s="208"/>
       <x:c r="G128" s="224"/>
@@ -31825,7 +31846,7 @@
       <x:c r="C129" s="208"/>
       <x:c r="D129" s="208"/>
       <x:c r="E129" s="189" t="s">
-        <x:v>1250</x:v>
+        <x:v>1256</x:v>
       </x:c>
       <x:c r="F129" s="208"/>
       <x:c r="G129" s="224"/>
@@ -31839,7 +31860,7 @@
       <x:c r="C130" s="208"/>
       <x:c r="D130" s="208"/>
       <x:c r="E130" s="189" t="s">
-        <x:v>1251</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="F130" s="208"/>
       <x:c r="G130" s="224"/>
@@ -31853,7 +31874,7 @@
       <x:c r="C131" s="208"/>
       <x:c r="D131" s="208"/>
       <x:c r="E131" s="189" t="s">
-        <x:v>1252</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="F131" s="208"/>
       <x:c r="G131" s="224"/>
@@ -31935,25 +31956,25 @@
     </x:row>
     <x:row r="138" spans="1:10" ht="17" customHeight="1">
       <x:c r="A138" s="459" t="s">
-        <x:v>1261</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="B138" s="456" t="s">
-        <x:v>1262</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="C138" s="287" t="s">
-        <x:v>1263</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="D138" s="287" t="s">
-        <x:v>1264</x:v>
+        <x:v>1270</x:v>
       </x:c>
       <x:c r="E138" s="194" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F138" s="287" t="s">
-        <x:v>1265</x:v>
+        <x:v>1271</x:v>
       </x:c>
       <x:c r="G138" s="281" t="s">
-        <x:v>1266</x:v>
+        <x:v>1272</x:v>
       </x:c>
       <x:c r="H138" s="191"/>
       <x:c r="I138" s="192"/>
@@ -31965,7 +31986,7 @@
       <x:c r="C139" s="208"/>
       <x:c r="D139" s="208"/>
       <x:c r="E139" s="193" t="s">
-        <x:v>1267</x:v>
+        <x:v>1273</x:v>
       </x:c>
       <x:c r="F139" s="208"/>
       <x:c r="G139" s="224"/>
@@ -31979,7 +32000,7 @@
       <x:c r="C140" s="208"/>
       <x:c r="D140" s="208"/>
       <x:c r="E140" s="193" t="s">
-        <x:v>1268</x:v>
+        <x:v>1274</x:v>
       </x:c>
       <x:c r="F140" s="208"/>
       <x:c r="G140" s="224"/>
@@ -31993,7 +32014,7 @@
       <x:c r="C141" s="209"/>
       <x:c r="D141" s="209"/>
       <x:c r="E141" s="195" t="s">
-        <x:v>1269</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="F141" s="209"/>
       <x:c r="G141" s="225"/>
@@ -32003,25 +32024,25 @@
     </x:row>
     <x:row r="142" spans="1:10" ht="17" customHeight="1">
       <x:c r="A142" s="459" t="s">
-        <x:v>1261</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="B142" s="456" t="s">
-        <x:v>1262</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="C142" s="287" t="s">
-        <x:v>1263</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="D142" s="287" t="s">
-        <x:v>1270</x:v>
+        <x:v>1276</x:v>
       </x:c>
       <x:c r="E142" s="193" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F142" s="287" t="s">
-        <x:v>1271</x:v>
+        <x:v>1277</x:v>
       </x:c>
       <x:c r="G142" s="287" t="s">
-        <x:v>1272</x:v>
+        <x:v>1278</x:v>
       </x:c>
       <x:c r="H142" s="191"/>
       <x:c r="I142" s="192"/>
@@ -32033,7 +32054,7 @@
       <x:c r="C143" s="208"/>
       <x:c r="D143" s="208"/>
       <x:c r="E143" s="193" t="s">
-        <x:v>1267</x:v>
+        <x:v>1273</x:v>
       </x:c>
       <x:c r="F143" s="208"/>
       <x:c r="G143" s="208"/>
@@ -32047,7 +32068,7 @@
       <x:c r="C144" s="208"/>
       <x:c r="D144" s="208"/>
       <x:c r="E144" s="193" t="s">
-        <x:v>1273</x:v>
+        <x:v>1279</x:v>
       </x:c>
       <x:c r="F144" s="208"/>
       <x:c r="G144" s="208"/>
@@ -32061,7 +32082,7 @@
       <x:c r="C145" s="209"/>
       <x:c r="D145" s="209"/>
       <x:c r="E145" s="195" t="s">
-        <x:v>1269</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="F145" s="209"/>
       <x:c r="G145" s="209"/>
@@ -32071,25 +32092,25 @@
     </x:row>
     <x:row r="146" spans="1:10" ht="17" customHeight="1">
       <x:c r="A146" s="459" t="s">
-        <x:v>1261</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="B146" s="456" t="s">
-        <x:v>1262</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="C146" s="287" t="s">
-        <x:v>1274</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="D146" s="287" t="s">
-        <x:v>1275</x:v>
+        <x:v>1281</x:v>
       </x:c>
       <x:c r="E146" s="193" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F146" s="287" t="s">
-        <x:v>1276</x:v>
+        <x:v>1282</x:v>
       </x:c>
       <x:c r="G146" s="287" t="s">
-        <x:v>1277</x:v>
+        <x:v>1283</x:v>
       </x:c>
       <x:c r="H146" s="191"/>
       <x:c r="I146" s="192"/>
@@ -32101,7 +32122,7 @@
       <x:c r="C147" s="208"/>
       <x:c r="D147" s="208"/>
       <x:c r="E147" s="193" t="s">
-        <x:v>1278</x:v>
+        <x:v>1284</x:v>
       </x:c>
       <x:c r="F147" s="208"/>
       <x:c r="G147" s="208"/>
@@ -32115,7 +32136,7 @@
       <x:c r="C148" s="208"/>
       <x:c r="D148" s="208"/>
       <x:c r="E148" s="193" t="s">
-        <x:v>1279</x:v>
+        <x:v>1285</x:v>
       </x:c>
       <x:c r="F148" s="208"/>
       <x:c r="G148" s="208"/>
@@ -32129,7 +32150,7 @@
       <x:c r="C149" s="209"/>
       <x:c r="D149" s="209"/>
       <x:c r="E149" s="195" t="s">
-        <x:v>1269</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="F149" s="209"/>
       <x:c r="G149" s="209"/>
@@ -32139,25 +32160,25 @@
     </x:row>
     <x:row r="150" spans="1:10" ht="17" customHeight="1">
       <x:c r="A150" s="459" t="s">
-        <x:v>1261</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="B150" s="456" t="s">
-        <x:v>1262</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="C150" s="287" t="s">
-        <x:v>1274</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="D150" s="287" t="s">
-        <x:v>1280</x:v>
+        <x:v>1286</x:v>
       </x:c>
       <x:c r="E150" s="193" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F150" s="287" t="s">
-        <x:v>1281</x:v>
+        <x:v>1287</x:v>
       </x:c>
       <x:c r="G150" s="287" t="s">
-        <x:v>1282</x:v>
+        <x:v>1288</x:v>
       </x:c>
       <x:c r="H150" s="191"/>
       <x:c r="I150" s="192"/>
@@ -32169,7 +32190,7 @@
       <x:c r="C151" s="208"/>
       <x:c r="D151" s="208"/>
       <x:c r="E151" s="193" t="s">
-        <x:v>1278</x:v>
+        <x:v>1284</x:v>
       </x:c>
       <x:c r="F151" s="208"/>
       <x:c r="G151" s="208"/>
@@ -32183,7 +32204,7 @@
       <x:c r="C152" s="208"/>
       <x:c r="D152" s="208"/>
       <x:c r="E152" s="193" t="s">
-        <x:v>1283</x:v>
+        <x:v>1289</x:v>
       </x:c>
       <x:c r="F152" s="208"/>
       <x:c r="G152" s="208"/>
@@ -32197,7 +32218,7 @@
       <x:c r="C153" s="209"/>
       <x:c r="D153" s="209"/>
       <x:c r="E153" s="195" t="s">
-        <x:v>1269</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="F153" s="209"/>
       <x:c r="G153" s="209"/>
@@ -32207,25 +32228,25 @@
     </x:row>
     <x:row r="154" spans="1:10" ht="17" customHeight="1">
       <x:c r="A154" s="459" t="s">
-        <x:v>1261</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="B154" s="456" t="s">
-        <x:v>1262</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="C154" s="287" t="s">
-        <x:v>1284</x:v>
+        <x:v>1290</x:v>
       </x:c>
       <x:c r="D154" s="287" t="s">
-        <x:v>1285</x:v>
+        <x:v>1291</x:v>
       </x:c>
       <x:c r="E154" s="193" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F154" s="287" t="s">
-        <x:v>1286</x:v>
+        <x:v>1292</x:v>
       </x:c>
       <x:c r="G154" s="287" t="s">
-        <x:v>1287</x:v>
+        <x:v>1293</x:v>
       </x:c>
       <x:c r="H154" s="191"/>
       <x:c r="I154" s="192"/>
@@ -32237,7 +32258,7 @@
       <x:c r="C155" s="208"/>
       <x:c r="D155" s="208"/>
       <x:c r="E155" s="193" t="s">
-        <x:v>1288</x:v>
+        <x:v>1294</x:v>
       </x:c>
       <x:c r="F155" s="208"/>
       <x:c r="G155" s="208"/>
@@ -32251,7 +32272,7 @@
       <x:c r="C156" s="208"/>
       <x:c r="D156" s="208"/>
       <x:c r="E156" s="193" t="s">
-        <x:v>1283</x:v>
+        <x:v>1289</x:v>
       </x:c>
       <x:c r="F156" s="208"/>
       <x:c r="G156" s="208"/>
@@ -32265,7 +32286,7 @@
       <x:c r="C157" s="209"/>
       <x:c r="D157" s="209"/>
       <x:c r="E157" s="195" t="s">
-        <x:v>1269</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="F157" s="209"/>
       <x:c r="G157" s="209"/>
@@ -32275,25 +32296,25 @@
     </x:row>
     <x:row r="158" spans="1:10" ht="17" customHeight="1">
       <x:c r="A158" s="459" t="s">
-        <x:v>1261</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="B158" s="456" t="s">
-        <x:v>1262</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="C158" s="287" t="s">
-        <x:v>1284</x:v>
+        <x:v>1290</x:v>
       </x:c>
       <x:c r="D158" s="287" t="s">
-        <x:v>1289</x:v>
+        <x:v>1295</x:v>
       </x:c>
       <x:c r="E158" s="193" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F158" s="287" t="s">
-        <x:v>1290</x:v>
+        <x:v>1296</x:v>
       </x:c>
       <x:c r="G158" s="287" t="s">
-        <x:v>1291</x:v>
+        <x:v>1297</x:v>
       </x:c>
       <x:c r="H158" s="191"/>
       <x:c r="I158" s="192"/>
@@ -32305,7 +32326,7 @@
       <x:c r="C159" s="208"/>
       <x:c r="D159" s="208"/>
       <x:c r="E159" s="193" t="s">
-        <x:v>1288</x:v>
+        <x:v>1294</x:v>
       </x:c>
       <x:c r="F159" s="208"/>
       <x:c r="G159" s="208"/>
@@ -32319,7 +32340,7 @@
       <x:c r="C160" s="208"/>
       <x:c r="D160" s="208"/>
       <x:c r="E160" s="193" t="s">
-        <x:v>1279</x:v>
+        <x:v>1285</x:v>
       </x:c>
       <x:c r="F160" s="208"/>
       <x:c r="G160" s="208"/>
@@ -32333,7 +32354,7 @@
       <x:c r="C161" s="209"/>
       <x:c r="D161" s="209"/>
       <x:c r="E161" s="195" t="s">
-        <x:v>1269</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="F161" s="209"/>
       <x:c r="G161" s="209"/>
@@ -32343,23 +32364,23 @@
     </x:row>
     <x:row r="162" spans="1:10" ht="17" customHeight="1">
       <x:c r="A162" s="459" t="s">
-        <x:v>1292</x:v>
+        <x:v>1298</x:v>
       </x:c>
       <x:c r="B162" s="456" t="s">
-        <x:v>1293</x:v>
+        <x:v>1299</x:v>
       </x:c>
       <x:c r="C162" s="287" t="s">
-        <x:v>1294</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="D162" s="287" t="s">
-        <x:v>1295</x:v>
+        <x:v>1301</x:v>
       </x:c>
       <x:c r="E162" s="193" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F162" s="287"/>
       <x:c r="G162" s="287" t="s">
-        <x:v>1296</x:v>
+        <x:v>1302</x:v>
       </x:c>
       <x:c r="H162" s="191"/>
       <x:c r="I162" s="192"/>
@@ -32371,7 +32392,7 @@
       <x:c r="C163" s="208"/>
       <x:c r="D163" s="208"/>
       <x:c r="E163" s="193" t="s">
-        <x:v>1297</x:v>
+        <x:v>1303</x:v>
       </x:c>
       <x:c r="F163" s="208"/>
       <x:c r="G163" s="208"/>
@@ -32405,25 +32426,25 @@
     </x:row>
     <x:row r="166" spans="1:10" ht="17" customHeight="1">
       <x:c r="A166" s="459" t="s">
-        <x:v>1292</x:v>
+        <x:v>1298</x:v>
       </x:c>
       <x:c r="B166" s="456" t="s">
-        <x:v>1293</x:v>
+        <x:v>1299</x:v>
       </x:c>
       <x:c r="C166" s="287" t="s">
-        <x:v>1294</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="D166" s="287" t="s">
-        <x:v>1298</x:v>
+        <x:v>1304</x:v>
       </x:c>
       <x:c r="E166" s="193" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F166" s="287" t="s">
-        <x:v>1299</x:v>
+        <x:v>1305</x:v>
       </x:c>
       <x:c r="G166" s="287" t="s">
-        <x:v>1300</x:v>
+        <x:v>1306</x:v>
       </x:c>
       <x:c r="H166" s="191"/>
       <x:c r="I166" s="192"/>
@@ -32435,7 +32456,7 @@
       <x:c r="C167" s="208"/>
       <x:c r="D167" s="208"/>
       <x:c r="E167" s="193" t="s">
-        <x:v>1301</x:v>
+        <x:v>1307</x:v>
       </x:c>
       <x:c r="F167" s="208"/>
       <x:c r="G167" s="208"/>
@@ -32449,7 +32470,7 @@
       <x:c r="C168" s="208"/>
       <x:c r="D168" s="208"/>
       <x:c r="E168" s="193" t="s">
-        <x:v>1302</x:v>
+        <x:v>1308</x:v>
       </x:c>
       <x:c r="F168" s="208"/>
       <x:c r="G168" s="208"/>
@@ -32471,25 +32492,25 @@
     </x:row>
     <x:row r="170" spans="1:10" ht="17" customHeight="1">
       <x:c r="A170" s="459" t="s">
-        <x:v>1292</x:v>
+        <x:v>1298</x:v>
       </x:c>
       <x:c r="B170" s="456" t="s">
-        <x:v>1293</x:v>
+        <x:v>1299</x:v>
       </x:c>
       <x:c r="C170" s="287" t="s">
-        <x:v>1303</x:v>
+        <x:v>1309</x:v>
       </x:c>
       <x:c r="D170" s="287" t="s">
-        <x:v>1304</x:v>
+        <x:v>1310</x:v>
       </x:c>
       <x:c r="E170" s="193" t="s">
-        <x:v>1153</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F170" s="287" t="s">
-        <x:v>1305</x:v>
+        <x:v>1311</x:v>
       </x:c>
       <x:c r="G170" s="287" t="s">
-        <x:v>1306</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="H170" s="191"/>
       <x:c r="I170" s="192"/>
@@ -32501,7 +32522,7 @@
       <x:c r="C171" s="208"/>
       <x:c r="D171" s="208"/>
       <x:c r="E171" s="193" t="s">
-        <x:v>1307</x:v>
+        <x:v>1313</x:v>
       </x:c>
       <x:c r="F171" s="208"/>
       <x:c r="G171" s="208"/>
@@ -32515,7 +32536,7 @@
       <x:c r="C172" s="208"/>
       <x:c r="D172" s="208"/>
       <x:c r="E172" s="193" t="s">
-        <x:v>1308</x:v>
+        <x:v>1314</x:v>
       </x:c>
       <x:c r="F172" s="208"/>
       <x:c r="G172" s="208"/>
@@ -34865,16 +34886,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="300" t="s">
-        <x:v>1149</x:v>
+        <x:v>1155</x:v>
       </x:c>
       <x:c r="C2" s="465" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="302" t="s">
-        <x:v>1150</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="E2" s="198" t="s">
-        <x:v>1309</x:v>
+        <x:v>1315</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -34883,7 +34904,7 @@
       <x:c r="C3" s="208"/>
       <x:c r="D3" s="208"/>
       <x:c r="E3" s="199" t="s">
-        <x:v>1310</x:v>
+        <x:v>1316</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -34892,7 +34913,7 @@
       <x:c r="C4" s="208"/>
       <x:c r="D4" s="209"/>
       <x:c r="E4" s="200" t="s">
-        <x:v>1311</x:v>
+        <x:v>1317</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -34900,14 +34921,14 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B5" s="303" t="s">
-        <x:v>1189</x:v>
+        <x:v>1195</x:v>
       </x:c>
       <x:c r="C5" s="208"/>
       <x:c r="D5" s="296" t="s">
-        <x:v>1190</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="E5" s="199" t="s">
-        <x:v>1192</x:v>
+        <x:v>1198</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" ht="15.75" customHeight="1">
@@ -34916,7 +34937,7 @@
       <x:c r="C6" s="208"/>
       <x:c r="D6" s="209"/>
       <x:c r="E6" s="200" t="s">
-        <x:v>1312</x:v>
+        <x:v>1318</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -34924,14 +34945,14 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B7" s="202" t="s">
-        <x:v>1209</x:v>
+        <x:v>1215</x:v>
       </x:c>
       <x:c r="C7" s="208"/>
       <x:c r="D7" s="203" t="s">
-        <x:v>1210</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="E7" s="200" t="s">
-        <x:v>1212</x:v>
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" ht="15.75" customHeight="1">
@@ -34939,14 +34960,14 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B8" s="294" t="s">
-        <x:v>1220</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="C8" s="208"/>
       <x:c r="D8" s="296" t="s">
-        <x:v>1221</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="E8" s="199" t="s">
-        <x:v>1223</x:v>
+        <x:v>1229</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" ht="15.75" customHeight="1">
@@ -34954,7 +34975,7 @@
       <x:c r="C9" s="208"/>
       <x:c r="D9" s="208"/>
       <x:c r="E9" s="199" t="s">
-        <x:v>1227</x:v>
+        <x:v>1233</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" ht="15.75" customHeight="1">
@@ -34962,7 +34983,7 @@
       <x:c r="C10" s="208"/>
       <x:c r="D10" s="208"/>
       <x:c r="E10" s="199" t="s">
-        <x:v>1231</x:v>
+        <x:v>1237</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" ht="15.75" customHeight="1">
@@ -34970,7 +34991,7 @@
       <x:c r="C11" s="208"/>
       <x:c r="D11" s="208"/>
       <x:c r="E11" s="199" t="s">
-        <x:v>1236</x:v>
+        <x:v>1242</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" ht="15.75" customHeight="1">
@@ -34979,7 +35000,7 @@
       <x:c r="C12" s="208"/>
       <x:c r="D12" s="209"/>
       <x:c r="E12" s="200" t="s">
-        <x:v>1240</x:v>
+        <x:v>1246</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" ht="15.75" customHeight="1">
@@ -34987,14 +35008,14 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B13" s="294" t="s">
-        <x:v>1313</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="C13" s="208"/>
       <x:c r="D13" s="296" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="E13" s="199" t="s">
-        <x:v>1245</x:v>
+        <x:v>1251</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" ht="15.75" customHeight="1">
@@ -35002,7 +35023,7 @@
       <x:c r="C14" s="208"/>
       <x:c r="D14" s="208"/>
       <x:c r="E14" s="199" t="s">
-        <x:v>1253</x:v>
+        <x:v>1259</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5" ht="15.75" customHeight="1">
@@ -35011,7 +35032,7 @@
       <x:c r="C15" s="208"/>
       <x:c r="D15" s="209"/>
       <x:c r="E15" s="200" t="s">
-        <x:v>1257</x:v>
+        <x:v>1263</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5" ht="15.75" customHeight="1">
@@ -35019,14 +35040,14 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B16" s="298" t="s">
-        <x:v>1314</x:v>
+        <x:v>1320</x:v>
       </x:c>
       <x:c r="C16" s="208"/>
       <x:c r="D16" s="296" t="s">
-        <x:v>1262</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="E16" s="199" t="s">
-        <x:v>1264</x:v>
+        <x:v>1270</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5" ht="15.75" customHeight="1">
@@ -35035,7 +35056,7 @@
       <x:c r="C17" s="208"/>
       <x:c r="D17" s="208"/>
       <x:c r="E17" s="199" t="s">
-        <x:v>1270</x:v>
+        <x:v>1276</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5" ht="15.75" customHeight="1">
@@ -35044,7 +35065,7 @@
       <x:c r="C18" s="208"/>
       <x:c r="D18" s="208"/>
       <x:c r="E18" s="199" t="s">
-        <x:v>1275</x:v>
+        <x:v>1281</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5" ht="15.75" customHeight="1">
@@ -35053,7 +35074,7 @@
       <x:c r="C19" s="208"/>
       <x:c r="D19" s="208"/>
       <x:c r="E19" s="199" t="s">
-        <x:v>1280</x:v>
+        <x:v>1286</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5" ht="15.75" customHeight="1">
@@ -35062,7 +35083,7 @@
       <x:c r="C20" s="208"/>
       <x:c r="D20" s="208"/>
       <x:c r="E20" s="199" t="s">
-        <x:v>1285</x:v>
+        <x:v>1291</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5" ht="15.75" customHeight="1">
@@ -35071,7 +35092,7 @@
       <x:c r="C21" s="208"/>
       <x:c r="D21" s="209"/>
       <x:c r="E21" s="200" t="s">
-        <x:v>1289</x:v>
+        <x:v>1295</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5" ht="15.75" customHeight="1">
@@ -35079,14 +35100,14 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B22" s="303" t="s">
-        <x:v>1315</x:v>
+        <x:v>1321</x:v>
       </x:c>
       <x:c r="C22" s="208"/>
       <x:c r="D22" s="296" t="s">
-        <x:v>1293</x:v>
+        <x:v>1299</x:v>
       </x:c>
       <x:c r="E22" s="199" t="s">
-        <x:v>1295</x:v>
+        <x:v>1301</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5" ht="15.75" customHeight="1">
@@ -35095,7 +35116,7 @@
       <x:c r="C23" s="208"/>
       <x:c r="D23" s="208"/>
       <x:c r="E23" s="199" t="s">
-        <x:v>1298</x:v>
+        <x:v>1304</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5" ht="15.75" customHeight="1">
@@ -35104,7 +35125,7 @@
       <x:c r="C24" s="209"/>
       <x:c r="D24" s="209"/>
       <x:c r="E24" s="200" t="s">
-        <x:v>1304</x:v>
+        <x:v>1310</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
